--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="14_{798B45A4-3944-44E4-B148-31E9B7A3BEA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F958170B-A9C6-44C1-B37D-28F312A8D781}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{63E35527-96C3-4802-9640-69A81B6BE16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE95D3A4-DD35-4255-9164-EB2FDA5249D4}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="559">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -527,12 +527,6 @@
     <t>【絶地獄級】 逆襲の慟哭</t>
   </si>
   <si>
-    <t>【地獄級】 最終試練【リズベット】</t>
-  </si>
-  <si>
-    <t>【地獄級】 最終試練【エドガー】</t>
-  </si>
-  <si>
     <t>【超絶地獄級】 【超絶地獄級】デストルーク撃退戦</t>
   </si>
   <si>
@@ -759,12 +753,6 @@
   </si>
   <si>
     <t>時に命より重く</t>
-  </si>
-  <si>
-    <t>最終試練 [エドガー] [地獄級]</t>
-  </si>
-  <si>
-    <t>最終試練 [リズベット] [地獄級]</t>
   </si>
   <si>
     <t>漆黒の血脈は、煌々と</t>
@@ -1579,9 +1567,6 @@
     <t>その鋼で、守りしは</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 15/11/2019</t>
-  </si>
-  <si>
     <t>ファントム オブ アルケミスト9 [EX]</t>
   </si>
   <si>
@@ -1718,6 +1703,27 @@
   </si>
   <si>
     <t>チョコレート・ハートミックス</t>
+  </si>
+  <si>
+    <t>【EX極】ファントム オブ アルケミスト2 ファントム オブ アルケミスト2[EX極3]</t>
+  </si>
+  <si>
+    <t>【時乖斧『リサナウト』登場】 ファントム オブ アルケミスト11[EX]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト2 [EX極3]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト11 [EX]</t>
+  </si>
+  <si>
+    <t>転スラ コラボ EX2 [ミリム武具獲得]</t>
+  </si>
+  <si>
+    <t>転スラ コラボ EX1 [リムル武具獲得]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 01/03/2020</t>
   </si>
 </sst>
 </file>
@@ -2236,11 +2242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M281"/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2276,31 +2282,31 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="str">
-        <f>"火 "&amp;COUNT(G2:G1007)</f>
+        <f>"火 "&amp;COUNT(G2:G1004)</f>
         <v>火 158</v>
       </c>
       <c r="H1" s="3" t="str">
-        <f>"水 "&amp;COUNT(H2:H1007)</f>
+        <f>"水 "&amp;COUNT(H2:H1004)</f>
         <v>水 157</v>
       </c>
       <c r="I1" s="3" t="str">
-        <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 137</v>
+        <f>"風 "&amp;COUNT(I2:I1004)</f>
+        <v>風 138</v>
       </c>
       <c r="J1" s="3" t="str">
-        <f>"雷 "&amp;COUNT(J2:J1007)</f>
+        <f>"雷 "&amp;COUNT(J2:J1004)</f>
         <v>雷 137</v>
       </c>
       <c r="K1" s="4" t="str">
-        <f>"光 "&amp;COUNT(K2:K1007)</f>
+        <f>"光 "&amp;COUNT(K2:K1004)</f>
         <v>光 154</v>
       </c>
       <c r="L1" s="3" t="str">
-        <f>"暗 "&amp;COUNT(L2:L1007)</f>
+        <f>"暗 "&amp;COUNT(L2:L1004)</f>
         <v>暗 142</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -2308,7 +2314,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -2346,7 +2352,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
@@ -2386,7 +2392,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
@@ -2407,10 +2413,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
@@ -2446,10 +2452,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -2485,10 +2491,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C7" s="2">
         <v>50</v>
@@ -2524,10 +2530,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C8" s="2">
         <v>40</v>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>150</v>
@@ -2590,7 +2596,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C10" s="2">
         <v>35</v>
@@ -2611,7 +2617,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C11" s="2">
         <v>40</v>
@@ -2632,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C12" s="2">
         <v>35</v>
@@ -2653,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C13" s="2">
         <v>40</v>
@@ -2674,7 +2680,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C14" s="2">
         <v>35</v>
@@ -2695,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C15" s="2">
         <v>40</v>
@@ -2716,7 +2722,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C16" s="2">
         <v>35</v>
@@ -2737,7 +2743,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C17" s="2">
         <v>40</v>
@@ -2758,7 +2764,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2">
         <v>40</v>
@@ -2779,7 +2785,7 @@
         <v>130</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2">
         <v>50</v>
@@ -2800,7 +2806,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2">
         <v>40</v>
@@ -2821,7 +2827,7 @@
         <v>131</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2">
         <v>50</v>
@@ -2842,7 +2848,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2">
         <v>40</v>
@@ -2863,7 +2869,7 @@
         <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2">
         <v>50</v>
@@ -2884,7 +2890,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2">
         <v>40</v>
@@ -2905,7 +2911,7 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2">
         <v>50</v>
@@ -2923,10 +2929,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C26" s="2">
         <v>40</v>
@@ -2965,7 +2971,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2">
         <v>50</v>
@@ -2986,10 +2992,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2">
         <v>40</v>
@@ -3028,7 +3034,7 @@
         <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C29" s="2">
         <v>50</v>
@@ -3049,10 +3055,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2">
         <v>60</v>
@@ -3076,10 +3082,10 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C31" s="2">
         <v>60</v>
@@ -3097,10 +3103,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2">
         <v>60</v>
@@ -3118,10 +3124,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="2">
         <v>60</v>
@@ -3139,10 +3145,10 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C34" s="2">
         <v>60</v>
@@ -3160,10 +3166,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C35" s="2">
         <v>60</v>
@@ -3181,10 +3187,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2">
         <v>60</v>
@@ -3241,10 +3247,10 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C38" s="2">
         <v>40</v>
@@ -3280,10 +3286,10 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C39" s="2">
         <v>50</v>
@@ -3319,10 +3325,10 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C40" s="2">
         <v>50</v>
@@ -3358,7 +3364,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>152</v>
@@ -3397,10 +3403,10 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2">
         <v>50</v>
@@ -3508,7 +3514,7 @@
         <v>118</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2">
         <v>50</v>
@@ -3547,7 +3553,7 @@
         <v>158</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2">
         <v>50</v>
@@ -3574,7 +3580,7 @@
         <v>157</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2">
         <v>50</v>
@@ -3601,7 +3607,7 @@
         <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C48" s="2">
         <v>40</v>
@@ -3625,7 +3631,7 @@
         <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C49" s="2">
         <v>40</v>
@@ -3649,7 +3655,7 @@
         <v>124</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C50" s="2">
         <v>50</v>
@@ -3670,10 +3676,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2">
         <v>40</v>
@@ -3712,7 +3718,7 @@
         <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52" s="2">
         <v>40</v>
@@ -3733,7 +3739,7 @@
         <v>137</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C53" s="2">
         <v>50</v>
@@ -3754,7 +3760,7 @@
         <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C54" s="2">
         <v>40</v>
@@ -3775,7 +3781,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C55" s="2">
         <v>40</v>
@@ -3796,7 +3802,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" s="2">
         <v>40</v>
@@ -3817,7 +3823,7 @@
         <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2">
         <v>40</v>
@@ -3838,7 +3844,7 @@
         <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C58" s="2">
         <v>40</v>
@@ -3883,7 +3889,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C60" s="2">
         <v>50</v>
@@ -3907,7 +3913,7 @@
         <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C61" s="2">
         <v>50</v>
@@ -3940,10 +3946,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C62" s="2">
         <v>40</v>
@@ -3979,10 +3985,10 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C63" s="2">
         <v>50</v>
@@ -4018,10 +4024,10 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C64" s="2">
         <v>50</v>
@@ -4039,10 +4045,10 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C65" s="2">
         <v>50</v>
@@ -4081,7 +4087,7 @@
         <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C66" s="2">
         <v>50</v>
@@ -4120,7 +4126,7 @@
         <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C67" s="2">
         <v>50</v>
@@ -4159,7 +4165,7 @@
         <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C68" s="2">
         <v>50</v>
@@ -4177,10 +4183,10 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C69" s="2">
         <v>40</v>
@@ -4216,10 +4222,10 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C70" s="2">
         <v>40</v>
@@ -4255,10 +4261,10 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2">
         <v>40</v>
@@ -4297,7 +4303,7 @@
         <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C72" s="2">
         <v>50</v>
@@ -4324,7 +4330,7 @@
         <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C73" s="2">
         <v>40</v>
@@ -4345,7 +4351,7 @@
         <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C74" s="2">
         <v>40</v>
@@ -4366,7 +4372,7 @@
         <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C75" s="2">
         <v>40</v>
@@ -4387,7 +4393,7 @@
         <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C76" s="2">
         <v>40</v>
@@ -4408,7 +4414,7 @@
         <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C77" s="2">
         <v>40</v>
@@ -4426,10 +4432,10 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C78" s="2">
         <v>50</v>
@@ -4447,10 +4453,10 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C79" s="2">
         <v>40</v>
@@ -4486,10 +4492,10 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C80" s="2">
         <v>40</v>
@@ -4525,10 +4531,10 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C81" s="2">
         <v>50</v>
@@ -4564,10 +4570,10 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C82" s="2">
         <v>50</v>
@@ -4606,7 +4612,7 @@
         <v>63</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
@@ -4645,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C84" s="2">
         <v>50</v>
@@ -4684,7 +4690,7 @@
         <v>21</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C85" s="2">
         <v>50</v>
@@ -4705,7 +4711,7 @@
         <v>23</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C86" s="2">
         <v>40</v>
@@ -4744,7 +4750,7 @@
         <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="2">
         <v>40</v>
@@ -4783,7 +4789,7 @@
         <v>18</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C88" s="2">
         <v>40</v>
@@ -4822,7 +4828,7 @@
         <v>45</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C89" s="2">
         <v>40</v>
@@ -4861,7 +4867,7 @@
         <v>19</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C90" s="2">
         <v>40</v>
@@ -4897,10 +4903,10 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C91" s="2">
         <v>40</v>
@@ -4939,7 +4945,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C92" s="2">
         <v>40</v>
@@ -4975,10 +4981,10 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C93" s="2">
         <v>40</v>
@@ -5014,10 +5020,10 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C94" s="2">
         <v>40</v>
@@ -5053,10 +5059,10 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C95" s="2">
         <v>40</v>
@@ -5095,7 +5101,7 @@
         <v>30</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C96" s="2">
         <v>40</v>
@@ -5134,7 +5140,7 @@
         <v>13</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C97" s="2">
         <v>40</v>
@@ -5173,7 +5179,7 @@
         <v>27</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C98" s="2">
         <v>40</v>
@@ -5212,7 +5218,7 @@
         <v>29</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C99" s="2">
         <v>40</v>
@@ -5248,10 +5254,10 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C100" s="2">
         <v>40</v>
@@ -5287,10 +5293,10 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C101" s="2">
         <v>40</v>
@@ -5320,7 +5326,7 @@
         <v>117</v>
       </c>
       <c r="M101" s="12">
-        <f t="shared" ref="M101:M164" si="2">AVERAGE(G101:L101)</f>
+        <f t="shared" ref="M101:M162" si="2">AVERAGE(G101:L101)</f>
         <v>124.33333333333333</v>
       </c>
     </row>
@@ -5329,7 +5335,7 @@
         <v>64</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C102" s="2">
         <v>40</v>
@@ -5368,7 +5374,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C103" s="2">
         <v>40</v>
@@ -5389,7 +5395,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2">
         <v>40</v>
@@ -5410,7 +5416,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C105" s="2">
         <v>40</v>
@@ -5431,7 +5437,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C106" s="2">
         <v>50</v>
@@ -5452,7 +5458,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C107" s="2">
         <v>50</v>
@@ -5482,7 +5488,7 @@
         <v>65</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C108" s="2">
         <v>40</v>
@@ -5521,7 +5527,7 @@
         <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C109" s="2">
         <v>50</v>
@@ -5557,10 +5563,10 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C110" s="2">
         <v>40</v>
@@ -5596,10 +5602,10 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C111" s="2">
         <v>40</v>
@@ -5635,10 +5641,10 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C112" s="2">
         <v>40</v>
@@ -5674,10 +5680,10 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C113" s="2">
         <v>40</v>
@@ -5713,10 +5719,10 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C114" s="2">
         <v>40</v>
@@ -5752,10 +5758,10 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C115" s="2">
         <v>40</v>
@@ -5791,10 +5797,10 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C116" s="2">
         <v>40</v>
@@ -5830,10 +5836,10 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C117" s="2">
         <v>40</v>
@@ -5872,7 +5878,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C118" s="2">
         <v>50</v>
@@ -5908,10 +5914,10 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C119" s="2">
         <v>50</v>
@@ -5947,10 +5953,10 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C120" s="2">
         <v>50</v>
@@ -5986,10 +5992,10 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C121" s="2">
         <v>50</v>
@@ -6025,10 +6031,10 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C122" s="2">
         <v>40</v>
@@ -6049,10 +6055,10 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C123" s="2">
         <v>40</v>
@@ -6088,10 +6094,10 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C124" s="2">
         <v>50</v>
@@ -6127,10 +6133,10 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C125" s="2">
         <v>40</v>
@@ -6166,10 +6172,10 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C126" s="2">
         <v>50</v>
@@ -6208,7 +6214,7 @@
         <v>51</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C127" s="2">
         <v>40</v>
@@ -6232,7 +6238,7 @@
         <v>54</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C128" s="2">
         <v>40</v>
@@ -6256,7 +6262,7 @@
         <v>66</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C129" s="2">
         <v>40</v>
@@ -6292,10 +6298,10 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C130" s="2">
         <v>40</v>
@@ -6313,10 +6319,10 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C131" s="2">
         <v>40</v>
@@ -6352,10 +6358,10 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C132" s="2">
         <v>50</v>
@@ -6388,7 +6394,7 @@
         <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C133" s="2">
         <v>50</v>
@@ -6418,7 +6424,7 @@
         <v>75</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C134" s="2">
         <v>40</v>
@@ -6445,10 +6451,10 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C135" s="2">
         <v>30</v>
@@ -6484,10 +6490,10 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C136" s="2">
         <v>60</v>
@@ -6523,10 +6529,10 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C137" s="2">
         <v>40</v>
@@ -6562,10 +6568,10 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C138" s="2">
         <v>50</v>
@@ -6604,7 +6610,7 @@
         <v>102</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C139" s="2">
         <v>50</v>
@@ -6625,7 +6631,7 @@
         <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C140" s="2">
         <v>60</v>
@@ -6649,7 +6655,7 @@
         <v>103</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C141" s="2">
         <v>50</v>
@@ -6670,7 +6676,7 @@
         <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C142" s="2">
         <v>60</v>
@@ -6691,7 +6697,7 @@
         <v>68</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C143" s="2">
         <v>40</v>
@@ -6712,10 +6718,10 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C144" s="2">
         <v>40</v>
@@ -6739,10 +6745,10 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C145" s="2">
         <v>40</v>
@@ -6778,10 +6784,10 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C146" s="2">
         <v>50</v>
@@ -6802,10 +6808,10 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C147" s="2">
         <v>50</v>
@@ -6844,7 +6850,7 @@
         <v>77</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C148" s="2">
         <v>50</v>
@@ -6865,7 +6871,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C149" s="2">
         <v>60</v>
@@ -6889,7 +6895,7 @@
         <v>42</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C150" s="2">
         <v>50</v>
@@ -6928,7 +6934,7 @@
         <v>41</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C151" s="2">
         <v>50</v>
@@ -6967,7 +6973,7 @@
         <v>40</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C152" s="2">
         <v>50</v>
@@ -6988,10 +6994,10 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C153" s="2">
         <v>50</v>
@@ -7015,7 +7021,7 @@
         <v>46</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C154" s="2">
         <v>40</v>
@@ -7036,10 +7042,10 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C155" s="2">
         <v>40</v>
@@ -7078,7 +7084,7 @@
         <v>32</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C156" s="2">
         <v>50</v>
@@ -7117,7 +7123,7 @@
         <v>69</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C157" s="2">
         <v>40</v>
@@ -7156,7 +7162,7 @@
         <v>79</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C158" s="2">
         <v>50</v>
@@ -7174,10 +7180,10 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C159" s="2">
         <v>40</v>
@@ -7216,7 +7222,7 @@
         <v>139</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C160" s="2">
         <v>50</v>
@@ -7237,7 +7243,7 @@
         <v>115</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C161" s="2">
         <v>40</v>
@@ -7255,181 +7261,202 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C162" s="1">
-        <v>10</v>
-      </c>
-      <c r="D162" s="1">
-        <v>500</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="12" t="e">
+        <v>374</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C162" s="2">
+        <v>40</v>
+      </c>
+      <c r="D162" s="2">
+        <v>400</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" s="6">
+        <v>18</v>
+      </c>
+      <c r="H162" s="7">
+        <v>17</v>
+      </c>
+      <c r="I162" s="8">
+        <v>17</v>
+      </c>
+      <c r="J162" s="9">
+        <v>17</v>
+      </c>
+      <c r="K162" s="10">
+        <v>17</v>
+      </c>
+      <c r="L162" s="11">
+        <v>17</v>
+      </c>
+      <c r="M162" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>17.166666666666668</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C163" s="1">
-        <v>10</v>
-      </c>
-      <c r="D163" s="1">
-        <v>500</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>67</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2">
+        <v>40</v>
+      </c>
+      <c r="D163" s="2">
+        <v>400</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" s="6">
+        <v>87</v>
+      </c>
+      <c r="H163" s="7">
+        <v>85</v>
+      </c>
+      <c r="I163" s="8">
+        <v>67</v>
+      </c>
+      <c r="J163" s="9">
+        <v>66</v>
+      </c>
+      <c r="K163" s="10">
+        <v>87</v>
+      </c>
+      <c r="L163" s="11">
+        <v>70</v>
+      </c>
+      <c r="M163" s="12">
+        <f t="shared" ref="M163:M226" si="3">AVERAGE(G163:L163)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>378</v>
+        <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="C164" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D164" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G164" s="6">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="H164" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I164" s="8">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J164" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="K164" s="10">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="L164" s="11">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="M164" s="12">
-        <f t="shared" si="2"/>
-        <v>17.166666666666668</v>
+        <f t="shared" si="3"/>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C165" s="2">
+        <v>50</v>
+      </c>
+      <c r="D165" s="2">
+        <v>500</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" s="6">
+        <v>88</v>
+      </c>
+      <c r="H165" s="7">
+        <v>86</v>
+      </c>
+      <c r="I165" s="8">
+        <v>68</v>
+      </c>
+      <c r="J165" s="9">
         <v>67</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C165" s="2">
-        <v>40</v>
-      </c>
-      <c r="D165" s="2">
-        <v>400</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G165" s="6">
-        <v>87</v>
-      </c>
-      <c r="H165" s="7">
-        <v>85</v>
-      </c>
-      <c r="I165" s="8">
-        <v>67</v>
-      </c>
-      <c r="J165" s="9">
-        <v>66</v>
-      </c>
-      <c r="K165" s="10">
-        <v>87</v>
-      </c>
       <c r="L165" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M165" s="12">
-        <f t="shared" ref="M165:M228" si="3">AVERAGE(G165:L165)</f>
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>159</v>
+        <v>368</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="C166" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D166" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G166" s="6">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H166" s="7">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="I166" s="8">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="J166" s="9">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="K166" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="L166" s="11">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M166" s="12">
         <f t="shared" si="3"/>
-        <v>80.666666666666671</v>
+        <v>13.166666666666666</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C167" s="2">
         <v>50</v>
@@ -7441,31 +7468,34 @@
         <v>4</v>
       </c>
       <c r="G167" s="6">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H167" s="7">
+        <v>101</v>
+      </c>
+      <c r="I167" s="8">
+        <v>84</v>
+      </c>
+      <c r="J167" s="9">
+        <v>84</v>
+      </c>
+      <c r="K167" s="10">
+        <v>101</v>
+      </c>
+      <c r="L167" s="11">
         <v>86</v>
-      </c>
-      <c r="I167" s="8">
-        <v>68</v>
-      </c>
-      <c r="J167" s="9">
-        <v>67</v>
-      </c>
-      <c r="L167" s="11">
-        <v>71</v>
       </c>
       <c r="M167" s="12">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>372</v>
+        <v>113</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C168" s="2">
         <v>40</v>
@@ -7476,173 +7506,149 @@
       <c r="E168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G168" s="6">
-        <v>14</v>
-      </c>
-      <c r="H168" s="7">
-        <v>13</v>
-      </c>
-      <c r="I168" s="8">
-        <v>13</v>
-      </c>
       <c r="J168" s="9">
-        <v>13</v>
-      </c>
-      <c r="K168" s="10">
-        <v>13</v>
-      </c>
-      <c r="L168" s="11">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M168" s="12">
         <f t="shared" si="3"/>
-        <v>13.166666666666666</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="C169" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D169" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G169" s="6">
-        <v>63</v>
-      </c>
       <c r="H169" s="7">
-        <v>101</v>
-      </c>
-      <c r="I169" s="8">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="J169" s="9">
-        <v>84</v>
-      </c>
-      <c r="K169" s="10">
-        <v>101</v>
-      </c>
-      <c r="L169" s="11">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="M169" s="12">
         <f t="shared" si="3"/>
-        <v>86.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="C170" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D170" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J170" s="9">
-        <v>55</v>
+      <c r="K170" s="10">
+        <v>86</v>
       </c>
       <c r="M170" s="12">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="C171" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D171" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H171" s="7">
-        <v>54</v>
-      </c>
-      <c r="J171" s="9">
-        <v>56</v>
+      <c r="K171" s="10">
+        <v>67</v>
       </c>
       <c r="M171" s="12">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C172" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D172" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K172" s="10">
-        <v>86</v>
+      <c r="H172" s="7">
+        <v>14</v>
+      </c>
+      <c r="L172" s="11">
+        <v>14</v>
       </c>
       <c r="M172" s="12">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>140</v>
+        <v>445</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="C173" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D173" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K173" s="10">
-        <v>67</v>
+      <c r="G173" s="6">
+        <v>15</v>
+      </c>
+      <c r="I173" s="8">
+        <v>14</v>
       </c>
       <c r="M173" s="12">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" s="2">
         <v>40</v>
@@ -7653,10 +7659,10 @@
       <c r="E174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H174" s="7">
+      <c r="J174" s="9">
         <v>14</v>
       </c>
-      <c r="L174" s="11">
+      <c r="K174" s="10">
         <v>14</v>
       </c>
       <c r="M174" s="12">
@@ -7666,64 +7672,64 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
-        <v>449</v>
+        <v>58</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="C175" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D175" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G175" s="6">
-        <v>15</v>
-      </c>
-      <c r="I175" s="8">
-        <v>14</v>
+      <c r="H175" s="7">
+        <v>5</v>
+      </c>
+      <c r="L175" s="11">
+        <v>51</v>
       </c>
       <c r="M175" s="12">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>184</v>
+        <v>448</v>
       </c>
       <c r="C176" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D176" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J176" s="9">
-        <v>14</v>
-      </c>
-      <c r="K176" s="10">
-        <v>14</v>
+      <c r="G176" s="6">
+        <v>62</v>
+      </c>
+      <c r="I176" s="8">
+        <v>52</v>
       </c>
       <c r="M176" s="12">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C177" s="2">
         <v>50</v>
@@ -7734,15 +7740,15 @@
       <c r="E177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H177" s="7">
-        <v>5</v>
-      </c>
-      <c r="L177" s="11">
-        <v>51</v>
+      <c r="J177" s="9">
+        <v>52</v>
+      </c>
+      <c r="K177" s="10">
+        <v>62</v>
       </c>
       <c r="M177" s="12">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7761,50 +7767,47 @@
       <c r="E178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G178" s="6">
-        <v>62</v>
-      </c>
-      <c r="I178" s="8">
-        <v>52</v>
+      <c r="J178" s="9">
+        <v>76</v>
       </c>
       <c r="M178" s="12">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C179" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D179" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J179" s="9">
-        <v>52</v>
-      </c>
-      <c r="K179" s="10">
-        <v>62</v>
+      <c r="G179" s="6">
+        <v>54</v>
+      </c>
+      <c r="H179" s="7">
+        <v>49</v>
       </c>
       <c r="M179" s="12">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>455</v>
+        <v>171</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>456</v>
+        <v>185</v>
       </c>
       <c r="C180" s="2">
         <v>50</v>
@@ -7815,992 +7818,1001 @@
       <c r="E180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J180" s="9">
-        <v>76</v>
+      <c r="K180" s="10">
+        <v>61</v>
+      </c>
+      <c r="L180" s="11">
+        <v>49</v>
       </c>
       <c r="M180" s="12">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C181" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D181" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G181" s="6">
-        <v>54</v>
-      </c>
-      <c r="H181" s="7">
-        <v>49</v>
-      </c>
-      <c r="M181" s="12">
+      <c r="M181" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>51.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="C182" s="2">
         <v>50</v>
       </c>
       <c r="D182" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K182" s="10">
+      <c r="I182" s="8">
         <v>61</v>
-      </c>
-      <c r="L182" s="11">
-        <v>49</v>
       </c>
       <c r="M182" s="12">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>104</v>
+        <v>370</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C183" s="2">
+        <v>40</v>
+      </c>
+      <c r="D183" s="2">
+        <v>400</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" s="6">
+        <v>16</v>
+      </c>
+      <c r="H183" s="7">
+        <v>15</v>
+      </c>
+      <c r="I183" s="8">
+        <v>15</v>
+      </c>
+      <c r="J183" s="9">
+        <v>15</v>
+      </c>
+      <c r="K183" s="10">
+        <v>15</v>
+      </c>
+      <c r="L183" s="11">
+        <v>15</v>
+      </c>
+      <c r="M183" s="12">
+        <f t="shared" si="3"/>
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" s="2">
+        <v>50</v>
+      </c>
+      <c r="D184" s="2">
+        <v>500</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" s="6">
+        <v>17</v>
+      </c>
+      <c r="H184" s="7">
+        <v>16</v>
+      </c>
+      <c r="I184" s="8">
+        <v>16</v>
+      </c>
+      <c r="J184" s="9">
+        <v>16</v>
+      </c>
+      <c r="K184" s="10">
+        <v>16</v>
+      </c>
+      <c r="L184" s="11">
+        <v>16</v>
+      </c>
+      <c r="M184" s="12">
+        <f t="shared" si="3"/>
+        <v>16.166666666666668</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C185" s="2">
+        <v>50</v>
+      </c>
+      <c r="D185" s="2">
+        <v>500</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K185" s="10">
+        <v>77</v>
+      </c>
+      <c r="M185" s="12">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C186" s="2">
+        <v>40</v>
+      </c>
+      <c r="D186" s="2">
+        <v>400</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" s="6">
+        <v>11</v>
+      </c>
+      <c r="H186" s="7">
+        <v>10</v>
+      </c>
+      <c r="I186" s="8">
+        <v>10</v>
+      </c>
+      <c r="J186" s="9">
+        <v>10</v>
+      </c>
+      <c r="K186" s="10">
+        <v>10</v>
+      </c>
+      <c r="L186" s="11">
+        <v>10</v>
+      </c>
+      <c r="M186" s="12">
+        <f t="shared" si="3"/>
+        <v>10.166666666666666</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C187" s="2">
+        <v>40</v>
+      </c>
+      <c r="D187" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" s="6">
+        <v>56</v>
+      </c>
+      <c r="M187" s="12">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C188" s="2">
+        <v>50</v>
+      </c>
+      <c r="D188" s="2">
+        <v>500</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" s="6">
+        <v>115</v>
+      </c>
+      <c r="H188" s="7">
+        <v>115</v>
+      </c>
+      <c r="I188" s="8">
+        <v>100</v>
+      </c>
+      <c r="J188" s="9">
+        <v>64</v>
+      </c>
+      <c r="K188" s="10">
+        <v>112</v>
+      </c>
+      <c r="L188" s="11">
+        <v>101</v>
+      </c>
+      <c r="M188" s="12">
+        <f t="shared" si="3"/>
+        <v>101.16666666666667</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C189" s="2">
+        <v>50</v>
+      </c>
+      <c r="D189" s="2">
+        <v>500</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" s="6">
+        <v>112</v>
+      </c>
+      <c r="H189" s="7">
+        <v>83</v>
+      </c>
+      <c r="I189" s="8">
+        <v>96</v>
+      </c>
+      <c r="J189" s="9">
+        <v>95</v>
+      </c>
+      <c r="K189" s="10">
+        <v>108</v>
+      </c>
+      <c r="L189" s="11">
+        <v>98</v>
+      </c>
+      <c r="M189" s="12">
+        <f t="shared" si="3"/>
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C183" s="2">
-        <v>50</v>
-      </c>
-      <c r="D183" s="2">
-        <v>400</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M183" s="12" t="e">
+      <c r="C190" s="2">
+        <v>40</v>
+      </c>
+      <c r="D190" s="2">
+        <v>400</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M190" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
-      <c r="A184" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C184" s="2">
-        <v>50</v>
-      </c>
-      <c r="D184" s="2">
-        <v>400</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I184" s="8">
+    <row r="191" spans="1:13">
+      <c r="A191" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C191" s="2">
+        <v>40</v>
+      </c>
+      <c r="D191" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G191" s="6">
+        <v>70</v>
+      </c>
+      <c r="M191" s="12">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C192" s="2">
+        <v>40</v>
+      </c>
+      <c r="D192" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G192" s="6">
+        <v>71</v>
+      </c>
+      <c r="M192" s="12">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C193" s="2">
+        <v>50</v>
+      </c>
+      <c r="D193" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H193" s="7">
         <v>61</v>
       </c>
-      <c r="M184" s="12">
+      <c r="M193" s="12">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
-      <c r="A185" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C185" s="2">
-        <v>40</v>
-      </c>
-      <c r="D185" s="2">
-        <v>400</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G185" s="6">
-        <v>16</v>
-      </c>
-      <c r="H185" s="7">
-        <v>15</v>
-      </c>
-      <c r="I185" s="8">
-        <v>15</v>
-      </c>
-      <c r="J185" s="9">
-        <v>15</v>
-      </c>
-      <c r="K185" s="10">
-        <v>15</v>
-      </c>
-      <c r="L185" s="11">
-        <v>15</v>
-      </c>
-      <c r="M185" s="12">
+    <row r="194" spans="1:13">
+      <c r="A194" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C194" s="2">
+        <v>40</v>
+      </c>
+      <c r="D194" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J194" s="9">
+        <v>57</v>
+      </c>
+      <c r="L194" s="11">
+        <v>56</v>
+      </c>
+      <c r="M194" s="12">
         <f t="shared" si="3"/>
-        <v>15.166666666666666</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13">
-      <c r="A186" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C186" s="2">
-        <v>50</v>
-      </c>
-      <c r="D186" s="2">
-        <v>500</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G186" s="6">
-        <v>17</v>
-      </c>
-      <c r="H186" s="7">
-        <v>16</v>
-      </c>
-      <c r="I186" s="8">
-        <v>16</v>
-      </c>
-      <c r="J186" s="9">
-        <v>16</v>
-      </c>
-      <c r="K186" s="10">
-        <v>16</v>
-      </c>
-      <c r="L186" s="11">
-        <v>16</v>
-      </c>
-      <c r="M186" s="12">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C195" s="2">
+        <v>40</v>
+      </c>
+      <c r="D195" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L195" s="11">
+        <v>54</v>
+      </c>
+      <c r="M195" s="12">
         <f t="shared" si="3"/>
-        <v>16.166666666666668</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="A187" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C187" s="2">
-        <v>50</v>
-      </c>
-      <c r="D187" s="2">
-        <v>500</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K187" s="10">
-        <v>77</v>
-      </c>
-      <c r="M187" s="12">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C188" s="2">
-        <v>40</v>
-      </c>
-      <c r="D188" s="2">
-        <v>400</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G188" s="6">
-        <v>11</v>
-      </c>
-      <c r="H188" s="7">
-        <v>10</v>
-      </c>
-      <c r="I188" s="8">
-        <v>10</v>
-      </c>
-      <c r="J188" s="9">
-        <v>10</v>
-      </c>
-      <c r="K188" s="10">
-        <v>10</v>
-      </c>
-      <c r="L188" s="11">
-        <v>10</v>
-      </c>
-      <c r="M188" s="12">
-        <f t="shared" si="3"/>
-        <v>10.166666666666666</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="A189" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C189" s="2">
-        <v>40</v>
-      </c>
-      <c r="D189" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G189" s="6">
-        <v>56</v>
-      </c>
-      <c r="M189" s="12">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="A190" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C190" s="2">
-        <v>50</v>
-      </c>
-      <c r="D190" s="2">
-        <v>500</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G190" s="6">
-        <v>115</v>
-      </c>
-      <c r="H190" s="7">
-        <v>115</v>
-      </c>
-      <c r="I190" s="8">
-        <v>100</v>
-      </c>
-      <c r="J190" s="9">
-        <v>64</v>
-      </c>
-      <c r="K190" s="10">
-        <v>112</v>
-      </c>
-      <c r="L190" s="11">
-        <v>101</v>
-      </c>
-      <c r="M190" s="12">
-        <f t="shared" si="3"/>
-        <v>101.16666666666667</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C191" s="2">
-        <v>50</v>
-      </c>
-      <c r="D191" s="2">
-        <v>500</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G191" s="6">
-        <v>112</v>
-      </c>
-      <c r="H191" s="7">
-        <v>83</v>
-      </c>
-      <c r="I191" s="8">
-        <v>96</v>
-      </c>
-      <c r="J191" s="9">
-        <v>95</v>
-      </c>
-      <c r="K191" s="10">
-        <v>108</v>
-      </c>
-      <c r="L191" s="11">
-        <v>98</v>
-      </c>
-      <c r="M191" s="12">
-        <f t="shared" si="3"/>
-        <v>98.666666666666671</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C192" s="2">
-        <v>40</v>
-      </c>
-      <c r="D192" s="2">
-        <v>400</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M192" s="12" t="e">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C196" s="2">
+        <v>50</v>
+      </c>
+      <c r="D196" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M196" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C193" s="2">
-        <v>40</v>
-      </c>
-      <c r="D193" s="2">
+    <row r="197" spans="1:13">
+      <c r="A197" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C197" s="2">
+        <v>40</v>
+      </c>
+      <c r="D197" s="2">
         <v>11000</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G193" s="6">
-        <v>70</v>
-      </c>
-      <c r="M193" s="12">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C194" s="2">
-        <v>40</v>
-      </c>
-      <c r="D194" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G194" s="6">
-        <v>71</v>
-      </c>
-      <c r="M194" s="12">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C195" s="2">
-        <v>50</v>
-      </c>
-      <c r="D195" s="2">
-        <v>14000</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H195" s="7">
-        <v>61</v>
-      </c>
-      <c r="M195" s="12">
+      <c r="E197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H197" s="7">
+        <v>60</v>
+      </c>
+      <c r="K197" s="10">
+        <v>68</v>
+      </c>
+      <c r="L197" s="11">
+        <v>55</v>
+      </c>
+      <c r="M197" s="12">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
-      <c r="A196" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C196" s="2">
-        <v>40</v>
-      </c>
-      <c r="D196" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J196" s="9">
-        <v>57</v>
-      </c>
-      <c r="L196" s="11">
-        <v>56</v>
-      </c>
-      <c r="M196" s="12">
-        <f t="shared" si="3"/>
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C197" s="2">
-        <v>40</v>
-      </c>
-      <c r="D197" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L197" s="11">
-        <v>54</v>
-      </c>
-      <c r="M197" s="12">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
     <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="C198" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D198" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M198" s="12" t="e">
+      <c r="H198" s="7">
+        <v>57</v>
+      </c>
+      <c r="M198" s="12">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C199" s="2">
+        <v>40</v>
+      </c>
+      <c r="D199" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H199" s="7">
+        <v>59</v>
+      </c>
+      <c r="M199" s="12">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C200" s="2">
+        <v>40</v>
+      </c>
+      <c r="D200" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H200" s="7">
+        <v>58</v>
+      </c>
+      <c r="M200" s="12">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C201" s="2">
+        <v>50</v>
+      </c>
+      <c r="D201" s="2">
+        <v>400</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G201" s="6">
+        <v>39</v>
+      </c>
+      <c r="H201" s="7">
+        <v>35</v>
+      </c>
+      <c r="I201" s="8">
+        <v>35</v>
+      </c>
+      <c r="J201" s="9">
+        <v>35</v>
+      </c>
+      <c r="K201" s="10">
+        <v>41</v>
+      </c>
+      <c r="L201" s="11">
+        <v>39</v>
+      </c>
+      <c r="M201" s="12">
+        <f t="shared" si="3"/>
+        <v>37.333333333333336</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C202" s="2">
+        <v>40</v>
+      </c>
+      <c r="D202" s="2">
+        <v>400</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G202" s="6">
+        <v>74</v>
+      </c>
+      <c r="M202" s="12">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C203" s="2">
+        <v>50</v>
+      </c>
+      <c r="D203" s="2">
+        <v>500</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M203" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C199" s="2">
-        <v>40</v>
-      </c>
-      <c r="D199" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H199" s="7">
-        <v>60</v>
-      </c>
-      <c r="K199" s="10">
-        <v>68</v>
-      </c>
-      <c r="L199" s="11">
-        <v>55</v>
-      </c>
-      <c r="M199" s="12">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C200" s="2">
-        <v>40</v>
-      </c>
-      <c r="D200" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H200" s="7">
-        <v>57</v>
-      </c>
-      <c r="M200" s="12">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C201" s="2">
-        <v>40</v>
-      </c>
-      <c r="D201" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H201" s="7">
-        <v>59</v>
-      </c>
-      <c r="M201" s="12">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="A202" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C202" s="2">
-        <v>40</v>
-      </c>
-      <c r="D202" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H202" s="7">
-        <v>58</v>
-      </c>
-      <c r="M202" s="12">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C203" s="2">
-        <v>50</v>
-      </c>
-      <c r="D203" s="2">
-        <v>400</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G203" s="6">
-        <v>39</v>
-      </c>
-      <c r="H203" s="7">
-        <v>35</v>
-      </c>
-      <c r="I203" s="8">
-        <v>35</v>
-      </c>
-      <c r="J203" s="9">
-        <v>35</v>
-      </c>
-      <c r="K203" s="10">
-        <v>41</v>
-      </c>
-      <c r="L203" s="11">
-        <v>39</v>
-      </c>
-      <c r="M203" s="12">
-        <f t="shared" si="3"/>
-        <v>37.333333333333336</v>
-      </c>
-    </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="C204" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D204" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G204" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M204" s="12">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="C205" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D205" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M205" s="12" t="e">
+      <c r="G205" s="6">
+        <v>90</v>
+      </c>
+      <c r="H205" s="7">
+        <v>88</v>
+      </c>
+      <c r="I205" s="8">
+        <v>69</v>
+      </c>
+      <c r="J205" s="9">
+        <v>69</v>
+      </c>
+      <c r="K205" s="10">
+        <v>89</v>
+      </c>
+      <c r="L205" s="11">
+        <v>73</v>
+      </c>
+      <c r="M205" s="12">
+        <f t="shared" si="3"/>
+        <v>79.666666666666671</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="A206" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C206" s="2">
+        <v>40</v>
+      </c>
+      <c r="D206" s="2">
+        <v>400</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G206" s="6">
+        <v>91</v>
+      </c>
+      <c r="H206" s="7">
+        <v>89</v>
+      </c>
+      <c r="I206" s="8">
+        <v>71</v>
+      </c>
+      <c r="J206" s="9">
+        <v>71</v>
+      </c>
+      <c r="K206" s="10">
+        <v>91</v>
+      </c>
+      <c r="L206" s="11">
+        <v>74</v>
+      </c>
+      <c r="M206" s="12">
+        <f t="shared" si="3"/>
+        <v>81.166666666666671</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="A207" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C207" s="2">
+        <v>50</v>
+      </c>
+      <c r="D207" s="2">
+        <v>500</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G207" s="6">
+        <v>93</v>
+      </c>
+      <c r="H207" s="7">
+        <v>91</v>
+      </c>
+      <c r="I207" s="8">
+        <v>72</v>
+      </c>
+      <c r="J207" s="9">
+        <v>72</v>
+      </c>
+      <c r="K207" s="10">
+        <v>92</v>
+      </c>
+      <c r="L207" s="11">
+        <v>75</v>
+      </c>
+      <c r="M207" s="12">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
+      <c r="A208" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C208" s="2">
+        <v>40</v>
+      </c>
+      <c r="D208" s="2">
+        <v>400</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G208" s="6">
+        <v>12</v>
+      </c>
+      <c r="H208" s="7">
+        <v>11</v>
+      </c>
+      <c r="I208" s="8">
+        <v>11</v>
+      </c>
+      <c r="J208" s="9">
+        <v>11</v>
+      </c>
+      <c r="K208" s="10">
+        <v>11</v>
+      </c>
+      <c r="L208" s="11">
+        <v>11</v>
+      </c>
+      <c r="M208" s="12">
+        <f t="shared" si="3"/>
+        <v>11.166666666666666</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C209" s="2">
+        <v>60</v>
+      </c>
+      <c r="D209" s="2">
+        <v>600</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I209" s="8">
+        <v>53</v>
+      </c>
+      <c r="J209" s="9">
+        <v>53</v>
+      </c>
+      <c r="K209" s="10">
+        <v>63</v>
+      </c>
+      <c r="M209" s="12">
+        <f t="shared" si="3"/>
+        <v>56.333333333333336</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C210" s="2">
+        <v>60</v>
+      </c>
+      <c r="D210" s="2">
+        <v>600</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="6">
+        <v>13</v>
+      </c>
+      <c r="H210" s="7">
+        <v>12</v>
+      </c>
+      <c r="I210" s="8">
+        <v>12</v>
+      </c>
+      <c r="J210" s="9">
+        <v>12</v>
+      </c>
+      <c r="K210" s="10">
+        <v>12</v>
+      </c>
+      <c r="L210" s="11">
+        <v>12</v>
+      </c>
+      <c r="M210" s="12">
+        <f t="shared" si="3"/>
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C211" s="2">
+        <v>40</v>
+      </c>
+      <c r="D211" s="2">
+        <v>400</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H211" s="7">
+        <v>62</v>
+      </c>
+      <c r="K211" s="10">
+        <v>139</v>
+      </c>
+      <c r="M211" s="12">
+        <f t="shared" si="3"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="A212" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C212" s="2">
+        <v>40</v>
+      </c>
+      <c r="D212" s="2">
+        <v>400</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G212" s="6">
+        <v>5</v>
+      </c>
+      <c r="H212" s="7">
+        <v>6</v>
+      </c>
+      <c r="I212" s="8">
+        <v>6</v>
+      </c>
+      <c r="J212" s="9">
+        <v>7</v>
+      </c>
+      <c r="K212" s="10">
+        <v>6</v>
+      </c>
+      <c r="L212" s="11">
+        <v>6</v>
+      </c>
+      <c r="M212" s="12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
+      <c r="A213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C213" s="2">
+        <v>50</v>
+      </c>
+      <c r="D213" s="2">
+        <v>400</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M213" s="12" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C206" s="2">
-        <v>50</v>
-      </c>
-      <c r="D206" s="2">
-        <v>500</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G206" s="6">
-        <v>75</v>
-      </c>
-      <c r="M206" s="12">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C207" s="2">
-        <v>60</v>
-      </c>
-      <c r="D207" s="2">
-        <v>400</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G207" s="6">
-        <v>90</v>
-      </c>
-      <c r="H207" s="7">
-        <v>88</v>
-      </c>
-      <c r="I207" s="8">
-        <v>69</v>
-      </c>
-      <c r="J207" s="9">
-        <v>69</v>
-      </c>
-      <c r="K207" s="10">
-        <v>89</v>
-      </c>
-      <c r="L207" s="11">
-        <v>73</v>
-      </c>
-      <c r="M207" s="12">
-        <f t="shared" si="3"/>
-        <v>79.666666666666671</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C208" s="2">
-        <v>40</v>
-      </c>
-      <c r="D208" s="2">
-        <v>400</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G208" s="6">
-        <v>91</v>
-      </c>
-      <c r="H208" s="7">
-        <v>89</v>
-      </c>
-      <c r="I208" s="8">
-        <v>71</v>
-      </c>
-      <c r="J208" s="9">
-        <v>71</v>
-      </c>
-      <c r="K208" s="10">
-        <v>91</v>
-      </c>
-      <c r="L208" s="11">
-        <v>74</v>
-      </c>
-      <c r="M208" s="12">
-        <f t="shared" si="3"/>
-        <v>81.166666666666671</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C209" s="2">
-        <v>50</v>
-      </c>
-      <c r="D209" s="2">
-        <v>500</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G209" s="6">
-        <v>93</v>
-      </c>
-      <c r="H209" s="7">
-        <v>91</v>
-      </c>
-      <c r="I209" s="8">
-        <v>72</v>
-      </c>
-      <c r="J209" s="9">
-        <v>72</v>
-      </c>
-      <c r="K209" s="10">
-        <v>92</v>
-      </c>
-      <c r="L209" s="11">
-        <v>75</v>
-      </c>
-      <c r="M209" s="12">
-        <f t="shared" si="3"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
-      <c r="A210" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C210" s="2">
-        <v>40</v>
-      </c>
-      <c r="D210" s="2">
-        <v>400</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G210" s="6">
-        <v>12</v>
-      </c>
-      <c r="H210" s="7">
-        <v>11</v>
-      </c>
-      <c r="I210" s="8">
-        <v>11</v>
-      </c>
-      <c r="J210" s="9">
-        <v>11</v>
-      </c>
-      <c r="K210" s="10">
-        <v>11</v>
-      </c>
-      <c r="L210" s="11">
-        <v>11</v>
-      </c>
-      <c r="M210" s="12">
-        <f t="shared" si="3"/>
-        <v>11.166666666666666</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
-      <c r="A211" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C211" s="2">
-        <v>60</v>
-      </c>
-      <c r="D211" s="2">
-        <v>600</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I211" s="8">
-        <v>53</v>
-      </c>
-      <c r="J211" s="9">
-        <v>53</v>
-      </c>
-      <c r="K211" s="10">
-        <v>63</v>
-      </c>
-      <c r="M211" s="12">
-        <f t="shared" si="3"/>
-        <v>56.333333333333336</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
-      <c r="A212" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C212" s="2">
-        <v>60</v>
-      </c>
-      <c r="D212" s="2">
-        <v>600</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G212" s="6">
-        <v>13</v>
-      </c>
-      <c r="H212" s="7">
-        <v>12</v>
-      </c>
-      <c r="I212" s="8">
-        <v>12</v>
-      </c>
-      <c r="J212" s="9">
-        <v>12</v>
-      </c>
-      <c r="K212" s="10">
-        <v>12</v>
-      </c>
-      <c r="L212" s="11">
-        <v>12</v>
-      </c>
-      <c r="M212" s="12">
-        <f t="shared" si="3"/>
-        <v>12.166666666666666</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
-      <c r="A213" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C213" s="2">
-        <v>40</v>
-      </c>
-      <c r="D213" s="2">
-        <v>400</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H213" s="7">
-        <v>62</v>
-      </c>
-      <c r="K213" s="10">
-        <v>139</v>
-      </c>
-      <c r="M213" s="12">
-        <f t="shared" si="3"/>
-        <v>100.5</v>
-      </c>
-    </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>358</v>
+        <v>24</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>359</v>
+        <v>220</v>
       </c>
       <c r="C214" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D214" s="2">
         <v>400</v>
@@ -8808,41 +8820,23 @@
       <c r="E214" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="6">
-        <v>5</v>
-      </c>
-      <c r="H214" s="7">
-        <v>6</v>
-      </c>
-      <c r="I214" s="8">
-        <v>6</v>
-      </c>
-      <c r="J214" s="9">
-        <v>7</v>
-      </c>
-      <c r="K214" s="10">
-        <v>6</v>
-      </c>
-      <c r="L214" s="11">
-        <v>6</v>
-      </c>
-      <c r="M214" s="12">
+      <c r="M214" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C215" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D215" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>4</v>
@@ -8854,13 +8848,13 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
-        <v>24</v>
+        <v>425</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>222</v>
+        <v>426</v>
       </c>
       <c r="C216" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D216" s="2">
         <v>400</v>
@@ -8868,23 +8862,41 @@
       <c r="E216" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M216" s="12" t="e">
+      <c r="G216" s="6">
+        <v>49</v>
+      </c>
+      <c r="H216" s="7">
+        <v>44</v>
+      </c>
+      <c r="I216" s="8">
+        <v>44</v>
+      </c>
+      <c r="J216" s="9">
+        <v>45</v>
+      </c>
+      <c r="K216" s="10">
+        <v>55</v>
+      </c>
+      <c r="L216" s="11">
+        <v>44</v>
+      </c>
+      <c r="M216" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>46.833333333333336</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C217" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D217" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>4</v>
@@ -8896,10 +8908,10 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>430</v>
+        <v>251</v>
       </c>
       <c r="C218" s="2">
         <v>40</v>
@@ -8910,38 +8922,23 @@
       <c r="E218" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="6">
-        <v>49</v>
-      </c>
-      <c r="H218" s="7">
-        <v>44</v>
-      </c>
-      <c r="I218" s="8">
-        <v>44</v>
-      </c>
-      <c r="J218" s="9">
-        <v>45</v>
-      </c>
-      <c r="K218" s="10">
-        <v>55</v>
-      </c>
       <c r="L218" s="11">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M218" s="12">
         <f t="shared" si="3"/>
-        <v>46.833333333333336</v>
+        <v>63</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C219" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D219" s="2">
         <v>400</v>
@@ -8949,138 +8946,147 @@
       <c r="E219" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M219" s="12" t="e">
+      <c r="G219" s="6">
+        <v>82</v>
+      </c>
+      <c r="L219" s="11">
+        <v>64</v>
+      </c>
+      <c r="M219" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" s="1" customFormat="1">
       <c r="A220" s="1" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C220" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D220" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L220" s="11">
-        <v>63</v>
-      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="6">
+        <v>32</v>
+      </c>
+      <c r="H220" s="7"/>
+      <c r="I220" s="8"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="11"/>
       <c r="M220" s="12">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" s="1" customFormat="1">
       <c r="A221" s="1" t="s">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="C221" s="2">
         <v>40</v>
       </c>
       <c r="D221" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F221" s="2"/>
       <c r="G221" s="6">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="H221" s="7">
+        <v>30</v>
+      </c>
+      <c r="I221" s="8">
+        <v>30</v>
+      </c>
+      <c r="J221" s="9">
+        <v>30</v>
+      </c>
+      <c r="K221" s="10">
+        <v>31</v>
       </c>
       <c r="L221" s="11">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M221" s="12">
         <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" s="1" customFormat="1">
+        <v>30.166666666666668</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="C222" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D222" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F222" s="2"/>
       <c r="G222" s="6">
-        <v>32</v>
-      </c>
-      <c r="H222" s="7"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="10"/>
-      <c r="L222" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="H222" s="7">
+        <v>71</v>
+      </c>
+      <c r="J222" s="9">
+        <v>60</v>
+      </c>
       <c r="M222" s="12">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" s="1" customFormat="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
-        <v>404</v>
+        <v>128</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>405</v>
+        <v>281</v>
       </c>
       <c r="C223" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D223" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F223" s="2"/>
-      <c r="G223" s="6">
-        <v>30</v>
-      </c>
-      <c r="H223" s="7">
-        <v>30</v>
-      </c>
-      <c r="I223" s="8">
-        <v>30</v>
-      </c>
       <c r="J223" s="9">
-        <v>30</v>
-      </c>
-      <c r="K223" s="10">
-        <v>31</v>
-      </c>
-      <c r="L223" s="11">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M223" s="12">
         <f t="shared" si="3"/>
-        <v>30.166666666666668</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>99</v>
+        <v>398</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>225</v>
+        <v>399</v>
       </c>
       <c r="C224" s="2">
         <v>40</v>
@@ -9092,25 +9098,34 @@
         <v>4</v>
       </c>
       <c r="G224" s="6">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H224" s="7">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="I224" s="8">
+        <v>29</v>
       </c>
       <c r="J224" s="9">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="K224" s="10">
+        <v>30</v>
+      </c>
+      <c r="L224" s="11">
+        <v>29</v>
       </c>
       <c r="M224" s="12">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C225" s="2">
         <v>50</v>
@@ -9121,20 +9136,20 @@
       <c r="E225" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J225" s="9">
-        <v>61</v>
+      <c r="G225" s="6">
+        <v>31</v>
       </c>
       <c r="M225" s="12">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C226" s="2">
         <v>40</v>
@@ -9146,97 +9161,85 @@
         <v>4</v>
       </c>
       <c r="G226" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H226" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I226" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J226" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K226" s="10">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L226" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M226" s="12">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>27.166666666666668</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="C227" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D227" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G227" s="6">
-        <v>31</v>
+        <v>76</v>
+      </c>
+      <c r="H227" s="7">
+        <v>68</v>
       </c>
       <c r="M227" s="12">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <f t="shared" ref="M227:M280" si="4">AVERAGE(G227:L227)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>396</v>
+        <v>125</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>397</v>
+        <v>283</v>
       </c>
       <c r="C228" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D228" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G228" s="6">
-        <v>29</v>
-      </c>
-      <c r="H228" s="7">
-        <v>27</v>
-      </c>
-      <c r="I228" s="8">
-        <v>27</v>
-      </c>
-      <c r="J228" s="9">
-        <v>27</v>
-      </c>
-      <c r="K228" s="10">
-        <v>27</v>
-      </c>
-      <c r="L228" s="11">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="M228" s="12">
-        <f t="shared" si="3"/>
-        <v>27.166666666666668</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
       <c r="C229" s="2">
         <v>40</v>
@@ -9248,22 +9251,34 @@
         <v>4</v>
       </c>
       <c r="G229" s="6">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H229" s="7">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="I229" s="8">
+        <v>25</v>
+      </c>
+      <c r="J229" s="9">
+        <v>25</v>
+      </c>
+      <c r="K229" s="10">
+        <v>26</v>
+      </c>
+      <c r="L229" s="11">
+        <v>25</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" ref="M229:M281" si="4">AVERAGE(G229:L229)</f>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>25.333333333333332</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>125</v>
+        <v>394</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="C230" s="2">
         <v>50</v>
@@ -9275,19 +9290,34 @@
         <v>4</v>
       </c>
       <c r="G230" s="6">
-        <v>77</v>
+        <v>27</v>
+      </c>
+      <c r="H230" s="7">
+        <v>26</v>
+      </c>
+      <c r="I230" s="8">
+        <v>26</v>
+      </c>
+      <c r="J230" s="9">
+        <v>26</v>
+      </c>
+      <c r="K230" s="10">
+        <v>28</v>
+      </c>
+      <c r="L230" s="11">
+        <v>27</v>
       </c>
       <c r="M230" s="12">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C231" s="2">
         <v>40</v>
@@ -9299,34 +9329,34 @@
         <v>4</v>
       </c>
       <c r="G231" s="6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H231" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I231" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J231" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K231" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L231" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M231" s="12">
         <f t="shared" si="4"/>
-        <v>25.333333333333332</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>398</v>
+        <v>26</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="C232" s="2">
         <v>50</v>
@@ -9338,34 +9368,22 @@
         <v>4</v>
       </c>
       <c r="G232" s="6">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H232" s="7">
-        <v>26</v>
-      </c>
-      <c r="I232" s="8">
-        <v>26</v>
-      </c>
-      <c r="J232" s="9">
-        <v>26</v>
-      </c>
-      <c r="K232" s="10">
-        <v>28</v>
-      </c>
-      <c r="L232" s="11">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="M232" s="12">
         <f t="shared" si="4"/>
-        <v>26.666666666666668</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="C233" s="2">
         <v>40</v>
@@ -9376,62 +9394,44 @@
       <c r="E233" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G233" s="6">
-        <v>33</v>
-      </c>
       <c r="H233" s="7">
-        <v>28</v>
-      </c>
-      <c r="I233" s="8">
-        <v>28</v>
-      </c>
-      <c r="J233" s="9">
-        <v>28</v>
-      </c>
-      <c r="K233" s="10">
-        <v>29</v>
-      </c>
-      <c r="L233" s="11">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="M233" s="12">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="C234" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D234" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G234" s="6">
-        <v>78</v>
-      </c>
       <c r="H234" s="7">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M234" s="12">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C235" s="2">
         <v>40</v>
@@ -9443,115 +9443,115 @@
         <v>4</v>
       </c>
       <c r="H235" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M235" s="12">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C236" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D236" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H236" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M236" s="12">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
-        <v>331</v>
+        <v>492</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>335</v>
+        <v>494</v>
       </c>
       <c r="C237" s="2">
         <v>40</v>
       </c>
       <c r="D237" s="2">
-        <v>11000</v>
+        <v>40</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H237" s="7">
-        <v>78</v>
+      <c r="K237" s="10">
+        <v>125</v>
       </c>
       <c r="M237" s="12">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>332</v>
+        <v>493</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>336</v>
+        <v>495</v>
       </c>
       <c r="C238" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D238" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H238" s="7">
-        <v>81</v>
+      <c r="K238" s="10">
+        <v>124</v>
       </c>
       <c r="M238" s="12">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
-        <v>496</v>
+        <v>163</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>498</v>
+        <v>186</v>
       </c>
       <c r="C239" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D239" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K239" s="10">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="M239" s="12">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>499</v>
+        <v>253</v>
       </c>
       <c r="C240" s="2">
         <v>40</v>
@@ -9562,20 +9562,23 @@
       <c r="E240" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K240" s="10">
-        <v>124</v>
+      <c r="J240" s="9">
+        <v>58</v>
+      </c>
+      <c r="L240" s="11">
+        <v>60</v>
       </c>
       <c r="M240" s="12">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="C241" s="2">
         <v>50</v>
@@ -9586,58 +9589,70 @@
       <c r="E241" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K241" s="10">
-        <v>60</v>
+      <c r="J241" s="9">
+        <v>59</v>
       </c>
       <c r="M241" s="12">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>257</v>
+        <v>432</v>
       </c>
       <c r="C242" s="2">
         <v>40</v>
       </c>
       <c r="D242" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G242" s="6">
+        <v>53</v>
+      </c>
+      <c r="H242" s="7">
+        <v>48</v>
+      </c>
+      <c r="I242" s="8">
+        <v>48</v>
+      </c>
       <c r="J242" s="9">
+        <v>48</v>
+      </c>
+      <c r="K242" s="10">
         <v>58</v>
       </c>
       <c r="L242" s="11">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M242" s="12">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="C243" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D243" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J243" s="9">
+      <c r="G243" s="6">
         <v>59</v>
       </c>
       <c r="M243" s="12">
@@ -9647,73 +9662,73 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
-        <v>435</v>
+        <v>143</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>436</v>
+        <v>302</v>
       </c>
       <c r="C244" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D244" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G244" s="6">
-        <v>53</v>
-      </c>
-      <c r="H244" s="7">
-        <v>48</v>
-      </c>
-      <c r="I244" s="8">
-        <v>48</v>
-      </c>
-      <c r="J244" s="9">
-        <v>48</v>
-      </c>
-      <c r="K244" s="10">
-        <v>58</v>
-      </c>
-      <c r="L244" s="11">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M244" s="12">
         <f t="shared" si="4"/>
-        <v>50.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="C245" s="2">
         <v>40</v>
       </c>
       <c r="D245" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G245" s="6">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="H245" s="7">
+        <v>8</v>
+      </c>
+      <c r="I245" s="8">
+        <v>7</v>
+      </c>
+      <c r="J245" s="9">
+        <v>8</v>
+      </c>
+      <c r="K245" s="10">
+        <v>7</v>
+      </c>
+      <c r="L245" s="11">
+        <v>7</v>
       </c>
       <c r="M245" s="12">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="1" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C246" s="2">
         <v>50</v>
@@ -9725,175 +9740,163 @@
         <v>4</v>
       </c>
       <c r="G246" s="6">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="H246" s="7">
+        <v>93</v>
+      </c>
+      <c r="I246" s="8">
+        <v>75</v>
+      </c>
+      <c r="J246" s="9">
+        <v>75</v>
+      </c>
+      <c r="K246" s="10">
+        <v>95</v>
+      </c>
+      <c r="L246" s="11">
+        <v>78</v>
       </c>
       <c r="M246" s="12">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C247" s="2">
         <v>40</v>
       </c>
       <c r="D247" s="2">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G247" s="6">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="H247" s="7">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I247" s="8">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="J247" s="9">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="K247" s="10">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="L247" s="11">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="M247" s="12">
         <f t="shared" si="4"/>
-        <v>7.666666666666667</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="C248" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D248" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G248" s="6">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H248" s="7">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I248" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J248" s="9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K248" s="10">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L248" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M248" s="12">
         <f t="shared" si="4"/>
-        <v>79.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="C249" s="2">
         <v>40</v>
       </c>
       <c r="D249" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G249" s="6">
-        <v>94</v>
-      </c>
       <c r="H249" s="7">
-        <v>65</v>
-      </c>
-      <c r="I249" s="8">
-        <v>59</v>
-      </c>
-      <c r="J249" s="9">
-        <v>77</v>
-      </c>
-      <c r="K249" s="10">
-        <v>96</v>
-      </c>
-      <c r="L249" s="11">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="M249" s="12">
         <f t="shared" si="4"/>
-        <v>78.333333333333329</v>
+        <v>66</v>
       </c>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="C250" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D250" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G250" s="6">
-        <v>95</v>
-      </c>
       <c r="H250" s="7">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I250" s="8">
-        <v>76</v>
-      </c>
-      <c r="J250" s="9">
-        <v>78</v>
-      </c>
-      <c r="K250" s="10">
-        <v>81</v>
-      </c>
-      <c r="L250" s="11">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="M250" s="12">
         <f t="shared" si="4"/>
-        <v>80.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="1" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="C251" s="2">
         <v>40</v>
@@ -9904,20 +9907,35 @@
       <c r="E251" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G251" s="6">
+        <v>22</v>
+      </c>
       <c r="H251" s="7">
-        <v>66</v>
+        <v>21</v>
+      </c>
+      <c r="I251" s="8">
+        <v>21</v>
+      </c>
+      <c r="J251" s="9">
+        <v>21</v>
+      </c>
+      <c r="K251" s="10">
+        <v>21</v>
+      </c>
+      <c r="L251" s="11">
+        <v>21</v>
       </c>
       <c r="M251" s="12">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>21.166666666666668</v>
       </c>
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="1" t="s">
-        <v>122</v>
+        <v>449</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>308</v>
+        <v>450</v>
       </c>
       <c r="C252" s="2">
         <v>50</v>
@@ -9928,26 +9946,23 @@
       <c r="E252" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H252" s="7">
-        <v>67</v>
-      </c>
-      <c r="I252" s="8">
-        <v>129</v>
+      <c r="K252" s="10">
+        <v>22</v>
       </c>
       <c r="M252" s="12">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="1" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="C253" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D253" s="2">
         <v>400</v>
@@ -9956,61 +9971,76 @@
         <v>4</v>
       </c>
       <c r="G253" s="6">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H253" s="7">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I253" s="8">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J253" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K253" s="10">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L253" s="11">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M253" s="12">
         <f t="shared" si="4"/>
-        <v>21.166666666666668</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="1" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="C254" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D254" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G254" s="6">
+        <v>45</v>
+      </c>
+      <c r="H254" s="7">
+        <v>41</v>
+      </c>
+      <c r="I254" s="8">
+        <v>41</v>
+      </c>
+      <c r="J254" s="9">
+        <v>41</v>
+      </c>
       <c r="K254" s="10">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="L254" s="11">
+        <v>41</v>
       </c>
       <c r="M254" s="12">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="1" t="s">
-        <v>422</v>
+        <v>47</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>423</v>
+        <v>256</v>
       </c>
       <c r="C255" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D255" s="2">
         <v>400</v>
@@ -10018,74 +10048,47 @@
       <c r="E255" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G255" s="6">
-        <v>44</v>
-      </c>
       <c r="H255" s="7">
-        <v>40</v>
-      </c>
-      <c r="I255" s="8">
-        <v>40</v>
-      </c>
-      <c r="J255" s="9">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K255" s="10">
-        <v>42</v>
-      </c>
-      <c r="L255" s="11">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="M255" s="12">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="1" t="s">
-        <v>424</v>
+        <v>156</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="C256" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D256" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G256" s="6">
-        <v>45</v>
-      </c>
-      <c r="H256" s="7">
-        <v>41</v>
-      </c>
-      <c r="I256" s="8">
-        <v>41</v>
-      </c>
-      <c r="J256" s="9">
-        <v>41</v>
-      </c>
-      <c r="K256" s="10">
-        <v>43</v>
-      </c>
-      <c r="L256" s="11">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="M256" s="12">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C257" s="2">
         <v>40</v>
@@ -10096,23 +10099,17 @@
       <c r="E257" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H257" s="7">
-        <v>77</v>
-      </c>
-      <c r="K257" s="10">
-        <v>83</v>
-      </c>
-      <c r="M257" s="12">
+      <c r="M257" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="258" spans="1:13">
       <c r="A258" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="C258" s="2">
         <v>50</v>
@@ -10123,41 +10120,47 @@
       <c r="E258" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G258" s="6">
-        <v>83</v>
-      </c>
-      <c r="M258" s="12">
+      <c r="M258" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="1" t="s">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>261</v>
+        <v>512</v>
       </c>
       <c r="C259" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D259" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M259" s="12" t="e">
+      <c r="G259" s="6">
+        <v>145</v>
+      </c>
+      <c r="H259" s="7">
+        <v>145</v>
+      </c>
+      <c r="J259" s="9">
+        <v>128</v>
+      </c>
+      <c r="M259" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>139.33333333333334</v>
       </c>
     </row>
     <row r="260" spans="1:13">
       <c r="A260" s="1" t="s">
-        <v>129</v>
+        <v>510</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>309</v>
+        <v>513</v>
       </c>
       <c r="C260" s="2">
         <v>50</v>
@@ -10168,39 +10171,66 @@
       <c r="E260" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M260" s="12" t="e">
+      <c r="G260" s="6">
+        <v>144</v>
+      </c>
+      <c r="H260" s="7">
+        <v>144</v>
+      </c>
+      <c r="I260" s="8">
+        <v>128</v>
+      </c>
+      <c r="J260" s="9">
+        <v>127</v>
+      </c>
+      <c r="K260" s="10">
+        <v>143</v>
+      </c>
+      <c r="L260" s="11">
+        <v>130</v>
+      </c>
+      <c r="M260" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>136</v>
       </c>
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="C261" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D261" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G261" s="6">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H261" s="7">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="I261" s="8">
+        <v>127</v>
       </c>
       <c r="J261" s="9">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="K261" s="10">
+        <v>142</v>
+      </c>
+      <c r="L261" s="11">
+        <v>129</v>
       </c>
       <c r="M261" s="12">
         <f t="shared" si="4"/>
-        <v>139.33333333333334</v>
+        <v>135</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -10208,7 +10238,7 @@
         <v>515</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C262" s="2">
         <v>50</v>
@@ -10219,137 +10249,137 @@
       <c r="E262" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G262" s="6">
-        <v>144</v>
-      </c>
-      <c r="H262" s="7">
-        <v>144</v>
-      </c>
-      <c r="I262" s="8">
-        <v>128</v>
-      </c>
-      <c r="J262" s="9">
-        <v>127</v>
-      </c>
-      <c r="K262" s="10">
-        <v>143</v>
-      </c>
       <c r="L262" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M262" s="12">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C263" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D263" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G263" s="6">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H263" s="7">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I263" s="8">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J263" s="9">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K263" s="10">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L263" s="11">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M263" s="12">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>141.5</v>
       </c>
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C264" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D264" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G264" s="6">
+        <v>148</v>
+      </c>
+      <c r="H264" s="7">
+        <v>149</v>
+      </c>
+      <c r="I264" s="8">
+        <v>132</v>
+      </c>
+      <c r="J264" s="9">
+        <v>132</v>
+      </c>
+      <c r="K264" s="10">
+        <v>146</v>
+      </c>
       <c r="L264" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M264" s="12">
         <f t="shared" si="4"/>
-        <v>132</v>
+        <v>140.16666666666666</v>
       </c>
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="C265" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D265" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G265" s="6">
+        <v>149</v>
+      </c>
+      <c r="H265" s="7">
         <v>150</v>
       </c>
-      <c r="H265" s="7">
-        <v>151</v>
-      </c>
       <c r="I265" s="8">
+        <v>131</v>
+      </c>
+      <c r="J265" s="9">
+        <v>131</v>
+      </c>
+      <c r="K265" s="10">
+        <v>145</v>
+      </c>
+      <c r="L265" s="11">
         <v>133</v>
-      </c>
-      <c r="J265" s="9">
-        <v>133</v>
-      </c>
-      <c r="K265" s="10">
-        <v>147</v>
-      </c>
-      <c r="L265" s="11">
-        <v>135</v>
       </c>
       <c r="M265" s="12">
         <f t="shared" si="4"/>
-        <v>141.5</v>
+        <v>139.83333333333334</v>
       </c>
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="C266" s="2">
         <v>40</v>
@@ -10361,391 +10391,394 @@
         <v>4</v>
       </c>
       <c r="G266" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H266" s="7">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I266" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J266" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K266" s="10">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L266" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M266" s="12">
         <f t="shared" si="4"/>
-        <v>140.16666666666666</v>
+        <v>138.16666666666666</v>
       </c>
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C267" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D267" s="2">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G267" s="6">
-        <v>149</v>
-      </c>
-      <c r="H267" s="7">
-        <v>150</v>
-      </c>
-      <c r="I267" s="8">
-        <v>131</v>
-      </c>
-      <c r="J267" s="9">
-        <v>131</v>
-      </c>
-      <c r="K267" s="10">
-        <v>145</v>
-      </c>
-      <c r="L267" s="11">
-        <v>133</v>
-      </c>
-      <c r="M267" s="12">
+      <c r="M267" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>139.83333333333334</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C268" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D268" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G268" s="6">
-        <v>147</v>
-      </c>
-      <c r="H268" s="7">
-        <v>147</v>
-      </c>
-      <c r="I268" s="8">
-        <v>130</v>
-      </c>
-      <c r="J268" s="9">
-        <v>130</v>
-      </c>
-      <c r="K268" s="10">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L268" s="11">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M268" s="12">
         <f t="shared" si="4"/>
-        <v>138.16666666666666</v>
+        <v>146.5</v>
       </c>
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C269" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D269" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M269" s="12" t="e">
+      <c r="G269" s="6">
+        <v>153</v>
+      </c>
+      <c r="H269" s="7">
+        <v>154</v>
+      </c>
+      <c r="K269" s="10">
+        <v>151</v>
+      </c>
+      <c r="L269" s="11">
+        <v>138</v>
+      </c>
+      <c r="M269" s="12">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="A270" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C270" s="2">
+        <v>40</v>
+      </c>
+      <c r="D270" s="2">
+        <v>400</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G270" s="6">
+        <v>152</v>
+      </c>
+      <c r="H270" s="7">
+        <v>153</v>
+      </c>
+      <c r="K270" s="10">
+        <v>149</v>
+      </c>
+      <c r="L270" s="11">
+        <v>137</v>
+      </c>
+      <c r="M270" s="12">
+        <f t="shared" si="4"/>
+        <v>147.75</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="A271" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C271" s="2">
+        <v>50</v>
+      </c>
+      <c r="D271" s="2">
+        <v>500</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G271" s="6">
+        <v>151</v>
+      </c>
+      <c r="H271" s="7">
+        <v>152</v>
+      </c>
+      <c r="I271" s="8">
+        <v>134</v>
+      </c>
+      <c r="J271" s="9">
+        <v>134</v>
+      </c>
+      <c r="K271" s="10">
+        <v>148</v>
+      </c>
+      <c r="L271" s="11">
+        <v>136</v>
+      </c>
+      <c r="M271" s="12">
+        <f t="shared" si="4"/>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="A272" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C272" s="2">
+        <v>50</v>
+      </c>
+      <c r="D272" s="2">
+        <v>500</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K272" s="10">
+        <v>150</v>
+      </c>
+      <c r="M272" s="12">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C273" s="2">
+        <v>50</v>
+      </c>
+      <c r="D273" s="2">
+        <v>500</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M273" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
-      <c r="A270" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C270" s="2">
-        <v>50</v>
-      </c>
-      <c r="D270" s="2">
-        <v>500</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G270" s="6">
+    <row r="274" spans="1:13">
+      <c r="A274" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C274" s="2">
+        <v>50</v>
+      </c>
+      <c r="D274" s="2">
+        <v>500</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G274" s="6">
+        <v>155</v>
+      </c>
+      <c r="M274" s="12">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
+      <c r="A275" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C275" s="2">
+        <v>40</v>
+      </c>
+      <c r="D275" s="2">
+        <v>400</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G275" s="6">
+        <v>156</v>
+      </c>
+      <c r="H275" s="7">
+        <v>155</v>
+      </c>
+      <c r="I275" s="8">
+        <v>135</v>
+      </c>
+      <c r="J275" s="9">
+        <v>135</v>
+      </c>
+      <c r="K275" s="10">
+        <v>152</v>
+      </c>
+      <c r="L275" s="11">
+        <v>140</v>
+      </c>
+      <c r="M275" s="12">
+        <f t="shared" si="4"/>
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="A276" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C276" s="2">
+        <v>50</v>
+      </c>
+      <c r="D276" s="2">
+        <v>500</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I276" s="8">
+        <v>138</v>
+      </c>
+      <c r="M276" s="12">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="A277" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C277" s="2">
+        <v>50</v>
+      </c>
+      <c r="D277" s="2">
+        <v>500</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G277" s="6">
+        <v>158</v>
+      </c>
+      <c r="H277" s="7">
+        <v>157</v>
+      </c>
+      <c r="I277" s="8">
+        <v>137</v>
+      </c>
+      <c r="J277" s="9">
+        <v>137</v>
+      </c>
+      <c r="K277" s="10">
         <v>154</v>
       </c>
-      <c r="L270" s="11">
-        <v>139</v>
-      </c>
-      <c r="M270" s="12">
+      <c r="L277" s="11">
+        <v>142</v>
+      </c>
+      <c r="M277" s="12">
+        <f t="shared" si="4"/>
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
+      <c r="A278" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C278" s="2">
+        <v>40</v>
+      </c>
+      <c r="D278" s="2">
+        <v>400</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G278" s="6">
+        <v>157</v>
+      </c>
+      <c r="H278" s="7">
+        <v>156</v>
+      </c>
+      <c r="I278" s="8">
+        <v>136</v>
+      </c>
+      <c r="J278" s="9">
+        <v>136</v>
+      </c>
+      <c r="K278" s="10">
+        <v>153</v>
+      </c>
+      <c r="L278" s="11">
+        <v>141</v>
+      </c>
+      <c r="M278" s="12">
         <f t="shared" si="4"/>
         <v>146.5</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
-      <c r="A271" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C271" s="2">
-        <v>50</v>
-      </c>
-      <c r="D271" s="2">
-        <v>500</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G271" s="6">
-        <v>153</v>
-      </c>
-      <c r="H271" s="7">
-        <v>154</v>
-      </c>
-      <c r="K271" s="10">
-        <v>151</v>
-      </c>
-      <c r="L271" s="11">
-        <v>138</v>
-      </c>
-      <c r="M271" s="12">
-        <f t="shared" si="4"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13">
-      <c r="A272" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C272" s="2">
-        <v>40</v>
-      </c>
-      <c r="D272" s="2">
-        <v>400</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G272" s="6">
-        <v>152</v>
-      </c>
-      <c r="H272" s="7">
-        <v>153</v>
-      </c>
-      <c r="K272" s="10">
-        <v>149</v>
-      </c>
-      <c r="L272" s="11">
-        <v>137</v>
-      </c>
-      <c r="M272" s="12">
-        <f t="shared" si="4"/>
-        <v>147.75</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13">
-      <c r="A273" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C273" s="2">
-        <v>50</v>
-      </c>
-      <c r="D273" s="2">
-        <v>500</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G273" s="6">
-        <v>151</v>
-      </c>
-      <c r="H273" s="7">
-        <v>152</v>
-      </c>
-      <c r="I273" s="8">
-        <v>134</v>
-      </c>
-      <c r="J273" s="9">
-        <v>134</v>
-      </c>
-      <c r="K273" s="10">
-        <v>148</v>
-      </c>
-      <c r="L273" s="11">
-        <v>136</v>
-      </c>
-      <c r="M273" s="12">
-        <f t="shared" si="4"/>
-        <v>142.5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13">
-      <c r="A274" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C274" s="2">
-        <v>10</v>
-      </c>
-      <c r="D274" s="2">
-        <v>500</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M274" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13">
-      <c r="A275" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C275" s="2">
-        <v>50</v>
-      </c>
-      <c r="D275" s="2">
-        <v>500</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K275" s="10">
-        <v>150</v>
-      </c>
-      <c r="M275" s="12">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13">
-      <c r="A276" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C276" s="2">
-        <v>50</v>
-      </c>
-      <c r="D276" s="2">
-        <v>500</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M276" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13">
-      <c r="A277" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C277" s="2">
-        <v>50</v>
-      </c>
-      <c r="D277" s="2">
-        <v>500</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G277" s="6">
-        <v>155</v>
-      </c>
-      <c r="M277" s="12">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13">
-      <c r="A278" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C278" s="2">
-        <v>40</v>
-      </c>
-      <c r="D278" s="2">
-        <v>400</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G278" s="6">
-        <v>156</v>
-      </c>
-      <c r="H278" s="7">
-        <v>155</v>
-      </c>
-      <c r="I278" s="8">
-        <v>135</v>
-      </c>
-      <c r="J278" s="9">
-        <v>135</v>
-      </c>
-      <c r="K278" s="10">
-        <v>152</v>
-      </c>
-      <c r="L278" s="11">
-        <v>140</v>
-      </c>
-      <c r="M278" s="12">
-        <f t="shared" si="4"/>
-        <v>145.5</v>
-      </c>
-    </row>
     <row r="279" spans="1:13">
       <c r="A279" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>554</v>
@@ -10766,118 +10799,61 @@
     </row>
     <row r="280" spans="1:13">
       <c r="A280" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>555</v>
       </c>
       <c r="C280" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D280" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G280" s="6">
-        <v>158</v>
-      </c>
-      <c r="H280" s="7">
-        <v>157</v>
-      </c>
-      <c r="I280" s="8">
-        <v>137</v>
-      </c>
-      <c r="J280" s="9">
-        <v>137</v>
-      </c>
-      <c r="K280" s="10">
-        <v>154</v>
-      </c>
-      <c r="L280" s="11">
-        <v>142</v>
-      </c>
-      <c r="M280" s="12">
+      <c r="M280" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>147.5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13">
-      <c r="A281" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C281" s="2">
-        <v>40</v>
-      </c>
-      <c r="D281" s="2">
-        <v>400</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G281" s="6">
-        <v>157</v>
-      </c>
-      <c r="H281" s="7">
-        <v>156</v>
-      </c>
-      <c r="I281" s="8">
-        <v>136</v>
-      </c>
-      <c r="J281" s="9">
-        <v>136</v>
-      </c>
-      <c r="K281" s="10">
-        <v>153</v>
-      </c>
-      <c r="L281" s="11">
-        <v>141</v>
-      </c>
-      <c r="M281" s="12">
-        <f t="shared" si="4"/>
-        <v>146.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
-    <sortState ref="A2:M260">
+    <sortState ref="A2:M258">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:M237">
-    <sortCondition ref="B2:B237"/>
+  <sortState ref="A2:M235">
+    <sortCondition ref="B2:B235"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1000">
+  <conditionalFormatting sqref="G1:G997">
     <cfRule type="cellIs" dxfId="5" priority="59" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1000">
+  <conditionalFormatting sqref="H1:I997">
     <cfRule type="cellIs" dxfId="4" priority="58" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="J1:J997">
     <cfRule type="cellIs" dxfId="3" priority="57" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="I1:I997">
     <cfRule type="cellIs" dxfId="2" priority="56" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="K1:K997">
     <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="L1:L997">
     <cfRule type="cellIs" dxfId="0" priority="54" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -10889,10 +10865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E54" sqref="A47:E54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E55" sqref="A55:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10903,13 +10879,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
         <v>169</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" t="s">
-        <v>171</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -10917,10 +10893,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -10934,10 +10910,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -10951,10 +10927,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -10968,10 +10944,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -10985,10 +10961,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -11002,10 +10978,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -11019,10 +10995,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8">
         <v>60</v>
@@ -11036,10 +11012,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C9" s="14">
         <v>40</v>
@@ -11053,10 +11029,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C10" s="14">
         <v>40</v>
@@ -11070,10 +11046,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -11087,10 +11063,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -11104,10 +11080,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -11121,10 +11097,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -11138,10 +11114,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -11155,10 +11131,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -11172,10 +11148,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -11189,10 +11165,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>476</v>
+      </c>
+      <c r="B18" t="s">
         <v>480</v>
-      </c>
-      <c r="B18" t="s">
-        <v>484</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -11206,10 +11182,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B19" t="s">
         <v>481</v>
-      </c>
-      <c r="B19" t="s">
-        <v>485</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -11223,10 +11199,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C20">
         <v>40</v>
@@ -11240,10 +11216,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -11257,10 +11233,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -11274,10 +11250,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C23" s="14">
         <v>50</v>
@@ -11291,10 +11267,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C24" s="14">
         <v>40</v>
@@ -11308,10 +11284,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C25" s="14">
         <v>50</v>
@@ -11325,10 +11301,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="15" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C26" s="14">
         <v>40</v>
@@ -11342,10 +11318,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="15" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C27" s="14">
         <v>40</v>
@@ -11359,10 +11335,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B28" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C28" s="14">
         <v>50</v>
@@ -11376,10 +11352,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B29" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C29" s="14">
         <v>40</v>
@@ -11393,10 +11369,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B30" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C30" s="14">
         <v>50</v>
@@ -11410,10 +11386,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C31" s="14">
         <v>50</v>
@@ -11427,10 +11403,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="15" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C32" s="14">
         <v>40</v>
@@ -11444,10 +11420,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="16" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C33" s="14">
         <v>50</v>
@@ -11461,10 +11437,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B34" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C34" s="14">
         <v>50</v>
@@ -11478,10 +11454,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C35" s="14">
         <v>50</v>
@@ -11495,10 +11471,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B36" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C36" s="14">
         <v>40</v>
@@ -11512,10 +11488,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="15" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B37" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C37" s="14">
         <v>50</v>
@@ -11529,10 +11505,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B38" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C38" s="14">
         <v>50</v>
@@ -11546,10 +11522,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="15" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B39" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C39" s="14">
         <v>40</v>
@@ -11563,10 +11539,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B40" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C40" s="14">
         <v>40</v>
@@ -11580,10 +11556,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="15" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B41" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C41" s="14">
         <v>40</v>
@@ -11597,10 +11573,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="15" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B42" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C42" s="14">
         <v>30</v>
@@ -11614,10 +11590,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="15" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B43" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C43" s="14">
         <v>50</v>
@@ -11631,10 +11607,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="15" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B44" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C44" s="14">
         <v>50</v>
@@ -11648,10 +11624,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="15" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B45" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C45" s="14">
         <v>40</v>
@@ -11665,10 +11641,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="15" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B46" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C46" s="14">
         <v>50</v>
@@ -11682,10 +11658,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="15" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B47" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C47" s="14">
         <v>10</v>
@@ -11699,10 +11675,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="15" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B48" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C48" s="14">
         <v>50</v>
@@ -11716,10 +11692,10 @@
     </row>
     <row r="49" spans="1:5" ht="28.8">
       <c r="A49" s="15" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B49" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C49" s="14">
         <v>50</v>
@@ -11733,10 +11709,10 @@
     </row>
     <row r="50" spans="1:5" ht="28.8">
       <c r="A50" s="15" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B50" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C50" s="14">
         <v>50</v>
@@ -11750,10 +11726,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="15" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B51" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C51" s="14">
         <v>40</v>
@@ -11767,10 +11743,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="15" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B52" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C52" s="14">
         <v>50</v>
@@ -11784,10 +11760,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="15" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B53" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C53" s="14">
         <v>50</v>
@@ -11801,10 +11777,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="15" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B54" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C54" s="14">
         <v>40</v>
@@ -11813,6 +11789,40 @@
         <v>400</v>
       </c>
       <c r="E54" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8">
+      <c r="A55" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B55" t="s">
+        <v>554</v>
+      </c>
+      <c r="C55" s="14">
+        <v>50</v>
+      </c>
+      <c r="D55" s="14">
+        <v>500</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B56" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" s="14">
+        <v>40</v>
+      </c>
+      <c r="D56" s="14">
+        <v>400</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11852,8 +11862,10 @@
     <hyperlink ref="A52" r:id="rId30" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-valentine2020-ex-sp2" xr:uid="{6720EE80-5272-49CA-8BD3-B003BB9D3ECF}"/>
     <hyperlink ref="A53" r:id="rId31" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-valentine2020-ex-sp" xr:uid="{98EE27C7-17B3-4365-9916-58DBF094291B}"/>
     <hyperlink ref="A54" r:id="rId32" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-valentine2020-ex" xr:uid="{E3D8F7C2-4056-441F-B3B0-747AE235E768}"/>
+    <hyperlink ref="A55" r:id="rId33" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok-kakusei-ex-sp-3" xr:uid="{5D3F990D-5E12-47C5-9B3F-5AD9057DE794}"/>
+    <hyperlink ref="A56" r:id="rId34" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok13-ex" xr:uid="{19054524-809C-475C-AF50-6D0812DAC340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="14_{63E35527-96C3-4802-9640-69A81B6BE16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE95D3A4-DD35-4255-9164-EB2FDA5249D4}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="14_{63E35527-96C3-4802-9640-69A81B6BE16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3170DA9-0621-4525-8F31-5BFF7C2348A4}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="574">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1723,7 +1723,52 @@
     <t>転スラ コラボ EX1 [リムル武具獲得]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 01/03/2020</t>
+    <t>超高難易度クエスト 【EX極】マルタの試練</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】マルタの試練</t>
+  </si>
+  <si>
+    <t>マルタの試練 [EX極]</t>
+  </si>
+  <si>
+    <t>マルタの試練</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 22/03/2020</t>
+  </si>
+  <si>
+    <t>舞台版誰ガ為のアルケミスト 聖ガ剣、十ノ戒特別クエスト3</t>
+  </si>
+  <si>
+    <t>舞台版誰ガ為のアルケミスト 聖ガ剣、十ノ戒特別クエスト2</t>
+  </si>
+  <si>
+    <t>舞台版誰ガ為のアルケミスト 聖ガ剣、十ノ戒特別クエスト1</t>
+  </si>
+  <si>
+    <t>【期間限定】 誰ガ為のブレイブフロンティア EX極</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】おもてなしは愛をこめて</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】おもてなしは愛をこめて</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】おもてなしは愛をこめて</t>
+  </si>
+  <si>
+    <t>誰ガ為のブレイブフロンティア [EX極]</t>
+  </si>
+  <si>
+    <t>おもてなしは愛をこめて [地獄級]</t>
+  </si>
+  <si>
+    <t>おもてなしは愛をこめて [EX極]</t>
+  </si>
+  <si>
+    <t>おもてなしは愛をこめて</t>
   </si>
 </sst>
 </file>
@@ -2242,11 +2287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M280"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G284" sqref="G284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2270,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2283,27 +2328,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 158</v>
+        <v>火 163</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 157</v>
+        <v>水 163</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 138</v>
+        <v>風 142</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 137</v>
+        <v>雷 143</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 154</v>
+        <v>光 159</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 142</v>
+        <v>暗 147</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -9206,7 +9251,7 @@
         <v>68</v>
       </c>
       <c r="M227" s="12">
-        <f t="shared" ref="M227:M280" si="4">AVERAGE(G227:L227)</f>
+        <f t="shared" ref="M227:M289" si="4">AVERAGE(G227:L227)</f>
         <v>72</v>
       </c>
     </row>
@@ -10606,9 +10651,15 @@
       <c r="E273" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M273" s="12" t="e">
+      <c r="G273" s="6">
+        <v>162</v>
+      </c>
+      <c r="J273" s="9">
+        <v>142</v>
+      </c>
+      <c r="M273" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>152</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -10630,9 +10681,24 @@
       <c r="G274" s="6">
         <v>155</v>
       </c>
+      <c r="H274" s="7">
+        <v>161</v>
+      </c>
+      <c r="I274" s="8">
+        <v>141</v>
+      </c>
+      <c r="J274" s="9">
+        <v>141</v>
+      </c>
+      <c r="K274" s="10">
+        <v>158</v>
+      </c>
+      <c r="L274" s="11">
+        <v>146</v>
+      </c>
       <c r="M274" s="12">
         <f t="shared" si="4"/>
-        <v>155</v>
+        <v>150.33333333333334</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -10792,9 +10858,27 @@
       <c r="E279" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M279" s="12" t="e">
+      <c r="G279" s="6">
+        <v>163</v>
+      </c>
+      <c r="H279" s="7">
+        <v>162</v>
+      </c>
+      <c r="I279" s="8">
+        <v>142</v>
+      </c>
+      <c r="J279" s="9">
+        <v>143</v>
+      </c>
+      <c r="K279" s="10">
+        <v>159</v>
+      </c>
+      <c r="L279" s="11">
+        <v>147</v>
+      </c>
+      <c r="M279" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>152.66666666666666</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -10813,18 +10897,261 @@
       <c r="E280" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M280" s="12" t="e">
+      <c r="G280" s="6">
+        <v>159</v>
+      </c>
+      <c r="H280" s="7">
+        <v>158</v>
+      </c>
+      <c r="I280" s="8">
+        <v>139</v>
+      </c>
+      <c r="J280" s="9">
+        <v>138</v>
+      </c>
+      <c r="K280" s="10">
+        <v>155</v>
+      </c>
+      <c r="L280" s="11">
+        <v>143</v>
+      </c>
+      <c r="M280" s="12">
+        <f t="shared" si="4"/>
+        <v>148.66666666666666</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
+      <c r="A281" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C281" s="2">
+        <v>50</v>
+      </c>
+      <c r="D281" s="2">
+        <v>500</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G281" s="6">
+        <v>161</v>
+      </c>
+      <c r="H281" s="7">
+        <v>160</v>
+      </c>
+      <c r="I281" s="8">
+        <v>140</v>
+      </c>
+      <c r="J281" s="9">
+        <v>140</v>
+      </c>
+      <c r="K281" s="10">
+        <v>157</v>
+      </c>
+      <c r="L281" s="11">
+        <v>145</v>
+      </c>
+      <c r="M281" s="12">
+        <f t="shared" si="4"/>
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="A282" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C282" s="2">
+        <v>50</v>
+      </c>
+      <c r="D282" s="2">
+        <v>500</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G282" s="6">
+        <v>160</v>
+      </c>
+      <c r="H282" s="7">
+        <v>159</v>
+      </c>
+      <c r="J282" s="9">
+        <v>139</v>
+      </c>
+      <c r="K282" s="10">
+        <v>156</v>
+      </c>
+      <c r="L282" s="11">
+        <v>144</v>
+      </c>
+      <c r="M282" s="12">
+        <f t="shared" si="4"/>
+        <v>151.6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C283" s="2">
+        <v>40</v>
+      </c>
+      <c r="D283" s="2">
+        <v>400</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M283" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="284" spans="1:13">
+      <c r="A284" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C284" s="2">
+        <v>30</v>
+      </c>
+      <c r="D284" s="2">
+        <v>300</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H284" s="7">
+        <v>163</v>
+      </c>
+      <c r="M284" s="12">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C285" s="2">
+        <v>10</v>
+      </c>
+      <c r="D285" s="2">
+        <v>200</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M285" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="A286" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C286" s="2">
+        <v>50</v>
+      </c>
+      <c r="D286" s="2">
+        <v>500</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M286" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C287" s="2">
+        <v>50</v>
+      </c>
+      <c r="D287" s="2">
+        <v>500</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M287" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="A288" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C288" s="2">
+        <v>50</v>
+      </c>
+      <c r="D288" s="2">
+        <v>500</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M288" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C289" s="2">
+        <v>40</v>
+      </c>
+      <c r="D289" s="2">
+        <v>400</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M289" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
-    <sortState ref="A2:M258">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M258">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:M235">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M235">
     <sortCondition ref="B2:B235"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10865,10 +11192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="A55:E56"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E65" sqref="A59:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11823,6 +12150,159 @@
         <v>400</v>
       </c>
       <c r="E56" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B57" t="s">
+        <v>560</v>
+      </c>
+      <c r="C57" s="14">
+        <v>50</v>
+      </c>
+      <c r="D57" s="14">
+        <v>500</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B58" t="s">
+        <v>561</v>
+      </c>
+      <c r="C58" s="14">
+        <v>50</v>
+      </c>
+      <c r="D58" s="14">
+        <v>500</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B59" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" s="14">
+        <v>40</v>
+      </c>
+      <c r="D59" s="14">
+        <v>400</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B60" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" s="14">
+        <v>30</v>
+      </c>
+      <c r="D60" s="14">
+        <v>300</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B61" t="s">
+        <v>565</v>
+      </c>
+      <c r="C61" s="14">
+        <v>10</v>
+      </c>
+      <c r="D61" s="14">
+        <v>200</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B62" t="s">
+        <v>570</v>
+      </c>
+      <c r="C62" s="14">
+        <v>50</v>
+      </c>
+      <c r="D62" s="14">
+        <v>500</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B63" t="s">
+        <v>571</v>
+      </c>
+      <c r="C63" s="14">
+        <v>50</v>
+      </c>
+      <c r="D63" s="14">
+        <v>500</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B64" t="s">
+        <v>572</v>
+      </c>
+      <c r="C64" s="14">
+        <v>50</v>
+      </c>
+      <c r="D64" s="14">
+        <v>500</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B65" t="s">
+        <v>573</v>
+      </c>
+      <c r="C65" s="14">
+        <v>40</v>
+      </c>
+      <c r="D65" s="14">
+        <v>400</v>
+      </c>
+      <c r="E65" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11864,8 +12344,17 @@
     <hyperlink ref="A54" r:id="rId32" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-valentine2020-ex" xr:uid="{E3D8F7C2-4056-441F-B3B0-747AE235E768}"/>
     <hyperlink ref="A55" r:id="rId33" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok-kakusei-ex-sp-3" xr:uid="{5D3F990D-5E12-47C5-9B3F-5AD9057DE794}"/>
     <hyperlink ref="A56" r:id="rId34" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok13-ex" xr:uid="{19054524-809C-475C-AF50-6D0812DAC340}"/>
+    <hyperlink ref="A57" r:id="rId35" display="http://www.alchemistcodedb.com/jp/quest/qe-so-kamui-7" xr:uid="{7BA9BE39-551C-472F-AD30-79B9A571D5F1}"/>
+    <hyperlink ref="A58" r:id="rId36" display="http://www.alchemistcodedb.com/jp/quest/qe-so-kamui-6" xr:uid="{BA712B1A-F28C-4E46-8315-0482FC13C155}"/>
+    <hyperlink ref="A59" r:id="rId37" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-butai-jikkai-ex2" xr:uid="{9CF45C9B-8DB2-4DA8-9602-81C2C988BF5B}"/>
+    <hyperlink ref="A60" r:id="rId38" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-butai-jikkai-ex1" xr:uid="{FC1D00D4-8176-49B5-BA37-AB90B2C38AB3}"/>
+    <hyperlink ref="A61" r:id="rId39" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-butai-jikkai-n" xr:uid="{822CD1C5-5628-4FA0-BBDF-921B8175C554}"/>
+    <hyperlink ref="A62" r:id="rId40" display="http://www.alchemistcodedb.com/jp/quest/qe-cb-bf-ex-sp-1" xr:uid="{AA6C1708-51B1-4320-97CF-F83A019DF0B6}"/>
+    <hyperlink ref="A63" r:id="rId41" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-whiteday-2020-ex-sp2" xr:uid="{EE7BA94A-4E72-4F40-A029-94D3A90D665C}"/>
+    <hyperlink ref="A64" r:id="rId42" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-whiteday-2020-ex-sp" xr:uid="{E8BE7F6C-879C-46FF-8AE2-C16AE6EDB7AD}"/>
+    <hyperlink ref="A65" r:id="rId43" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-whiteday-2020-ex" xr:uid="{34983BD8-011F-42CC-97F9-4DDE3AB379A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="14_{63E35527-96C3-4802-9640-69A81B6BE16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3170DA9-0621-4525-8F31-5BFF7C2348A4}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="14_{63E35527-96C3-4802-9640-69A81B6BE16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5CA897D1-412F-4452-8DCD-82A1031FDDD0}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="578">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1735,9 +1735,6 @@
     <t>マルタの試練</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 22/03/2020</t>
-  </si>
-  <si>
     <t>舞台版誰ガ為のアルケミスト 聖ガ剣、十ノ戒特別クエスト3</t>
   </si>
   <si>
@@ -1769,6 +1766,21 @@
   </si>
   <si>
     <t>おもてなしは愛をこめて</t>
+  </si>
+  <si>
+    <t>【超高難易度】コンティニュー不可 ディオス第３ジョブ開放クエスト</t>
+  </si>
+  <si>
+    <t>UnitLv75 JobLv11推奨 【EX】たがためメモリアル～your heart～</t>
+  </si>
+  <si>
+    <t>たがためメモリアル～your heart～</t>
+  </si>
+  <si>
+    <t>第３ジョブ開放クエスト[ディオス]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 02/04/2020</t>
   </si>
 </sst>
 </file>
@@ -2287,11 +2299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:M291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G284" sqref="G284"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L291" sqref="L291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2315,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2328,27 +2340,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 163</v>
+        <v>火 168</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 163</v>
+        <v>水 169</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 142</v>
+        <v>風 146</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 143</v>
+        <v>雷 148</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 159</v>
+        <v>光 164</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 147</v>
+        <v>暗 151</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -7077,12 +7089,15 @@
       <c r="E154" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H154" s="7">
+        <v>169</v>
+      </c>
       <c r="L154" s="11">
         <v>66</v>
       </c>
       <c r="M154" s="12">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -9251,7 +9266,7 @@
         <v>68</v>
       </c>
       <c r="M227" s="12">
-        <f t="shared" ref="M227:M289" si="4">AVERAGE(G227:L227)</f>
+        <f t="shared" ref="M227:M290" si="4">AVERAGE(G227:L227)</f>
         <v>72</v>
       </c>
     </row>
@@ -10997,10 +11012,10 @@
     </row>
     <row r="283" spans="1:13">
       <c r="A283" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C283" s="2">
         <v>40</v>
@@ -11018,10 +11033,10 @@
     </row>
     <row r="284" spans="1:13">
       <c r="A284" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C284" s="2">
         <v>30</v>
@@ -11032,20 +11047,32 @@
       <c r="E284" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G284" s="6">
+        <v>167</v>
+      </c>
       <c r="H284" s="7">
         <v>163</v>
       </c>
+      <c r="I284" s="8">
+        <v>145</v>
+      </c>
+      <c r="J284" s="9">
+        <v>147</v>
+      </c>
+      <c r="K284" s="10">
+        <v>163</v>
+      </c>
       <c r="M284" s="12">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="285" spans="1:13">
       <c r="A285" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C285" s="2">
         <v>10</v>
@@ -11063,86 +11090,200 @@
     </row>
     <row r="286" spans="1:13">
       <c r="A286" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C286" s="2">
+        <v>50</v>
+      </c>
+      <c r="D286" s="2">
+        <v>500</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G286" s="6">
+        <v>164</v>
+      </c>
+      <c r="H286" s="7">
+        <v>164</v>
+      </c>
+      <c r="I286" s="8">
+        <v>143</v>
+      </c>
+      <c r="J286" s="9">
+        <v>144</v>
+      </c>
+      <c r="K286" s="10">
+        <v>160</v>
+      </c>
+      <c r="L286" s="11">
+        <v>148</v>
+      </c>
+      <c r="M286" s="12">
+        <f t="shared" si="4"/>
+        <v>153.83333333333334</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B287" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C286" s="2">
-        <v>50</v>
-      </c>
-      <c r="D286" s="2">
-        <v>500</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M286" s="12" t="e">
+      <c r="C287" s="2">
+        <v>50</v>
+      </c>
+      <c r="D287" s="2">
+        <v>500</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H287" s="7">
+        <v>167</v>
+      </c>
+      <c r="L287" s="11">
+        <v>151</v>
+      </c>
+      <c r="M287" s="12">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="A288" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C288" s="2">
+        <v>50</v>
+      </c>
+      <c r="D288" s="2">
+        <v>500</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G288" s="6">
+        <v>166</v>
+      </c>
+      <c r="H288" s="7">
+        <v>166</v>
+      </c>
+      <c r="J288" s="9">
+        <v>146</v>
+      </c>
+      <c r="K288" s="10">
+        <v>162</v>
+      </c>
+      <c r="L288" s="11">
+        <v>150</v>
+      </c>
+      <c r="M288" s="12">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C289" s="2">
+        <v>40</v>
+      </c>
+      <c r="D289" s="2">
+        <v>400</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G289" s="6">
+        <v>165</v>
+      </c>
+      <c r="H289" s="7">
+        <v>165</v>
+      </c>
+      <c r="I289" s="8">
+        <v>144</v>
+      </c>
+      <c r="J289" s="9">
+        <v>145</v>
+      </c>
+      <c r="K289" s="10">
+        <v>161</v>
+      </c>
+      <c r="L289" s="11">
+        <v>149</v>
+      </c>
+      <c r="M289" s="12">
+        <f t="shared" si="4"/>
+        <v>154.83333333333334</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C290" s="2">
+        <v>50</v>
+      </c>
+      <c r="D290" s="2">
+        <v>500</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M290" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
-      <c r="A287" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C287" s="2">
-        <v>50</v>
-      </c>
-      <c r="D287" s="2">
-        <v>500</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M287" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13">
-      <c r="A288" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C288" s="2">
-        <v>50</v>
-      </c>
-      <c r="D288" s="2">
-        <v>500</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M288" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13">
-      <c r="A289" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C289" s="2">
-        <v>40</v>
-      </c>
-      <c r="D289" s="2">
+    <row r="291" spans="1:13">
+      <c r="A291" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C291" s="2">
+        <v>40</v>
+      </c>
+      <c r="D291" s="2">
         <v>400</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M289" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E291" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G291" s="6">
+        <v>168</v>
+      </c>
+      <c r="H291" s="7">
+        <v>168</v>
+      </c>
+      <c r="I291" s="8">
+        <v>146</v>
+      </c>
+      <c r="J291" s="9">
+        <v>148</v>
+      </c>
+      <c r="K291" s="10">
+        <v>164</v>
+      </c>
+      <c r="M291" s="12">
+        <f t="shared" ref="M291" si="5">AVERAGE(G291:L291)</f>
+        <v>158.80000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11192,10 +11333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E65" sqref="A59:E65"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E67" sqref="A66:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12189,10 +12330,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B59" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C59" s="14">
         <v>40</v>
@@ -12206,10 +12347,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B60" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C60" s="14">
         <v>30</v>
@@ -12223,10 +12364,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C61" s="14">
         <v>10</v>
@@ -12240,10 +12381,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B62" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C62" s="14">
         <v>50</v>
@@ -12257,10 +12398,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C63" s="14">
         <v>50</v>
@@ -12274,10 +12415,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C64" s="14">
         <v>50</v>
@@ -12291,10 +12432,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C65" s="14">
         <v>40</v>
@@ -12303,6 +12444,40 @@
         <v>400</v>
       </c>
       <c r="E65" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B66" t="s">
+        <v>576</v>
+      </c>
+      <c r="C66" s="14">
+        <v>50</v>
+      </c>
+      <c r="D66" s="14">
+        <v>500</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B67" t="s">
+        <v>575</v>
+      </c>
+      <c r="C67" s="14">
+        <v>40</v>
+      </c>
+      <c r="D67" s="14">
+        <v>400</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12353,8 +12528,10 @@
     <hyperlink ref="A63" r:id="rId41" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-whiteday-2020-ex-sp2" xr:uid="{EE7BA94A-4E72-4F40-A029-94D3A90D665C}"/>
     <hyperlink ref="A64" r:id="rId42" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-whiteday-2020-ex-sp" xr:uid="{E8BE7F6C-879C-46FF-8AE2-C16AE6EDB7AD}"/>
     <hyperlink ref="A65" r:id="rId43" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-whiteday-2020-ex" xr:uid="{34983BD8-011F-42CC-97F9-4DDE3AB379A6}"/>
+    <hyperlink ref="A66" r:id="rId44" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-dios-job3-ex-sp" xr:uid="{E8EBA464-90F1-4179-A746-41F668BD83FD}"/>
+    <hyperlink ref="A67" r:id="rId45" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-april-2020-ex" xr:uid="{AE0A1400-2C11-4F7A-A0C6-8DD165B34385}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="14_{63E35527-96C3-4802-9640-69A81B6BE16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5CA897D1-412F-4452-8DCD-82A1031FDDD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B3A3B-D5C8-430B-BEFE-921E2B951698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="582">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1780,7 +1780,19 @@
     <t>第３ジョブ開放クエスト[ディオス]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 02/04/2020</t>
+    <t>【地獄級】コンティニュー不可 『漆黒の聖教騎士への道』</t>
+  </si>
+  <si>
+    <t>『漆黒の聖教騎士への道』[地獄級]</t>
+  </si>
+  <si>
+    <t>蒼義剣士への道 [地獄級]</t>
+  </si>
+  <si>
+    <t>漆黒の聖教騎士への道 [地獄級]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 11/04/2020</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1958,49 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2299,11 +2353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L291" sqref="L291"/>
+      <selection pane="bottomLeft" activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2327,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -10631,7 +10685,7 @@
         <v>537</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C272" s="2">
         <v>50</v>
@@ -11284,6 +11338,27 @@
       <c r="M291" s="12">
         <f t="shared" ref="M291" si="5">AVERAGE(G291:L291)</f>
         <v>158.80000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C292" s="2">
+        <v>50</v>
+      </c>
+      <c r="D292" s="2">
+        <v>500</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M292" s="12" t="e">
+        <f t="shared" ref="M292" si="6">AVERAGE(G292:L292)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -11296,33 +11371,63 @@
     <sortCondition ref="B2:B235"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G997">
-    <cfRule type="cellIs" dxfId="5" priority="59" operator="notEqual">
+  <conditionalFormatting sqref="G1:G291 G293:G997">
+    <cfRule type="cellIs" dxfId="11" priority="65" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I997">
-    <cfRule type="cellIs" dxfId="4" priority="58" operator="notEqual">
+  <conditionalFormatting sqref="H1:I291 H293:I997">
+    <cfRule type="cellIs" dxfId="10" priority="64" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J997">
-    <cfRule type="cellIs" dxfId="3" priority="57" operator="notEqual">
+  <conditionalFormatting sqref="J1:J291 J293:J997">
+    <cfRule type="cellIs" dxfId="9" priority="63" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I997">
-    <cfRule type="cellIs" dxfId="2" priority="56" operator="notEqual">
+  <conditionalFormatting sqref="I1:I291 I293:I997">
+    <cfRule type="cellIs" dxfId="8" priority="62" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K997">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
+  <conditionalFormatting sqref="K1:K291 K293:K997">
+    <cfRule type="cellIs" dxfId="7" priority="61" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L997">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="notEqual">
+  <conditionalFormatting sqref="L1:L291 L293:L997">
+    <cfRule type="cellIs" dxfId="6" priority="60" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G292">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H292:I292">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J292">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I292">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K292">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L292">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11333,10 +11438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E67" sqref="A66:E67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E68" sqref="A68:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12478,6 +12583,23 @@
         <v>400</v>
       </c>
       <c r="E67" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B68" t="s">
+        <v>578</v>
+      </c>
+      <c r="C68" s="14">
+        <v>50</v>
+      </c>
+      <c r="D68" s="14">
+        <v>500</v>
+      </c>
+      <c r="E68" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12530,8 +12652,9 @@
     <hyperlink ref="A65" r:id="rId43" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-whiteday-2020-ex" xr:uid="{34983BD8-011F-42CC-97F9-4DDE3AB379A6}"/>
     <hyperlink ref="A66" r:id="rId44" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-dios-job3-ex-sp" xr:uid="{E8EBA464-90F1-4179-A746-41F668BD83FD}"/>
     <hyperlink ref="A67" r:id="rId45" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-april-2020-ex" xr:uid="{AE0A1400-2C11-4F7A-A0C6-8DD165B34385}"/>
+    <hyperlink ref="A68" r:id="rId46" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-dios-job3-ex-sp2" xr:uid="{45F2AFB4-F4C4-47E9-871D-F5670ACC179A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B3A3B-D5C8-430B-BEFE-921E2B951698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66E12D51-F854-4C69-AC35-54B02CACC3C5}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="588">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1792,7 +1792,25 @@
     <t>漆黒の聖教騎士への道 [地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 11/04/2020</t>
+    <t>【地獄級】コンティニュー不可 【地獄級】漆黒の血族・果たされなかった約束</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】漆黒の血族・果たされなかった約束</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】漆黒の血族・果たされなかった約束</t>
+  </si>
+  <si>
+    <t>漆黒の血族・果たされなかった約束 [地獄級]</t>
+  </si>
+  <si>
+    <t>漆黒の血族・果たされなかった約束 [EX極]</t>
+  </si>
+  <si>
+    <t>漆黒の血族・果たされなかった約束</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 19/04/2020</t>
   </si>
 </sst>
 </file>
@@ -2353,11 +2371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:M295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A293" sqref="A293"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L295" sqref="L295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2381,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2394,23 +2412,23 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 168</v>
+        <v>火 171</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 169</v>
+        <v>水 172</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 146</v>
+        <v>風 148</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 148</v>
+        <v>雷 150</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 164</v>
+        <v>光 166</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
@@ -11357,8 +11375,107 @@
         <v>4</v>
       </c>
       <c r="M292" s="12" t="e">
-        <f t="shared" ref="M292" si="6">AVERAGE(G292:L292)</f>
+        <f t="shared" ref="M292:M295" si="6">AVERAGE(G292:L292)</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" s="2">
+        <v>50</v>
+      </c>
+      <c r="D293" s="2">
+        <v>500</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G293" s="6">
+        <v>171</v>
+      </c>
+      <c r="H293" s="7">
+        <v>172</v>
+      </c>
+      <c r="M293" s="12">
+        <f t="shared" si="6"/>
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
+      <c r="A294" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C294" s="2">
+        <v>50</v>
+      </c>
+      <c r="D294" s="2">
+        <v>500</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G294" s="6">
+        <v>170</v>
+      </c>
+      <c r="H294" s="7">
+        <v>171</v>
+      </c>
+      <c r="I294" s="8">
+        <v>148</v>
+      </c>
+      <c r="J294" s="9">
+        <v>150</v>
+      </c>
+      <c r="K294" s="10">
+        <v>166</v>
+      </c>
+      <c r="M294" s="12">
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C295" s="2">
+        <v>40</v>
+      </c>
+      <c r="D295" s="2">
+        <v>400</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G295" s="6">
+        <v>169</v>
+      </c>
+      <c r="H295" s="7">
+        <v>170</v>
+      </c>
+      <c r="I295" s="8">
+        <v>147</v>
+      </c>
+      <c r="J295" s="9">
+        <v>149</v>
+      </c>
+      <c r="K295" s="10">
+        <v>165</v>
+      </c>
+      <c r="M295" s="12">
+        <f t="shared" si="6"/>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -11438,10 +11555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E68" sqref="A68:E68"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E71" sqref="A69:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12600,6 +12717,57 @@
         <v>500</v>
       </c>
       <c r="E68" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B69" t="s">
+        <v>584</v>
+      </c>
+      <c r="C69" s="14">
+        <v>50</v>
+      </c>
+      <c r="D69" s="14">
+        <v>500</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B70" t="s">
+        <v>585</v>
+      </c>
+      <c r="C70" s="14">
+        <v>50</v>
+      </c>
+      <c r="D70" s="14">
+        <v>500</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B71" t="s">
+        <v>586</v>
+      </c>
+      <c r="C71" s="14">
+        <v>40</v>
+      </c>
+      <c r="D71" s="14">
+        <v>400</v>
+      </c>
+      <c r="E71" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12653,8 +12821,11 @@
     <hyperlink ref="A66" r:id="rId44" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-dios-job3-ex-sp" xr:uid="{E8EBA464-90F1-4179-A746-41F668BD83FD}"/>
     <hyperlink ref="A67" r:id="rId45" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-april-2020-ex" xr:uid="{AE0A1400-2C11-4F7A-A0C6-8DD165B34385}"/>
     <hyperlink ref="A68" r:id="rId46" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-dios-job3-ex-sp2" xr:uid="{45F2AFB4-F4C4-47E9-871D-F5670ACC179A}"/>
+    <hyperlink ref="A69" r:id="rId47" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-shadowmessiah-01-ex-sp2" xr:uid="{1E13CAD3-BB69-4017-8D1B-D7C7A87069EB}"/>
+    <hyperlink ref="A70" r:id="rId48" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-shadowmessiah-01-ex-sp" xr:uid="{5D9C613A-45D8-4425-960F-CC39BEE101A5}"/>
+    <hyperlink ref="A71" r:id="rId49" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-shadowmessiah-01-ex" xr:uid="{41C45894-FD6B-4627-B784-9F50E8D1DFCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66E12D51-F854-4C69-AC35-54B02CACC3C5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37AC7EE8-1427-468F-9762-F71BE13C45C4}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="596">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1810,7 +1810,31 @@
     <t>漆黒の血族・果たされなかった約束</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 19/04/2020</t>
+    <t>高難易度クエスト 盾の勇者コラボ　EX3[フィーロ武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 盾の勇者コラボ　EX2[ラフタリア武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 盾の勇者コラボ　EX1[岩谷尚文武具獲得]</t>
+  </si>
+  <si>
+    <t>盾の勇者コラボ [EX3] [フィーロ武具獲得]</t>
+  </si>
+  <si>
+    <t>盾の勇者コラボ [EX2] [ラフタリア武具獲得]</t>
+  </si>
+  <si>
+    <t>盾の勇者コラボ [EX1] [岩谷尚文武具獲得]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 01/05/2020</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 〈七つの大罪〉 EX極5</t>
+  </si>
+  <si>
+    <t>七つの大罪 [EX極5]</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2000,49 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2371,11 +2437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M295"/>
+  <dimension ref="A1:M300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L295" sqref="L295"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K294" sqref="K294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2399,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2412,27 +2478,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 171</v>
+        <v>火 172</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 172</v>
+        <v>水 174</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 148</v>
+        <v>風 149</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 150</v>
+        <v>雷 151</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 166</v>
+        <v>光 168</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 151</v>
+        <v>暗 152</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -8595,9 +8661,12 @@
       <c r="E203" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M203" s="12" t="e">
+      <c r="H203" s="7">
+        <v>167</v>
+      </c>
+      <c r="M203" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -11216,14 +11285,14 @@
         <v>4</v>
       </c>
       <c r="H287" s="7">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L287" s="11">
         <v>151</v>
       </c>
       <c r="M287" s="12">
         <f t="shared" si="4"/>
-        <v>159</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -11375,7 +11444,7 @@
         <v>4</v>
       </c>
       <c r="M292" s="12" t="e">
-        <f t="shared" ref="M292:M295" si="6">AVERAGE(G292:L292)</f>
+        <f t="shared" ref="M292:M299" si="6">AVERAGE(G292:L292)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11401,9 +11470,12 @@
       <c r="H293" s="7">
         <v>172</v>
       </c>
+      <c r="K293" s="10">
+        <v>168</v>
+      </c>
       <c r="M293" s="12">
         <f t="shared" si="6"/>
-        <v>171.5</v>
+        <v>170.33333333333334</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -11476,6 +11548,110 @@
       <c r="M295" s="12">
         <f t="shared" si="6"/>
         <v>160</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C296" s="2">
+        <v>40</v>
+      </c>
+      <c r="D296" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G296" s="6">
+        <v>172</v>
+      </c>
+      <c r="H296" s="7">
+        <v>173</v>
+      </c>
+      <c r="I296" s="8">
+        <v>149</v>
+      </c>
+      <c r="J296" s="9">
+        <v>151</v>
+      </c>
+      <c r="K296" s="10">
+        <v>167</v>
+      </c>
+      <c r="L296" s="11">
+        <v>152</v>
+      </c>
+      <c r="M296" s="12">
+        <f t="shared" si="6"/>
+        <v>160.66666666666666</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C297" s="2">
+        <v>40</v>
+      </c>
+      <c r="D297" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M297" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="A298" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C298" s="2">
+        <v>40</v>
+      </c>
+      <c r="D298" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M298" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="A299" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="M299" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="C300" s="2">
+        <v>50</v>
+      </c>
+      <c r="D300" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11488,63 +11664,33 @@
     <sortCondition ref="B2:B235"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G291 G293:G997">
-    <cfRule type="cellIs" dxfId="11" priority="65" operator="notEqual">
+  <conditionalFormatting sqref="G1:G1000">
+    <cfRule type="cellIs" dxfId="5" priority="65" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I291 H293:I997">
-    <cfRule type="cellIs" dxfId="10" priority="64" operator="notEqual">
+  <conditionalFormatting sqref="H1:I1000">
+    <cfRule type="cellIs" dxfId="4" priority="64" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J291 J293:J997">
-    <cfRule type="cellIs" dxfId="9" priority="63" operator="notEqual">
+  <conditionalFormatting sqref="J1:J1000">
+    <cfRule type="cellIs" dxfId="3" priority="63" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I291 I293:I997">
-    <cfRule type="cellIs" dxfId="8" priority="62" operator="notEqual">
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="cellIs" dxfId="2" priority="62" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K291 K293:K997">
-    <cfRule type="cellIs" dxfId="7" priority="61" operator="notEqual">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="cellIs" dxfId="1" priority="61" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L291 L293:L997">
-    <cfRule type="cellIs" dxfId="6" priority="60" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G292">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H292:I292">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J292">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I292">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K292">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L292">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11555,10 +11701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E71" sqref="A69:E71"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E75" sqref="A75:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12768,6 +12914,74 @@
         <v>400</v>
       </c>
       <c r="E71" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B72" t="s">
+        <v>590</v>
+      </c>
+      <c r="C72" s="14">
+        <v>40</v>
+      </c>
+      <c r="D72" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B73" t="s">
+        <v>591</v>
+      </c>
+      <c r="C73" s="14">
+        <v>40</v>
+      </c>
+      <c r="D73" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="B74" t="s">
+        <v>592</v>
+      </c>
+      <c r="C74" s="14">
+        <v>40</v>
+      </c>
+      <c r="D74" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B75" t="s">
+        <v>595</v>
+      </c>
+      <c r="C75" s="14">
+        <v>50</v>
+      </c>
+      <c r="D75" s="14">
+        <v>14000</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12824,8 +13038,12 @@
     <hyperlink ref="A69" r:id="rId47" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-shadowmessiah-01-ex-sp2" xr:uid="{1E13CAD3-BB69-4017-8D1B-D7C7A87069EB}"/>
     <hyperlink ref="A70" r:id="rId48" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-shadowmessiah-01-ex-sp" xr:uid="{5D9C613A-45D8-4425-960F-CC39BEE101A5}"/>
     <hyperlink ref="A71" r:id="rId49" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-shadowmessiah-01-ex" xr:uid="{41C45894-FD6B-4627-B784-9F50E8D1DFCD}"/>
+    <hyperlink ref="A72" r:id="rId50" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-03" xr:uid="{CC0A237C-A4D3-4EDF-947E-339A6C225A64}"/>
+    <hyperlink ref="A73" r:id="rId51" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-02" xr:uid="{4F4C341E-3D1C-4293-8D73-741029747B46}"/>
+    <hyperlink ref="A74" r:id="rId52" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-01" xr:uid="{42047FC0-41BE-4D2E-A272-58FC5338D865}"/>
+    <hyperlink ref="A75" r:id="rId53" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-ts-ex-sp-05" xr:uid="{8A32074F-3171-4EA4-8A10-155D0EA21FF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37AC7EE8-1427-468F-9762-F71BE13C45C4}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65CE3D88-1A2D-418E-8111-EC7E82CDABD9}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="598">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1835,6 +1835,12 @@
   </si>
   <si>
     <t>七つの大罪 [EX極5]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト オレンジバルーン大発生</t>
+  </si>
+  <si>
+    <t>オレンジバルーン大発生</t>
   </si>
 </sst>
 </file>
@@ -2000,91 +2006,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2440,8 +2362,8 @@
   <dimension ref="A1:M300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K294" sqref="K294"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L299" sqref="L299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2478,27 +2400,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 172</v>
+        <v>火 174</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 174</v>
+        <v>水 176</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 149</v>
+        <v>風 151</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 151</v>
+        <v>雷 153</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 168</v>
+        <v>光 170</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 152</v>
+        <v>暗 154</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -11591,10 +11513,10 @@
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C297" s="2">
         <v>40</v>
@@ -11605,17 +11527,35 @@
       <c r="E297" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M297" s="12" t="e">
+      <c r="G297" s="6">
+        <v>173</v>
+      </c>
+      <c r="H297" s="7">
+        <v>175</v>
+      </c>
+      <c r="I297" s="8">
+        <v>150</v>
+      </c>
+      <c r="J297" s="9">
+        <v>152</v>
+      </c>
+      <c r="K297" s="10">
+        <v>169</v>
+      </c>
+      <c r="L297" s="11">
+        <v>153</v>
+      </c>
+      <c r="M297" s="12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>162</v>
       </c>
     </row>
     <row r="298" spans="1:13">
       <c r="A298" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C298" s="2">
         <v>40</v>
@@ -11627,31 +11567,59 @@
         <v>4</v>
       </c>
       <c r="M298" s="12" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M298:M300" si="7">AVERAGE(G298:L298)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C299" s="2">
+        <v>40</v>
+      </c>
+      <c r="D299" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G299" s="6">
+        <v>174</v>
+      </c>
+      <c r="H299" s="7">
+        <v>176</v>
+      </c>
+      <c r="I299" s="8">
+        <v>151</v>
+      </c>
+      <c r="J299" s="9">
+        <v>153</v>
+      </c>
+      <c r="M299" s="12">
+        <f t="shared" si="7"/>
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="A300" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="M299" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13">
-      <c r="C300" s="2">
-        <v>50</v>
-      </c>
-      <c r="D300" s="2">
-        <v>14000</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>4</v>
+      <c r="K300" s="10">
+        <v>170</v>
+      </c>
+      <c r="L300" s="11">
+        <v>154</v>
+      </c>
+      <c r="M300" s="12">
+        <f t="shared" si="7"/>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -11701,10 +11669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E75" sqref="A75:E75"/>
+      <selection activeCell="E76" sqref="A76:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12982,6 +12950,23 @@
         <v>14000</v>
       </c>
       <c r="E75" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B76" t="s">
+        <v>597</v>
+      </c>
+      <c r="C76" s="14">
+        <v>40</v>
+      </c>
+      <c r="D76" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13042,8 +13027,9 @@
     <hyperlink ref="A73" r:id="rId51" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-02" xr:uid="{4F4C341E-3D1C-4293-8D73-741029747B46}"/>
     <hyperlink ref="A74" r:id="rId52" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-01" xr:uid="{42047FC0-41BE-4D2E-A272-58FC5338D865}"/>
     <hyperlink ref="A75" r:id="rId53" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-ts-ex-sp-05" xr:uid="{8A32074F-3171-4EA4-8A10-155D0EA21FF2}"/>
+    <hyperlink ref="A76" r:id="rId54" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-04" xr:uid="{EFCACE62-A0FA-4DA2-B299-C8592EFA55E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65CE3D88-1A2D-418E-8111-EC7E82CDABD9}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22A05CF2-7419-4838-B9CB-74BD08EE55AE}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="612">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1828,9 +1828,6 @@
     <t>盾の勇者コラボ [EX1] [岩谷尚文武具獲得]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 01/05/2020</t>
-  </si>
-  <si>
     <t>超高難易度クエスト 〈七つの大罪〉 EX極5</t>
   </si>
   <si>
@@ -1841,6 +1838,51 @@
   </si>
   <si>
     <t>オレンジバルーン大発生</t>
+  </si>
+  <si>
+    <t>【地獄級】 正義の系譜</t>
+  </si>
+  <si>
+    <t>正義の系譜</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 盾の勇者の成り上がり EX極3</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 盾の勇者の成り上がり EX極2</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 盾の勇者の成り上がり EX極1</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】この薄汚れた世界に生きて</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】この薄汚れた世界に生きて</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】この薄汚れた世界に生きて</t>
+  </si>
+  <si>
+    <t>盾の勇者の成り上がり [EX極3]</t>
+  </si>
+  <si>
+    <t>盾の勇者の成り上がり [EX極2]</t>
+  </si>
+  <si>
+    <t>盾の勇者の成り上がり [EX極1]</t>
+  </si>
+  <si>
+    <t>この薄汚れた世界に生きて [地獄級]</t>
+  </si>
+  <si>
+    <t>この薄汚れた世界に生きて [EX極]</t>
+  </si>
+  <si>
+    <t>この薄汚れた世界に生きて</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 17/05/2020</t>
   </si>
 </sst>
 </file>
@@ -2359,11 +2401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L299" sqref="L299"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M307" sqref="M307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2387,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2400,27 +2442,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 174</v>
+        <v>火 185</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 176</v>
+        <v>水 185</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 151</v>
+        <v>風 160</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 153</v>
+        <v>雷 162</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 170</v>
+        <v>光 178</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 154</v>
+        <v>暗 163</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -3681,6 +3723,18 @@
       <c r="E46" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G46" s="6">
+        <v>178</v>
+      </c>
+      <c r="H46" s="7">
+        <v>182</v>
+      </c>
+      <c r="I46" s="8">
+        <v>157</v>
+      </c>
+      <c r="J46" s="9">
+        <v>159</v>
+      </c>
       <c r="K46" s="10">
         <v>85</v>
       </c>
@@ -3689,7 +3743,7 @@
       </c>
       <c r="M46" s="12">
         <f t="shared" si="1"/>
-        <v>76.5</v>
+        <v>138.16666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3711,12 +3765,15 @@
       <c r="G47" s="6">
         <v>86</v>
       </c>
+      <c r="H47" s="7">
+        <v>183</v>
+      </c>
       <c r="L47" s="11">
         <v>69</v>
       </c>
       <c r="M47" s="12">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>112.66666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -7104,9 +7161,24 @@
       <c r="G152" s="6">
         <v>81</v>
       </c>
+      <c r="H152" s="7">
+        <v>180</v>
+      </c>
+      <c r="I152" s="8">
+        <v>155</v>
+      </c>
+      <c r="J152" s="9">
+        <v>157</v>
+      </c>
+      <c r="K152" s="10">
+        <v>173</v>
+      </c>
+      <c r="L152" s="11">
+        <v>158</v>
+      </c>
       <c r="M152" s="12">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>150.66666666666666</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7890,9 +7962,12 @@
       <c r="J178" s="9">
         <v>76</v>
       </c>
+      <c r="K178" s="10">
+        <v>175</v>
+      </c>
       <c r="M178" s="12">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7938,6 +8013,18 @@
       <c r="E180" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G180" s="6">
+        <v>177</v>
+      </c>
+      <c r="H180" s="7">
+        <v>179</v>
+      </c>
+      <c r="I180" s="8">
+        <v>153</v>
+      </c>
+      <c r="J180" s="9">
+        <v>155</v>
+      </c>
       <c r="K180" s="10">
         <v>61</v>
       </c>
@@ -7946,7 +8033,7 @@
       </c>
       <c r="M180" s="12">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>129</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -9979,12 +10066,27 @@
       <c r="E249" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G249" s="6">
+        <v>181</v>
+      </c>
       <c r="H249" s="7">
         <v>66</v>
       </c>
+      <c r="I249" s="8">
+        <v>158</v>
+      </c>
+      <c r="J249" s="9">
+        <v>160</v>
+      </c>
+      <c r="K249" s="10">
+        <v>176</v>
+      </c>
+      <c r="L249" s="11">
+        <v>160</v>
+      </c>
       <c r="M249" s="12">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>150.16666666666666</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10003,15 +10105,21 @@
       <c r="E250" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G250" s="6">
+        <v>182</v>
+      </c>
       <c r="H250" s="7">
         <v>67</v>
       </c>
       <c r="I250" s="8">
         <v>129</v>
       </c>
+      <c r="L250" s="11">
+        <v>161</v>
+      </c>
       <c r="M250" s="12">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>134.75</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10069,12 +10177,27 @@
       <c r="E252" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G252" s="6">
+        <v>175</v>
+      </c>
+      <c r="H252" s="7">
+        <v>178</v>
+      </c>
+      <c r="I252" s="8">
+        <v>152</v>
+      </c>
+      <c r="J252" s="9">
+        <v>154</v>
+      </c>
       <c r="K252" s="10">
         <v>22</v>
       </c>
+      <c r="L252" s="11">
+        <v>157</v>
+      </c>
       <c r="M252" s="12">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>139.66666666666666</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10201,9 +10324,18 @@
       <c r="G256" s="6">
         <v>83</v>
       </c>
+      <c r="H256" s="7">
+        <v>181</v>
+      </c>
+      <c r="I256" s="8">
+        <v>156</v>
+      </c>
+      <c r="J256" s="9">
+        <v>158</v>
+      </c>
       <c r="M256" s="12">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -10372,12 +10504,15 @@
       <c r="E262" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G262" s="6">
+        <v>180</v>
+      </c>
       <c r="L262" s="11">
         <v>132</v>
       </c>
       <c r="M262" s="12">
         <f t="shared" si="4"/>
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11366,7 +11501,7 @@
         <v>4</v>
       </c>
       <c r="M292" s="12" t="e">
-        <f t="shared" ref="M292:M299" si="6">AVERAGE(G292:L292)</f>
+        <f t="shared" ref="M292:M297" si="6">AVERAGE(G292:L292)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11474,10 +11609,10 @@
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="C296" s="2">
         <v>40</v>
@@ -11513,10 +11648,10 @@
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="C297" s="2">
         <v>40</v>
@@ -11566,9 +11701,27 @@
       <c r="E298" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M298" s="12" t="e">
-        <f t="shared" ref="M298:M300" si="7">AVERAGE(G298:L298)</f>
-        <v>#DIV/0!</v>
+      <c r="G298" s="6">
+        <v>175</v>
+      </c>
+      <c r="H298" s="7">
+        <v>177</v>
+      </c>
+      <c r="I298" s="8">
+        <v>154</v>
+      </c>
+      <c r="J298" s="9">
+        <v>156</v>
+      </c>
+      <c r="K298" s="10">
+        <v>172</v>
+      </c>
+      <c r="L298" s="11">
+        <v>156</v>
+      </c>
+      <c r="M298" s="12">
+        <f t="shared" ref="M298:M307" si="7">AVERAGE(G298:L298)</f>
+        <v>165</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -11599,9 +11752,15 @@
       <c r="J299" s="9">
         <v>153</v>
       </c>
+      <c r="K299" s="10">
+        <v>171</v>
+      </c>
+      <c r="L299" s="11">
+        <v>155</v>
+      </c>
       <c r="M299" s="12">
         <f t="shared" si="7"/>
-        <v>163.5</v>
+        <v>163.33333333333334</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -11622,8 +11781,203 @@
         <v>162</v>
       </c>
     </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C301" s="2">
+        <v>50</v>
+      </c>
+      <c r="D301" s="2">
+        <v>500</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G301" s="6">
+        <v>179</v>
+      </c>
+      <c r="K301" s="10">
+        <v>174</v>
+      </c>
+      <c r="L301" s="11">
+        <v>159</v>
+      </c>
+      <c r="M301" s="12">
+        <f t="shared" si="7"/>
+        <v>170.66666666666666</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302" s="2">
+        <v>50</v>
+      </c>
+      <c r="D302" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M302" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
+      <c r="A303" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C303" s="2">
+        <v>50</v>
+      </c>
+      <c r="D303" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M303" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="A304" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C304" s="2">
+        <v>50</v>
+      </c>
+      <c r="D304" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G304" s="6">
+        <v>183</v>
+      </c>
+      <c r="H304" s="7">
+        <v>184</v>
+      </c>
+      <c r="I304" s="8">
+        <v>159</v>
+      </c>
+      <c r="J304" s="9">
+        <v>161</v>
+      </c>
+      <c r="K304" s="10">
+        <v>177</v>
+      </c>
+      <c r="L304" s="11">
+        <v>162</v>
+      </c>
+      <c r="M304" s="12">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
+      <c r="A305" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C305" s="2">
+        <v>50</v>
+      </c>
+      <c r="D305" s="2">
+        <v>500</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M305" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C306" s="2">
+        <v>50</v>
+      </c>
+      <c r="D306" s="2">
+        <v>500</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G306" s="6">
+        <v>185</v>
+      </c>
+      <c r="M306" s="12">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C307" s="2">
+        <v>40</v>
+      </c>
+      <c r="D307" s="2">
+        <v>400</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G307" s="6">
+        <v>184</v>
+      </c>
+      <c r="H307" s="7">
+        <v>185</v>
+      </c>
+      <c r="I307" s="8">
+        <v>160</v>
+      </c>
+      <c r="J307" s="9">
+        <v>162</v>
+      </c>
+      <c r="K307" s="10">
+        <v>178</v>
+      </c>
+      <c r="L307" s="11">
+        <v>163</v>
+      </c>
+      <c r="M307" s="12">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
+  <autoFilter ref="A1:M300" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M258">
       <sortCondition ref="B1"/>
     </sortState>
@@ -11669,10 +12023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E76" sqref="A76:E76"/>
+      <selection activeCell="E83" sqref="A78:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12938,10 +13292,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B75" t="s">
         <v>594</v>
-      </c>
-      <c r="B75" t="s">
-        <v>595</v>
       </c>
       <c r="C75" s="14">
         <v>50</v>
@@ -12955,10 +13309,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B76" t="s">
         <v>596</v>
-      </c>
-      <c r="B76" t="s">
-        <v>597</v>
       </c>
       <c r="C76" s="14">
         <v>40</v>
@@ -12967,6 +13321,125 @@
         <v>11000</v>
       </c>
       <c r="E76" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B77" t="s">
+        <v>598</v>
+      </c>
+      <c r="C77" s="14">
+        <v>50</v>
+      </c>
+      <c r="D77" s="14">
+        <v>500</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B78" t="s">
+        <v>605</v>
+      </c>
+      <c r="C78" s="14">
+        <v>50</v>
+      </c>
+      <c r="D78" s="14">
+        <v>14000</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B79" t="s">
+        <v>606</v>
+      </c>
+      <c r="C79" s="14">
+        <v>50</v>
+      </c>
+      <c r="D79" s="14">
+        <v>14000</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B80" t="s">
+        <v>607</v>
+      </c>
+      <c r="C80" s="14">
+        <v>50</v>
+      </c>
+      <c r="D80" s="14">
+        <v>14000</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B81" t="s">
+        <v>608</v>
+      </c>
+      <c r="C81" s="14">
+        <v>50</v>
+      </c>
+      <c r="D81" s="14">
+        <v>500</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="B82" t="s">
+        <v>609</v>
+      </c>
+      <c r="C82" s="14">
+        <v>50</v>
+      </c>
+      <c r="D82" s="14">
+        <v>500</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B83" t="s">
+        <v>610</v>
+      </c>
+      <c r="C83" s="14">
+        <v>40</v>
+      </c>
+      <c r="D83" s="14">
+        <v>400</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13028,8 +13501,15 @@
     <hyperlink ref="A74" r:id="rId52" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-01" xr:uid="{42047FC0-41BE-4D2E-A272-58FC5338D865}"/>
     <hyperlink ref="A75" r:id="rId53" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-ts-ex-sp-05" xr:uid="{8A32074F-3171-4EA4-8A10-155D0EA21FF2}"/>
     <hyperlink ref="A76" r:id="rId54" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-04" xr:uid="{EFCACE62-A0FA-4DA2-B299-C8592EFA55E9}"/>
+    <hyperlink ref="A77" r:id="rId55" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-ts-ls-seiseki" xr:uid="{95855CEA-5642-4BB7-A90E-0E1F5723B8A7}"/>
+    <hyperlink ref="A78" r:id="rId56" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-sp-03" xr:uid="{851DD981-F753-418F-B0D9-99B565BAB7BD}"/>
+    <hyperlink ref="A79" r:id="rId57" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-sp-02" xr:uid="{0C088903-3F2A-4E3C-884F-CB0B3887A4E6}"/>
+    <hyperlink ref="A80" r:id="rId58" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-sb-ex-sp-01" xr:uid="{19A4740A-FFD6-4632-90AB-5C3FC6C39ECA}"/>
+    <hyperlink ref="A81" r:id="rId59" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex-sp2" xr:uid="{9C334999-C80E-4A9E-ABC0-20C3914AF373}"/>
+    <hyperlink ref="A82" r:id="rId60" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex-sp" xr:uid="{5BC77F50-2FDF-4A25-944A-42AF27587859}"/>
+    <hyperlink ref="A83" r:id="rId61" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex" xr:uid="{E10A5974-834F-4253-A38B-BACB87D98F52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22A05CF2-7419-4838-B9CB-74BD08EE55AE}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F600FC8D-6F67-4602-B74D-3C662D281D6B}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="613">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1882,7 +1882,10 @@
     <t>この薄汚れた世界に生きて</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 17/05/2020</t>
+    <t>【地獄級】 世界を照らす者</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 22/05/2020</t>
   </si>
 </sst>
 </file>
@@ -2401,11 +2404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:M308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M307" sqref="M307"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2458,7 +2461,7 @@
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 178</v>
+        <v>光 179</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
@@ -11720,7 +11723,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M307" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M308" si="7">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -11974,6 +11977,30 @@
       <c r="M307" s="12">
         <f t="shared" si="7"/>
         <v>172</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="A308" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C308" s="2">
+        <v>50</v>
+      </c>
+      <c r="D308" s="2">
+        <v>500</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K308" s="10">
+        <v>179</v>
+      </c>
+      <c r="M308" s="12">
+        <f t="shared" si="7"/>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -12023,10 +12050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E83" sqref="A78:E83"/>
+      <selection activeCell="E84" sqref="A84:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13440,6 +13467,23 @@
         <v>400</v>
       </c>
       <c r="E83" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="B84" t="s">
+        <v>611</v>
+      </c>
+      <c r="C84" s="14">
+        <v>50</v>
+      </c>
+      <c r="D84" s="14">
+        <v>500</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13508,8 +13552,9 @@
     <hyperlink ref="A81" r:id="rId59" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex-sp2" xr:uid="{9C334999-C80E-4A9E-ABC0-20C3914AF373}"/>
     <hyperlink ref="A82" r:id="rId60" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex-sp" xr:uid="{5BC77F50-2FDF-4A25-944A-42AF27587859}"/>
     <hyperlink ref="A83" r:id="rId61" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex" xr:uid="{E10A5974-834F-4253-A38B-BACB87D98F52}"/>
+    <hyperlink ref="A84" r:id="rId62" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-canon-cc" xr:uid="{23A81631-959C-4C60-9453-C46B02670C97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F600FC8D-6F67-4602-B74D-3C662D281D6B}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B210FB35-986A-40D3-94E5-AECE99D1C6C9}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2407,8 +2407,8 @@
   <dimension ref="A1:M308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A308" sqref="A308"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2445,27 +2445,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 185</v>
+        <v>火 188</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 185</v>
+        <v>水 187</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 160</v>
+        <v>風 162</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 162</v>
+        <v>雷 165</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 179</v>
+        <v>光 183</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 163</v>
+        <v>暗 167</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -11830,9 +11830,27 @@
       <c r="E302" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M302" s="12" t="e">
+      <c r="G302" s="6">
+        <v>188</v>
+      </c>
+      <c r="H302" s="7">
+        <v>187</v>
+      </c>
+      <c r="I302" s="8">
+        <v>162</v>
+      </c>
+      <c r="J302" s="9">
+        <v>164</v>
+      </c>
+      <c r="K302" s="10">
+        <v>181</v>
+      </c>
+      <c r="L302" s="11">
+        <v>165</v>
+      </c>
+      <c r="M302" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>174.5</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -11851,9 +11869,27 @@
       <c r="E303" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M303" s="12" t="e">
+      <c r="G303" s="6">
+        <v>187</v>
+      </c>
+      <c r="H303" s="7">
+        <v>186</v>
+      </c>
+      <c r="I303" s="8">
+        <v>161</v>
+      </c>
+      <c r="J303" s="9">
+        <v>163</v>
+      </c>
+      <c r="K303" s="10">
+        <v>180</v>
+      </c>
+      <c r="L303" s="11">
+        <v>164</v>
+      </c>
+      <c r="M303" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -11911,9 +11947,18 @@
       <c r="E305" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M305" s="12" t="e">
+      <c r="G305" s="6">
+        <v>186</v>
+      </c>
+      <c r="K305" s="10">
+        <v>182</v>
+      </c>
+      <c r="L305" s="11">
+        <v>167</v>
+      </c>
+      <c r="M305" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>178.33333333333334</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -11935,9 +11980,18 @@
       <c r="G306" s="6">
         <v>185</v>
       </c>
+      <c r="J306" s="9">
+        <v>165</v>
+      </c>
+      <c r="K306" s="10">
+        <v>183</v>
+      </c>
+      <c r="L306" s="11">
+        <v>166</v>
+      </c>
       <c r="M306" s="12">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>174.75</v>
       </c>
     </row>
     <row r="307" spans="1:13">

--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10504"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,12 +20,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1895,7 +1897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2406,28 +2408,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I306" sqref="I306"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.09765625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.796875" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.8984375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="11"/>
-    <col min="13" max="13" width="9.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.8984375" style="2"/>
+    <col min="1" max="1" width="9.953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.7421875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7421875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.7421875" style="11"/>
+    <col min="13" max="13" width="9.14453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>161</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>103.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>162</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>104.33333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>490</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>119.83333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>496</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>130.66666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>507</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>437</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>406</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>132</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>133</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>409</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>134</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>422</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>135</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>343</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>343</v>
       </c>
@@ -3263,7 +3266,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>343</v>
       </c>
@@ -3284,7 +3287,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>343</v>
       </c>
@@ -3305,7 +3308,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>343</v>
       </c>
@@ -3326,7 +3329,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>343</v>
       </c>
@@ -3347,7 +3350,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>343</v>
       </c>
@@ -3368,7 +3371,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>80.166666666666671</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>461</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>459</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>460</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>411</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>37.666666666666664</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>412</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>38.666666666666664</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>122.66666666666667</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>105.33333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>158</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>138.16666666666666</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>157</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>112.66666666666667</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -3851,7 +3854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>407</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>504</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>129.16666666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>500</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>131.16666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>499</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>433</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>50.166666666666664</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>101</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>75.166666666666671</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>100</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>388</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>24.333333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>429</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>48.833333333333336</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>414</v>
       </c>
@@ -4475,7 +4478,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>119</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>164</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>380</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>20.166666666666668</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>478</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>108.33333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>477</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>109.33333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>476</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>110.66666666666667</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>63</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>73.833333333333329</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>20</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>109.66666666666667</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>119.16666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>44</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>120.16666666666667</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>105.33333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>45</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>123.83333333333333</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>404</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>32.666666666666664</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>107.83333333333333</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>423</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>45.666666666666664</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>427</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>47.833333333333336</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>439</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>115.33333333333333</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>117.16666666666667</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>27</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>118.66666666666667</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>487</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>115.33333333333333</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>498</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>124.33333333333333</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>64</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>97</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>136</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>22</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>65</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>73.166666666666671</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>79.666666666666671</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>467</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>468</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>92.666666666666671</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>469</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>470</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>471</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>466</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>100.66666666666667</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>465</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>483</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>69.166666666666671</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>474</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>106.33333333333333</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>482</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>486</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>116.33333333333333</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>457</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>344</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>348</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>346</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>350</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>51</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>54</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>66</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>123.83333333333333</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>454</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>453</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>87.333333333333329</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>441</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>138</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>71.666666666666671</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>75</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>384</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>386</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>376</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>18.166666666666668</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>378</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>19.166666666666668</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>102</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>103</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>68</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>443</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>352</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>170</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>360</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>77</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>42</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>84.166666666666671</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>41</v>
       </c>
@@ -7145,7 +7148,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>150.66666666666666</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>46</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>358</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>84.833333333333329</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>69</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>79</v>
       </c>
@@ -7373,7 +7376,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>402</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>31.666666666666668</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>139</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>115</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>374</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>17.166666666666668</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>67</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>159</v>
       </c>
@@ -7571,7 +7574,7 @@
         <v>80.666666666666671</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>123</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>368</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>13.166666666666666</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>113</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>114</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>166</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>140</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>57</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>445</v>
       </c>
@@ -7838,7 +7841,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>148</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>58</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>447</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>149</v>
       </c>
@@ -7946,7 +7949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>451</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>80</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>171</v>
       </c>
@@ -8039,7 +8042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>104</v>
       </c>
@@ -8060,7 +8063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>105</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>15.166666666666666</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>372</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>16.166666666666668</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>25</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>362</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>10.166666666666666</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>76</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>333</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>101.16666666666667</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>334</v>
       </c>
@@ -8327,7 +8330,7 @@
         <v>98.666666666666671</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>48</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>50</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>49</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>56</v>
       </c>
@@ -8447,7 +8450,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>8</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>55</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>52</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>53</v>
       </c>
@@ -8570,7 +8573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>7</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>416</v>
       </c>
@@ -8633,7 +8636,7 @@
         <v>37.333333333333336</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>71</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>17</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>141</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>31</v>
       </c>
@@ -8744,7 +8747,7 @@
         <v>79.666666666666671</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>70</v>
       </c>
@@ -8783,7 +8786,7 @@
         <v>81.166666666666671</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>121</v>
       </c>
@@ -8822,7 +8825,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>364</v>
       </c>
@@ -8861,7 +8864,7 @@
         <v>11.166666666666666</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>435</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>56.333333333333336</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>366</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>12.166666666666666</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>73</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>354</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>14</v>
       </c>
@@ -9017,7 +9020,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>24</v>
       </c>
@@ -9038,7 +9041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>15</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>425</v>
       </c>
@@ -9098,7 +9101,7 @@
         <v>46.833333333333336</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>43</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>38</v>
       </c>
@@ -9143,7 +9146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>39</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="1" customFormat="1">
+    <row r="220" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>127</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="1" customFormat="1">
+    <row r="221" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>400</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>30.166666666666668</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>99</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>128</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>398</v>
       </c>
@@ -9333,7 +9336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>126</v>
       </c>
@@ -9357,7 +9360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>392</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>27.166666666666668</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>98</v>
       </c>
@@ -9423,7 +9426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>125</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>390</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>25.333333333333332</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>394</v>
       </c>
@@ -9525,7 +9528,7 @@
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>396</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>26</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>326</v>
       </c>
@@ -9615,7 +9618,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>325</v>
       </c>
@@ -9639,7 +9642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>327</v>
       </c>
@@ -9663,7 +9666,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>328</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>492</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>493</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>163</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>74</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>142</v>
       </c>
@@ -9810,7 +9813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>431</v>
       </c>
@@ -9849,7 +9852,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>106</v>
       </c>
@@ -9873,7 +9876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>143</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>356</v>
       </c>
@@ -9936,7 +9939,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>33</v>
       </c>
@@ -9975,7 +9978,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>81</v>
       </c>
@@ -10014,7 +10017,7 @@
         <v>78.333333333333329</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>81</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>72</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>150.16666666666666</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>122</v>
       </c>
@@ -10125,7 +10128,7 @@
         <v>134.75</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>382</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>21.166666666666668</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>449</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>139.66666666666666</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>418</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>420</v>
       </c>
@@ -10281,7 +10284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>47</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>156</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v>144.5</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>78</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>129</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>509</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>139.33333333333334</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>510</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>511</v>
       </c>
@@ -10491,7 +10494,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>515</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>517</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>518</v>
       </c>
@@ -10596,7 +10599,7 @@
         <v>140.16666666666666</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>519</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>139.83333333333334</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>520</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>138.16666666666666</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>527</v>
       </c>
@@ -10695,7 +10698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>528</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>529</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>530</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>147.75</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>531</v>
       </c>
@@ -10827,7 +10830,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>537</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>538</v>
       </c>
@@ -10878,7 +10881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>539</v>
       </c>
@@ -10917,7 +10920,7 @@
         <v>150.33333333333334</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>540</v>
       </c>
@@ -10956,7 +10959,7 @@
         <v>145.5</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>541</v>
       </c>
@@ -10980,7 +10983,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>542</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>543</v>
       </c>
@@ -11058,7 +11061,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>552</v>
       </c>
@@ -11097,7 +11100,7 @@
         <v>152.66666666666666</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>553</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>148.66666666666666</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>558</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>559</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>562</v>
       </c>
@@ -11232,7 +11235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>563</v>
       </c>
@@ -11268,7 +11271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>564</v>
       </c>
@@ -11289,7 +11292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>565</v>
       </c>
@@ -11328,7 +11331,7 @@
         <v>153.83333333333334</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>566</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>567</v>
       </c>
@@ -11391,7 +11394,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>568</v>
       </c>
@@ -11430,7 +11433,7 @@
         <v>154.83333333333334</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>573</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>574</v>
       </c>
@@ -11487,7 +11490,7 @@
         <v>158.80000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>577</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>581</v>
       </c>
@@ -11538,7 +11541,7 @@
         <v>170.33333333333334</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>582</v>
       </c>
@@ -11574,7 +11577,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>583</v>
       </c>
@@ -11610,7 +11613,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>593</v>
       </c>
@@ -11649,7 +11652,7 @@
         <v>160.66666666666666</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>595</v>
       </c>
@@ -11688,7 +11691,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>587</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>588</v>
       </c>
@@ -11766,7 +11769,7 @@
         <v>163.33333333333334</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>589</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>597</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>170.66666666666666</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>599</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>600</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>601</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>602</v>
       </c>
@@ -11961,7 +11964,7 @@
         <v>178.33333333333334</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>603</v>
       </c>
@@ -11994,7 +11997,7 @@
         <v>174.75</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>604</v>
       </c>
@@ -12033,7 +12036,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>611</v>
       </c>
@@ -12110,13 +12113,13 @@
       <selection activeCell="E84" sqref="A84:E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.14453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5390625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
@@ -12130,7 +12133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -12147,7 +12150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>343</v>
       </c>
@@ -12181,7 +12184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -12215,7 +12218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -12232,7 +12235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>343</v>
       </c>
@@ -12249,7 +12252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>453</v>
       </c>
@@ -12283,7 +12286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>457</v>
       </c>
@@ -12300,7 +12303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>459</v>
       </c>
@@ -12317,7 +12320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>460</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>461</v>
       </c>
@@ -12351,7 +12354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -12385,7 +12388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>474</v>
       </c>
@@ -12402,7 +12405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>476</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>477</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>478</v>
       </c>
@@ -12453,7 +12456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>482</v>
       </c>
@@ -12470,7 +12473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>483</v>
       </c>
@@ -12487,7 +12490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>486</v>
       </c>
@@ -12504,7 +12507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>487</v>
       </c>
@@ -12521,7 +12524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>490</v>
       </c>
@@ -12538,7 +12541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>492</v>
       </c>
@@ -12555,7 +12558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>493</v>
       </c>
@@ -12572,7 +12575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>496</v>
       </c>
@@ -12589,7 +12592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>498</v>
       </c>
@@ -12606,7 +12609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>499</v>
       </c>
@@ -12623,7 +12626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>500</v>
       </c>
@@ -12640,7 +12643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>504</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>507</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>509</v>
       </c>
@@ -12691,7 +12694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>510</v>
       </c>
@@ -12708,7 +12711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>511</v>
       </c>
@@ -12725,7 +12728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>515</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>517</v>
       </c>
@@ -12759,7 +12762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>518</v>
       </c>
@@ -12776,7 +12779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>519</v>
       </c>
@@ -12793,7 +12796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>520</v>
       </c>
@@ -12810,7 +12813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>527</v>
       </c>
@@ -12827,7 +12830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>528</v>
       </c>
@@ -12844,7 +12847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>529</v>
       </c>
@@ -12861,7 +12864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>530</v>
       </c>
@@ -12878,7 +12881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>531</v>
       </c>
@@ -12895,7 +12898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>536</v>
       </c>
@@ -12912,7 +12915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>537</v>
       </c>
@@ -12929,7 +12932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8">
+    <row r="49" spans="1:5" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>538</v>
       </c>
@@ -12946,7 +12949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8">
+    <row r="50" spans="1:5" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>539</v>
       </c>
@@ -12963,7 +12966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>540</v>
       </c>
@@ -12980,7 +12983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>541</v>
       </c>
@@ -12997,7 +13000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>542</v>
       </c>
@@ -13014,7 +13017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>543</v>
       </c>
@@ -13031,7 +13034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.8">
+    <row r="55" spans="1:5" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>552</v>
       </c>
@@ -13048,7 +13051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>553</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>558</v>
       </c>
@@ -13082,7 +13085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>559</v>
       </c>
@@ -13099,7 +13102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>562</v>
       </c>
@@ -13116,7 +13119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>563</v>
       </c>
@@ -13133,7 +13136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>564</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>565</v>
       </c>
@@ -13167,7 +13170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>566</v>
       </c>
@@ -13184,7 +13187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>567</v>
       </c>
@@ -13201,7 +13204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>568</v>
       </c>
@@ -13218,7 +13221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>573</v>
       </c>
@@ -13235,7 +13238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>574</v>
       </c>
@@ -13252,7 +13255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>577</v>
       </c>
@@ -13269,7 +13272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>581</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>582</v>
       </c>
@@ -13303,7 +13306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>583</v>
       </c>
@@ -13320,7 +13323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>587</v>
       </c>
@@ -13337,7 +13340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>588</v>
       </c>
@@ -13354,7 +13357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>589</v>
       </c>
@@ -13371,7 +13374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>593</v>
       </c>
@@ -13388,7 +13391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>595</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>597</v>
       </c>
@@ -13422,7 +13425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>599</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>600</v>
       </c>
@@ -13456,7 +13459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>601</v>
       </c>
@@ -13473,7 +13476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>602</v>
       </c>
@@ -13490,7 +13493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>603</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>604</v>
       </c>
@@ -13524,7 +13527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>611</v>
       </c>

--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B210FB35-986A-40D3-94E5-AECE99D1C6C9}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FCDDFFC-B57F-4024-855C-52E84C10B971}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="615">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1887,7 +1885,13 @@
     <t>【地獄級】 世界を照らす者</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 22/05/2020</t>
+    <t>【地獄級】ファントム オブ アルケミスト2 ファントム オブ アルケミスト[地獄級]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト2 [地獄級]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 17/06/2020</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1901,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2406,36 +2410,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M308"/>
+  <dimension ref="A1:M309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1"/>
+      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.7421875" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7421875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="8.7421875" style="11"/>
-    <col min="13" max="13" width="9.14453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.09765625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.69921875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.8984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" style="11"/>
+    <col min="13" max="13" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2468,13 +2472,13 @@
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 167</v>
+        <v>暗 168</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>161</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>103.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>162</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>104.33333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -2576,7 +2580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>490</v>
       </c>
@@ -2615,7 +2619,7 @@
         <v>119.83333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>496</v>
       </c>
@@ -2654,7 +2658,7 @@
         <v>130.66666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>507</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>437</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>406</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -2987,7 +2991,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>132</v>
       </c>
@@ -3050,7 +3054,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>133</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>409</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>134</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>422</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>135</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>343</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>343</v>
       </c>
@@ -3266,7 +3270,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>343</v>
       </c>
@@ -3287,7 +3291,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>343</v>
       </c>
@@ -3308,7 +3312,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>343</v>
       </c>
@@ -3329,7 +3333,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>343</v>
       </c>
@@ -3350,7 +3354,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>343</v>
       </c>
@@ -3371,7 +3375,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>80.166666666666671</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>461</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>459</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>460</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>411</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>37.666666666666664</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>412</v>
       </c>
@@ -3605,7 +3609,7 @@
         <v>38.666666666666664</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>122.66666666666667</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>105.33333333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>158</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>138.16666666666666</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>157</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>112.66666666666667</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>407</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -3935,7 +3939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3977,7 +3981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>504</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>129.16666666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>500</v>
       </c>
@@ -4202,7 +4206,7 @@
         <v>131.16666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>499</v>
       </c>
@@ -4223,7 +4227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>433</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>50.166666666666664</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>101</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>75.166666666666671</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>100</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>388</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>24.333333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>429</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>48.833333333333336</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>414</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>119</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>164</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>380</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>20.166666666666668</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>478</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>108.33333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>477</v>
       </c>
@@ -4748,7 +4752,7 @@
         <v>109.33333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>476</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>110.66666666666667</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>63</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>73.833333333333329</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>20</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>109.66666666666667</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -4886,7 +4890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>119.16666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
         <v>44</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>120.16666666666667</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>105.33333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
         <v>45</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -5081,7 +5085,7 @@
         <v>123.83333333333333</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
         <v>404</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>32.666666666666664</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>107.83333333333333</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
         <v>423</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>45.666666666666664</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
         <v>427</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>47.833333333333336</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
         <v>439</v>
       </c>
@@ -5276,7 +5280,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>115.33333333333333</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -5354,7 +5358,7 @@
         <v>117.16666666666667</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>27</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>118.66666666666667</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>487</v>
       </c>
@@ -5471,7 +5475,7 @@
         <v>115.33333333333333</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>498</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>124.33333333333333</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>64</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>97</v>
       </c>
@@ -5612,7 +5616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>136</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>22</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>65</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>73.166666666666671</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>79.666666666666671</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>467</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>468</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>92.666666666666671</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>469</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>470</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
         <v>471</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
         <v>466</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>100.66666666666667</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
         <v>465</v>
       </c>
@@ -6014,7 +6018,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
         <v>483</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>69.166666666666671</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
         <v>474</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>106.33333333333333</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
         <v>482</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
         <v>486</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>116.33333333333333</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
         <v>457</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
         <v>344</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
         <v>348</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
         <v>346</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
         <v>350</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
         <v>51</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
         <v>54</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>66</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>123.83333333333333</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>454</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>453</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>87.333333333333329</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>441</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>138</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>71.666666666666671</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>75</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>384</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>386</v>
       </c>
@@ -6707,7 +6711,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>376</v>
       </c>
@@ -6746,7 +6750,7 @@
         <v>18.166666666666668</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>378</v>
       </c>
@@ -6785,7 +6789,7 @@
         <v>19.166666666666668</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>102</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -6830,7 +6834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>103</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -6872,7 +6876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>68</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>443</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>352</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>170</v>
       </c>
@@ -6986,7 +6990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>360</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>77</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>42</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>84.166666666666671</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>41</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>150.66666666666666</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>46</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>358</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>84.833333333333329</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>69</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>79</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>402</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>31.666666666666668</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>139</v>
       </c>
@@ -7436,7 +7440,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
         <v>115</v>
       </c>
@@ -7457,7 +7461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>374</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>17.166666666666668</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>67</v>
       </c>
@@ -7535,7 +7539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>159</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>80.666666666666671</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
         <v>123</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
         <v>368</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>13.166666666666666</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
         <v>113</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
         <v>114</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
         <v>166</v>
       </c>
@@ -7763,7 +7767,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
         <v>140</v>
       </c>
@@ -7787,7 +7791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
         <v>57</v>
       </c>
@@ -7814,7 +7818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
         <v>445</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
         <v>148</v>
       </c>
@@ -7868,7 +7872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
         <v>58</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
         <v>447</v>
       </c>
@@ -7922,7 +7926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>149</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>451</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>80</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>171</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>104</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>105</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>15.166666666666666</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
         <v>372</v>
       </c>
@@ -8165,7 +8169,7 @@
         <v>16.166666666666668</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
         <v>25</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
         <v>362</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>10.166666666666666</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
         <v>76</v>
       </c>
@@ -8252,7 +8256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
         <v>333</v>
       </c>
@@ -8291,7 +8295,7 @@
         <v>101.16666666666667</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" s="1" t="s">
         <v>334</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>98.666666666666671</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
         <v>48</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" s="1" t="s">
         <v>50</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -8399,7 +8403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193" s="1" t="s">
         <v>49</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
         <v>56</v>
       </c>
@@ -8450,7 +8454,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
         <v>8</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
         <v>55</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
         <v>52</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
         <v>53</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" s="1" t="s">
         <v>7</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
         <v>416</v>
       </c>
@@ -8636,7 +8640,7 @@
         <v>37.333333333333336</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
         <v>71</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
         <v>17</v>
       </c>
@@ -8684,7 +8688,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
         <v>141</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
         <v>31</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>79.666666666666671</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" s="1" t="s">
         <v>70</v>
       </c>
@@ -8786,7 +8790,7 @@
         <v>81.166666666666671</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
         <v>121</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
         <v>364</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>11.166666666666666</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
         <v>435</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>56.333333333333336</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
         <v>366</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>12.166666666666666</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
         <v>73</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
         <v>354</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
         <v>14</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
         <v>24</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
         <v>15</v>
       </c>
@@ -9062,7 +9066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
         <v>425</v>
       </c>
@@ -9101,7 +9105,7 @@
         <v>46.833333333333336</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
         <v>43</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
         <v>38</v>
       </c>
@@ -9146,7 +9150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
         <v>39</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" s="1" customFormat="1">
       <c r="A220" s="1" t="s">
         <v>127</v>
       </c>
@@ -9203,7 +9207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" s="1" customFormat="1">
       <c r="A221" s="1" t="s">
         <v>400</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>30.166666666666668</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
         <v>99</v>
       </c>
@@ -9273,7 +9277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
         <v>128</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
         <v>398</v>
       </c>
@@ -9336,7 +9340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
         <v>126</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
         <v>392</v>
       </c>
@@ -9399,7 +9403,7 @@
         <v>27.166666666666668</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
         <v>98</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
         <v>125</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
         <v>390</v>
       </c>
@@ -9489,7 +9493,7 @@
         <v>25.333333333333332</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
         <v>394</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
         <v>396</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
         <v>26</v>
       </c>
@@ -9594,7 +9598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
         <v>326</v>
       </c>
@@ -9618,7 +9622,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
         <v>325</v>
       </c>
@@ -9642,7 +9646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
         <v>327</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
         <v>328</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
         <v>492</v>
       </c>
@@ -9714,7 +9718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
         <v>493</v>
       </c>
@@ -9738,7 +9742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
         <v>163</v>
       </c>
@@ -9762,7 +9766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
         <v>74</v>
       </c>
@@ -9789,7 +9793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
         <v>142</v>
       </c>
@@ -9813,7 +9817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
         <v>431</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
         <v>106</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
         <v>143</v>
       </c>
@@ -9900,7 +9904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
         <v>356</v>
       </c>
@@ -9939,7 +9943,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" s="1" t="s">
         <v>33</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
         <v>81</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>78.333333333333329</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13">
       <c r="A248" s="1" t="s">
         <v>81</v>
       </c>
@@ -10056,7 +10060,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" s="1" t="s">
         <v>72</v>
       </c>
@@ -10095,7 +10099,7 @@
         <v>150.16666666666666</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" s="1" t="s">
         <v>122</v>
       </c>
@@ -10128,7 +10132,7 @@
         <v>134.75</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" s="1" t="s">
         <v>382</v>
       </c>
@@ -10167,7 +10171,7 @@
         <v>21.166666666666668</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" s="1" t="s">
         <v>449</v>
       </c>
@@ -10206,7 +10210,7 @@
         <v>139.66666666666666</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13">
       <c r="A253" s="1" t="s">
         <v>418</v>
       </c>
@@ -10245,7 +10249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13">
       <c r="A254" s="1" t="s">
         <v>420</v>
       </c>
@@ -10284,7 +10288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" s="1" t="s">
         <v>47</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13">
       <c r="A256" s="1" t="s">
         <v>156</v>
       </c>
@@ -10344,7 +10348,7 @@
         <v>144.5</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13">
       <c r="A257" s="1" t="s">
         <v>78</v>
       </c>
@@ -10365,7 +10369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13">
       <c r="A258" s="1" t="s">
         <v>129</v>
       </c>
@@ -10386,7 +10390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13">
       <c r="A259" s="1" t="s">
         <v>509</v>
       </c>
@@ -10416,7 +10420,7 @@
         <v>139.33333333333334</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13">
       <c r="A260" s="1" t="s">
         <v>510</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13">
       <c r="A261" s="1" t="s">
         <v>511</v>
       </c>
@@ -10494,7 +10498,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13">
       <c r="A262" s="1" t="s">
         <v>515</v>
       </c>
@@ -10521,7 +10525,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13">
       <c r="A263" s="1" t="s">
         <v>517</v>
       </c>
@@ -10560,7 +10564,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13">
       <c r="A264" s="1" t="s">
         <v>518</v>
       </c>
@@ -10599,7 +10603,7 @@
         <v>140.16666666666666</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13">
       <c r="A265" s="1" t="s">
         <v>519</v>
       </c>
@@ -10638,7 +10642,7 @@
         <v>139.83333333333334</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13">
       <c r="A266" s="1" t="s">
         <v>520</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>138.16666666666666</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13">
       <c r="A267" s="1" t="s">
         <v>527</v>
       </c>
@@ -10698,7 +10702,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13">
       <c r="A268" s="1" t="s">
         <v>528</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13">
       <c r="A269" s="1" t="s">
         <v>529</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13">
       <c r="A270" s="1" t="s">
         <v>530</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>147.75</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13">
       <c r="A271" s="1" t="s">
         <v>531</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13">
       <c r="A272" s="1" t="s">
         <v>537</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13">
       <c r="A273" s="1" t="s">
         <v>538</v>
       </c>
@@ -10881,7 +10885,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13">
       <c r="A274" s="1" t="s">
         <v>539</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>150.33333333333334</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13">
       <c r="A275" s="1" t="s">
         <v>540</v>
       </c>
@@ -10959,7 +10963,7 @@
         <v>145.5</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13">
       <c r="A276" s="1" t="s">
         <v>541</v>
       </c>
@@ -10983,7 +10987,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13">
       <c r="A277" s="1" t="s">
         <v>542</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13">
       <c r="A278" s="1" t="s">
         <v>543</v>
       </c>
@@ -11061,7 +11065,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13">
       <c r="A279" s="1" t="s">
         <v>552</v>
       </c>
@@ -11100,7 +11104,7 @@
         <v>152.66666666666666</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13">
       <c r="A280" s="1" t="s">
         <v>553</v>
       </c>
@@ -11139,7 +11143,7 @@
         <v>148.66666666666666</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13">
       <c r="A281" s="1" t="s">
         <v>558</v>
       </c>
@@ -11178,7 +11182,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13">
       <c r="A282" s="1" t="s">
         <v>559</v>
       </c>
@@ -11214,7 +11218,7 @@
         <v>151.6</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13">
       <c r="A283" s="1" t="s">
         <v>562</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13">
       <c r="A284" s="1" t="s">
         <v>563</v>
       </c>
@@ -11271,7 +11275,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13">
       <c r="A285" s="1" t="s">
         <v>564</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13">
       <c r="A286" s="1" t="s">
         <v>565</v>
       </c>
@@ -11331,7 +11335,7 @@
         <v>153.83333333333334</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13">
       <c r="A287" s="1" t="s">
         <v>566</v>
       </c>
@@ -11358,7 +11362,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13">
       <c r="A288" s="1" t="s">
         <v>567</v>
       </c>
@@ -11394,7 +11398,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13">
       <c r="A289" s="1" t="s">
         <v>568</v>
       </c>
@@ -11433,7 +11437,7 @@
         <v>154.83333333333334</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13">
       <c r="A290" s="1" t="s">
         <v>573</v>
       </c>
@@ -11454,7 +11458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13">
       <c r="A291" s="1" t="s">
         <v>574</v>
       </c>
@@ -11490,7 +11494,7 @@
         <v>158.80000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13">
       <c r="A292" s="1" t="s">
         <v>577</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13">
       <c r="A293" s="1" t="s">
         <v>581</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>170.33333333333334</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13">
       <c r="A294" s="1" t="s">
         <v>582</v>
       </c>
@@ -11577,7 +11581,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13">
       <c r="A295" s="1" t="s">
         <v>583</v>
       </c>
@@ -11613,7 +11617,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13">
       <c r="A296" s="1" t="s">
         <v>593</v>
       </c>
@@ -11652,7 +11656,7 @@
         <v>160.66666666666666</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13">
       <c r="A297" s="1" t="s">
         <v>595</v>
       </c>
@@ -11691,7 +11695,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13">
       <c r="A298" s="1" t="s">
         <v>587</v>
       </c>
@@ -11726,11 +11730,11 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M308" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M309" si="7">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13">
       <c r="A299" s="1" t="s">
         <v>588</v>
       </c>
@@ -11769,7 +11773,7 @@
         <v>163.33333333333334</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13">
       <c r="A300" s="1" t="s">
         <v>589</v>
       </c>
@@ -11787,7 +11791,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13">
       <c r="A301" s="1" t="s">
         <v>597</v>
       </c>
@@ -11817,7 +11821,7 @@
         <v>170.66666666666666</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13">
       <c r="A302" s="1" t="s">
         <v>599</v>
       </c>
@@ -11856,7 +11860,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13">
       <c r="A303" s="1" t="s">
         <v>600</v>
       </c>
@@ -11895,7 +11899,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13">
       <c r="A304" s="1" t="s">
         <v>601</v>
       </c>
@@ -11934,7 +11938,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13">
       <c r="A305" s="1" t="s">
         <v>602</v>
       </c>
@@ -11964,7 +11968,7 @@
         <v>178.33333333333334</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13">
       <c r="A306" s="1" t="s">
         <v>603</v>
       </c>
@@ -11997,7 +12001,7 @@
         <v>174.75</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13">
       <c r="A307" s="1" t="s">
         <v>604</v>
       </c>
@@ -12036,7 +12040,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13">
       <c r="A308" s="1" t="s">
         <v>611</v>
       </c>
@@ -12058,6 +12062,30 @@
       <c r="M308" s="12">
         <f t="shared" si="7"/>
         <v>179</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="A309" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C309" s="2">
+        <v>50</v>
+      </c>
+      <c r="D309" s="2">
+        <v>500</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L309" s="11">
+        <v>168</v>
+      </c>
+      <c r="M309" s="12">
+        <f t="shared" si="7"/>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -12107,19 +12135,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E84" sqref="A84:E84"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E85" sqref="A85:E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="69.14453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5390625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>167</v>
       </c>
@@ -12133,7 +12161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -12150,7 +12178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -12167,7 +12195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>343</v>
       </c>
@@ -12184,7 +12212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -12201,7 +12229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -12218,7 +12246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -12235,7 +12263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>343</v>
       </c>
@@ -12252,7 +12280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -12269,7 +12297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>453</v>
       </c>
@@ -12286,7 +12314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>457</v>
       </c>
@@ -12303,7 +12331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>459</v>
       </c>
@@ -12320,7 +12348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>460</v>
       </c>
@@ -12337,7 +12365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>461</v>
       </c>
@@ -12354,7 +12382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -12371,7 +12399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -12388,7 +12416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>474</v>
       </c>
@@ -12405,7 +12433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>476</v>
       </c>
@@ -12422,7 +12450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>477</v>
       </c>
@@ -12439,7 +12467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>478</v>
       </c>
@@ -12456,7 +12484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>482</v>
       </c>
@@ -12473,7 +12501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>483</v>
       </c>
@@ -12490,7 +12518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="15" t="s">
         <v>486</v>
       </c>
@@ -12507,7 +12535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="15" t="s">
         <v>487</v>
       </c>
@@ -12524,7 +12552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="15" t="s">
         <v>490</v>
       </c>
@@ -12541,7 +12569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="15" t="s">
         <v>492</v>
       </c>
@@ -12558,7 +12586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="15" t="s">
         <v>493</v>
       </c>
@@ -12575,7 +12603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="15" t="s">
         <v>496</v>
       </c>
@@ -12592,7 +12620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="15" t="s">
         <v>498</v>
       </c>
@@ -12609,7 +12637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="15" t="s">
         <v>499</v>
       </c>
@@ -12626,7 +12654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="15" t="s">
         <v>500</v>
       </c>
@@ -12643,7 +12671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="15" t="s">
         <v>504</v>
       </c>
@@ -12660,7 +12688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="16" t="s">
         <v>507</v>
       </c>
@@ -12677,7 +12705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="15" t="s">
         <v>509</v>
       </c>
@@ -12694,7 +12722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="15" t="s">
         <v>510</v>
       </c>
@@ -12711,7 +12739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="15" t="s">
         <v>511</v>
       </c>
@@ -12728,7 +12756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="15" t="s">
         <v>515</v>
       </c>
@@ -12745,7 +12773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="15" t="s">
         <v>517</v>
       </c>
@@ -12762,7 +12790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="15" t="s">
         <v>518</v>
       </c>
@@ -12779,7 +12807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="15" t="s">
         <v>519</v>
       </c>
@@ -12796,7 +12824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="15" t="s">
         <v>520</v>
       </c>
@@ -12813,7 +12841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="15" t="s">
         <v>527</v>
       </c>
@@ -12830,7 +12858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="15" t="s">
         <v>528</v>
       </c>
@@ -12847,7 +12875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="15" t="s">
         <v>529</v>
       </c>
@@ -12864,7 +12892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="15" t="s">
         <v>530</v>
       </c>
@@ -12881,7 +12909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="15" t="s">
         <v>531</v>
       </c>
@@ -12898,7 +12926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="15" t="s">
         <v>536</v>
       </c>
@@ -12915,7 +12943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="15" t="s">
         <v>537</v>
       </c>
@@ -12932,7 +12960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="28.8">
       <c r="A49" s="15" t="s">
         <v>538</v>
       </c>
@@ -12949,7 +12977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="28.8">
       <c r="A50" s="15" t="s">
         <v>539</v>
       </c>
@@ -12966,7 +12994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="15" t="s">
         <v>540</v>
       </c>
@@ -12983,7 +13011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="15" t="s">
         <v>541</v>
       </c>
@@ -13000,7 +13028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="15" t="s">
         <v>542</v>
       </c>
@@ -13017,7 +13045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="15" t="s">
         <v>543</v>
       </c>
@@ -13034,7 +13062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="28.8">
       <c r="A55" s="15" t="s">
         <v>552</v>
       </c>
@@ -13051,7 +13079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="15" t="s">
         <v>553</v>
       </c>
@@ -13068,7 +13096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="15" t="s">
         <v>558</v>
       </c>
@@ -13085,7 +13113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="15" t="s">
         <v>559</v>
       </c>
@@ -13102,7 +13130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="15" t="s">
         <v>562</v>
       </c>
@@ -13119,7 +13147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="15" t="s">
         <v>563</v>
       </c>
@@ -13136,7 +13164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="15" t="s">
         <v>564</v>
       </c>
@@ -13153,7 +13181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="15" t="s">
         <v>565</v>
       </c>
@@ -13170,7 +13198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="15" t="s">
         <v>566</v>
       </c>
@@ -13187,7 +13215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="15" t="s">
         <v>567</v>
       </c>
@@ -13204,7 +13232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="15" t="s">
         <v>568</v>
       </c>
@@ -13221,7 +13249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="15" t="s">
         <v>573</v>
       </c>
@@ -13238,7 +13266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="15" t="s">
         <v>574</v>
       </c>
@@ -13255,7 +13283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="15" t="s">
         <v>577</v>
       </c>
@@ -13272,7 +13300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="28.8">
       <c r="A69" s="15" t="s">
         <v>581</v>
       </c>
@@ -13289,7 +13317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="15" t="s">
         <v>582</v>
       </c>
@@ -13306,7 +13334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="15" t="s">
         <v>583</v>
       </c>
@@ -13323,7 +13351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="15" t="s">
         <v>587</v>
       </c>
@@ -13340,7 +13368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="15" t="s">
         <v>588</v>
       </c>
@@ -13357,7 +13385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="15" t="s">
         <v>589</v>
       </c>
@@ -13374,7 +13402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="15" t="s">
         <v>593</v>
       </c>
@@ -13391,7 +13419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="15" t="s">
         <v>595</v>
       </c>
@@ -13408,7 +13436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="15" t="s">
         <v>597</v>
       </c>
@@ -13425,7 +13453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="15" t="s">
         <v>599</v>
       </c>
@@ -13442,7 +13470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="15" t="s">
         <v>600</v>
       </c>
@@ -13459,7 +13487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="15" t="s">
         <v>601</v>
       </c>
@@ -13476,7 +13504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="15" t="s">
         <v>602</v>
       </c>
@@ -13493,7 +13521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="15" t="s">
         <v>603</v>
       </c>
@@ -13510,7 +13538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="15" t="s">
         <v>604</v>
       </c>
@@ -13527,7 +13555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="15" t="s">
         <v>611</v>
       </c>
@@ -13541,6 +13569,23 @@
         <v>500</v>
       </c>
       <c r="E84" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.8">
+      <c r="A85" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B85" t="s">
+        <v>613</v>
+      </c>
+      <c r="C85" s="14">
+        <v>50</v>
+      </c>
+      <c r="D85" s="14">
+        <v>500</v>
+      </c>
+      <c r="E85" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13610,8 +13655,9 @@
     <hyperlink ref="A82" r:id="rId60" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex-sp" xr:uid="{5BC77F50-2FDF-4A25-944A-42AF27587859}"/>
     <hyperlink ref="A83" r:id="rId61" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex" xr:uid="{E10A5974-834F-4253-A38B-BACB87D98F52}"/>
     <hyperlink ref="A84" r:id="rId62" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-canon-cc" xr:uid="{23A81631-959C-4C60-9453-C46B02670C97}"/>
+    <hyperlink ref="A85" r:id="rId63" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok-kakusei-ex-impossible" xr:uid="{6189E2CD-57B9-4144-AB93-A99A335F11DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="6_{409D054C-D11B-43C0-A456-4C7C2FFC4F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FCDDFFC-B57F-4024-855C-52E84C10B971}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A49DDA57-836C-40BC-8F66-84E46112B0E5}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="625">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1891,7 +1891,37 @@
     <t>ファントム オブ アルケミスト2 [地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 17/06/2020</t>
+    <t>【地獄級】コンティニュー不可 【地獄級】Wedding Knifeに祝福を</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】Wedding Knifeに祝福を</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】Wedding Knifeに祝福を</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト ～淘汰の彼方に～ クエスト2</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト ～淘汰の彼方に～ クエスト1</t>
+  </si>
+  <si>
+    <t>【地獄級】 華麗なる双剣を振るう者</t>
+  </si>
+  <si>
+    <t>Wedding Knifeに祝福を [地獄級]</t>
+  </si>
+  <si>
+    <t>Wedding Knifeに祝福を [EX極]</t>
+  </si>
+  <si>
+    <t>Wedding Knifeに祝福を</t>
+  </si>
+  <si>
+    <t>華麗なる双剣を振るう者 [地獄級]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 25/06/2020</t>
   </si>
 </sst>
 </file>
@@ -2410,12 +2440,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M309"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
+      <selection pane="bottomLeft" activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2439,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2452,27 +2482,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 188</v>
+        <v>火 193</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 187</v>
+        <v>水 193</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 162</v>
+        <v>風 167</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 165</v>
+        <v>雷 170</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 183</v>
+        <v>光 188</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 168</v>
+        <v>暗 173</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -11730,7 +11760,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M309" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M315" si="7">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12086,6 +12116,225 @@
       <c r="M309" s="12">
         <f t="shared" si="7"/>
         <v>168</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B310" t="s">
+        <v>617</v>
+      </c>
+      <c r="C310" s="2">
+        <v>50</v>
+      </c>
+      <c r="D310" s="2">
+        <v>500</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G310" s="6">
+        <v>193</v>
+      </c>
+      <c r="H310" s="7">
+        <v>193</v>
+      </c>
+      <c r="I310" s="8">
+        <v>167</v>
+      </c>
+      <c r="J310" s="9">
+        <v>170</v>
+      </c>
+      <c r="K310" s="10">
+        <v>188</v>
+      </c>
+      <c r="L310" s="11">
+        <v>173</v>
+      </c>
+      <c r="M310" s="12">
+        <f t="shared" si="7"/>
+        <v>180.66666666666666</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="A311" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B311" t="s">
+        <v>618</v>
+      </c>
+      <c r="C311" s="2">
+        <v>50</v>
+      </c>
+      <c r="D311" s="2">
+        <v>500</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G311" s="6">
+        <v>192</v>
+      </c>
+      <c r="H311" s="7">
+        <v>191</v>
+      </c>
+      <c r="I311" s="8">
+        <v>169</v>
+      </c>
+      <c r="J311" s="9">
+        <v>169</v>
+      </c>
+      <c r="K311" s="10">
+        <v>187</v>
+      </c>
+      <c r="L311" s="11">
+        <v>172</v>
+      </c>
+      <c r="M311" s="12">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="A312" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B312" t="s">
+        <v>620</v>
+      </c>
+      <c r="C312" s="2">
+        <v>50</v>
+      </c>
+      <c r="D312" s="2">
+        <v>500</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G312" s="6">
+        <v>1991</v>
+      </c>
+      <c r="H312" s="7">
+        <v>190</v>
+      </c>
+      <c r="I312" s="8">
+        <v>168</v>
+      </c>
+      <c r="J312" s="9">
+        <v>168</v>
+      </c>
+      <c r="K312" s="10">
+        <v>186</v>
+      </c>
+      <c r="L312" s="11">
+        <v>171</v>
+      </c>
+      <c r="M312" s="12">
+        <f t="shared" si="7"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B313" t="s">
+        <v>621</v>
+      </c>
+      <c r="C313" s="2">
+        <v>50</v>
+      </c>
+      <c r="D313" s="2">
+        <v>500</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G313" s="6">
+        <v>190</v>
+      </c>
+      <c r="H313" s="7">
+        <v>189</v>
+      </c>
+      <c r="I313" s="8">
+        <v>167</v>
+      </c>
+      <c r="J313" s="9">
+        <v>167</v>
+      </c>
+      <c r="K313" s="10">
+        <v>185</v>
+      </c>
+      <c r="L313" s="11">
+        <v>170</v>
+      </c>
+      <c r="M313" s="12">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="A314" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B314" t="s">
+        <v>622</v>
+      </c>
+      <c r="C314" s="2">
+        <v>40</v>
+      </c>
+      <c r="D314" s="2">
+        <v>400</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G314" s="6">
+        <v>189</v>
+      </c>
+      <c r="H314" s="7">
+        <v>188</v>
+      </c>
+      <c r="I314" s="8">
+        <v>166</v>
+      </c>
+      <c r="J314" s="9">
+        <v>166</v>
+      </c>
+      <c r="K314" s="10">
+        <v>184</v>
+      </c>
+      <c r="L314" s="11">
+        <v>169</v>
+      </c>
+      <c r="M314" s="12">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
+      <c r="A315" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B315" t="s">
+        <v>623</v>
+      </c>
+      <c r="C315" s="2">
+        <v>50</v>
+      </c>
+      <c r="D315" s="2">
+        <v>500</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H315" s="7">
+        <v>192</v>
+      </c>
+      <c r="M315" s="12">
+        <f t="shared" si="7"/>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -12135,10 +12384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E85" sqref="A85:E85"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B91" sqref="B86:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13586,6 +13835,108 @@
         <v>500</v>
       </c>
       <c r="E85" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B86" t="s">
+        <v>617</v>
+      </c>
+      <c r="C86" s="14">
+        <v>50</v>
+      </c>
+      <c r="D86" s="14">
+        <v>500</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B87" t="s">
+        <v>618</v>
+      </c>
+      <c r="C87" s="14">
+        <v>50</v>
+      </c>
+      <c r="D87" s="14">
+        <v>500</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B88" t="s">
+        <v>620</v>
+      </c>
+      <c r="C88" s="14">
+        <v>50</v>
+      </c>
+      <c r="D88" s="14">
+        <v>500</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B89" t="s">
+        <v>621</v>
+      </c>
+      <c r="C89" s="14">
+        <v>50</v>
+      </c>
+      <c r="D89" s="14">
+        <v>500</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="B90" t="s">
+        <v>622</v>
+      </c>
+      <c r="C90" s="14">
+        <v>40</v>
+      </c>
+      <c r="D90" s="14">
+        <v>400</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B91" t="s">
+        <v>623</v>
+      </c>
+      <c r="C91" s="14">
+        <v>50</v>
+      </c>
+      <c r="D91" s="14">
+        <v>500</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13656,8 +14007,14 @@
     <hyperlink ref="A83" r:id="rId61" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-glanz-cc-ex" xr:uid="{E10A5974-834F-4253-A38B-BACB87D98F52}"/>
     <hyperlink ref="A84" r:id="rId62" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-canon-cc" xr:uid="{23A81631-959C-4C60-9453-C46B02670C97}"/>
     <hyperlink ref="A85" r:id="rId63" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok-kakusei-ex-impossible" xr:uid="{6189E2CD-57B9-4144-AB93-A99A335F11DF}"/>
+    <hyperlink ref="A86" r:id="rId64" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok-sozai-01" xr:uid="{FD7633DF-5EB3-4267-98C7-2DB9F5C50403}"/>
+    <hyperlink ref="A87" r:id="rId65" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok-sozai-02" xr:uid="{F179FC51-78AF-4BC4-BA14-B7CBA5CBBCF7}"/>
+    <hyperlink ref="A88" r:id="rId66" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-wedding-2020-ex-sp2" xr:uid="{5A6A779C-D55F-4C56-B36A-0C1636F194E6}"/>
+    <hyperlink ref="A89" r:id="rId67" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-wedding-2020-ex-sp" xr:uid="{CE03EDCC-9488-4929-8D97-526B680467D4}"/>
+    <hyperlink ref="A90" r:id="rId68" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-wedding-2020-ex" xr:uid="{94D581FD-CCBA-4173-BCBF-8C963AEDF93C}"/>
+    <hyperlink ref="A91" r:id="rId69" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yaulas-cc" xr:uid="{5AF8A903-C539-4FD9-9632-235BF5349941}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A49DDA57-836C-40BC-8F66-84E46112B0E5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D23D87EB-8CD3-4698-B887-C339C0B3E1EE}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="631">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1921,7 +1921,25 @@
     <t>華麗なる双剣を振るう者 [地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 25/06/2020</t>
+    <t>【地獄級】コンティニュー不可 【地獄級】渚のトラブルシューティング</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】渚のトラブルシューティング</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】渚のトラブルシューティング</t>
+  </si>
+  <si>
+    <t>渚のトラブルシューティング [地獄級]</t>
+  </si>
+  <si>
+    <t>渚のトラブルシューティング [EX極]</t>
+  </si>
+  <si>
+    <t>渚のトラブルシューティング [EX]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 19/07/2020</t>
   </si>
 </sst>
 </file>
@@ -2440,12 +2458,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M315"/>
+  <dimension ref="A1:M318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B319" sqref="B319"/>
+      <selection pane="bottomLeft" activeCell="A319" sqref="A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2469,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -11760,7 +11778,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M315" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M318" si="7">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12335,6 +12353,69 @@
       <c r="M315" s="12">
         <f t="shared" si="7"/>
         <v>192</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
+      <c r="A316" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C316" s="2">
+        <v>50</v>
+      </c>
+      <c r="D316" s="2">
+        <v>500</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M316" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
+      <c r="A317" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C317" s="2">
+        <v>50</v>
+      </c>
+      <c r="D317" s="2">
+        <v>500</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M317" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
+      <c r="A318" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C318" s="2">
+        <v>40</v>
+      </c>
+      <c r="D318" s="2">
+        <v>400</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M318" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -12384,10 +12465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B91" sqref="B86:B91"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E94" sqref="A92:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13937,6 +14018,57 @@
         <v>500</v>
       </c>
       <c r="E91" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B92" t="s">
+        <v>627</v>
+      </c>
+      <c r="C92" s="14">
+        <v>50</v>
+      </c>
+      <c r="D92" s="14">
+        <v>500</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="B93" t="s">
+        <v>628</v>
+      </c>
+      <c r="C93" s="14">
+        <v>50</v>
+      </c>
+      <c r="D93" s="14">
+        <v>500</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="B94" t="s">
+        <v>629</v>
+      </c>
+      <c r="C94" s="14">
+        <v>40</v>
+      </c>
+      <c r="D94" s="14">
+        <v>400</v>
+      </c>
+      <c r="E94" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14013,8 +14145,11 @@
     <hyperlink ref="A89" r:id="rId67" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-wedding-2020-ex-sp" xr:uid="{CE03EDCC-9488-4929-8D97-526B680467D4}"/>
     <hyperlink ref="A90" r:id="rId68" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-wedding-2020-ex" xr:uid="{94D581FD-CCBA-4173-BCBF-8C963AEDF93C}"/>
     <hyperlink ref="A91" r:id="rId69" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yaulas-cc" xr:uid="{5AF8A903-C539-4FD9-9632-235BF5349941}"/>
+    <hyperlink ref="A92" r:id="rId70" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex-sp2" xr:uid="{9018FAA6-1A0D-4F31-9542-2E48C66D340A}"/>
+    <hyperlink ref="A93" r:id="rId71" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex-sp" xr:uid="{6E8D1176-692D-4799-8060-C323E5253E8C}"/>
+    <hyperlink ref="A94" r:id="rId72" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex" xr:uid="{71D30391-9BD8-4576-B83F-D5FD9BDFD2E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D23D87EB-8CD3-4698-B887-C339C0B3E1EE}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F624E75-4F2F-446D-AD3C-9A40C9034631}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="633">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1939,7 +1939,13 @@
     <t>渚のトラブルシューティング [EX]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 19/07/2020</t>
+    <t>【地獄級】 蒼氷の叡智を持つ者</t>
+  </si>
+  <si>
+    <t>蒼氷の叡智を持つ者 [地獄級]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 24/07/2020</t>
   </si>
 </sst>
 </file>
@@ -2458,12 +2464,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:M319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A319" sqref="A319"/>
+      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2487,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2500,27 +2506,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 193</v>
+        <v>火 195</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 193</v>
+        <v>水 196</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 167</v>
+        <v>風 169</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 170</v>
+        <v>雷 172</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 188</v>
+        <v>光 190</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 173</v>
+        <v>暗 175</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -11778,7 +11784,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M318" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M319" si="7">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12392,9 +12398,27 @@
       <c r="E317" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M317" s="12" t="e">
+      <c r="G317" s="6">
+        <v>195</v>
+      </c>
+      <c r="H317" s="7">
+        <v>196</v>
+      </c>
+      <c r="I317" s="8">
+        <v>169</v>
+      </c>
+      <c r="J317" s="9">
+        <v>172</v>
+      </c>
+      <c r="K317" s="10">
+        <v>190</v>
+      </c>
+      <c r="L317" s="11">
+        <v>174</v>
+      </c>
+      <c r="M317" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>182.66666666666666</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -12413,9 +12437,51 @@
       <c r="E318" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M318" s="12" t="e">
+      <c r="G318" s="6">
+        <v>194</v>
+      </c>
+      <c r="H318" s="7">
+        <v>195</v>
+      </c>
+      <c r="I318" s="8">
+        <v>168</v>
+      </c>
+      <c r="J318" s="9">
+        <v>171</v>
+      </c>
+      <c r="K318" s="10">
+        <v>189</v>
+      </c>
+      <c r="L318" s="11">
+        <v>175</v>
+      </c>
+      <c r="M318" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
+      <c r="A319" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C319" s="2">
+        <v>50</v>
+      </c>
+      <c r="D319" s="2">
+        <v>500</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H319" s="7">
+        <v>194</v>
+      </c>
+      <c r="M319" s="12">
+        <f t="shared" si="7"/>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -12465,10 +12531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E94" sqref="A92:E94"/>
+      <selection activeCell="E95" sqref="A95:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14069,6 +14135,23 @@
         <v>400</v>
       </c>
       <c r="E94" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B95" t="s">
+        <v>631</v>
+      </c>
+      <c r="C95" s="14">
+        <v>50</v>
+      </c>
+      <c r="D95" s="14">
+        <v>500</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14148,8 +14231,9 @@
     <hyperlink ref="A92" r:id="rId70" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex-sp2" xr:uid="{9018FAA6-1A0D-4F31-9542-2E48C66D340A}"/>
     <hyperlink ref="A93" r:id="rId71" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex-sp" xr:uid="{6E8D1176-692D-4799-8060-C323E5253E8C}"/>
     <hyperlink ref="A94" r:id="rId72" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex" xr:uid="{71D30391-9BD8-4576-B83F-D5FD9BDFD2E8}"/>
+    <hyperlink ref="A95" r:id="rId73" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-othima-cc" xr:uid="{96028831-7E09-4DE1-9D20-1933F974FFF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F624E75-4F2F-446D-AD3C-9A40C9034631}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BCEB34E-16CC-4F74-9310-058F38BBEEC6}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,19 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="635">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1945,7 +1937,13 @@
     <t>蒼氷の叡智を持つ者 [地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 24/07/2020</t>
+    <t>ライナーの魂の欠片獲得 【EX5】紡ぐ彼方のメカニカル</t>
+  </si>
+  <si>
+    <t>紡ぐ彼方のメカニカル [EX5]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 09/08/2020</t>
   </si>
 </sst>
 </file>
@@ -2464,12 +2462,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M319"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
+      <selection pane="bottomLeft" activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2493,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2506,27 +2504,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 195</v>
+        <v>火 201</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 196</v>
+        <v>水 200</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 169</v>
+        <v>風 177</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 172</v>
+        <v>雷 179</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 190</v>
+        <v>光 197</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 175</v>
+        <v>暗 180</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -8428,9 +8426,24 @@
       <c r="G191" s="6">
         <v>70</v>
       </c>
+      <c r="H191" s="7">
+        <v>197</v>
+      </c>
+      <c r="I191" s="8">
+        <v>170</v>
+      </c>
+      <c r="J191" s="9">
+        <v>173</v>
+      </c>
+      <c r="K191" s="10">
+        <v>191</v>
+      </c>
+      <c r="L191" s="11">
+        <v>176</v>
+      </c>
       <c r="M191" s="12">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>162.83333333333334</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8452,9 +8465,24 @@
       <c r="G192" s="6">
         <v>71</v>
       </c>
+      <c r="H192" s="7">
+        <v>199</v>
+      </c>
+      <c r="I192" s="8">
+        <v>174</v>
+      </c>
+      <c r="J192" s="9">
+        <v>176</v>
+      </c>
+      <c r="K192" s="10">
+        <v>194</v>
+      </c>
+      <c r="L192" s="11">
+        <v>178</v>
+      </c>
       <c r="M192" s="12">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>165.33333333333334</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8497,15 +8525,27 @@
       <c r="E194" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G194" s="6">
+        <v>196</v>
+      </c>
+      <c r="H194" s="7">
+        <v>198</v>
+      </c>
+      <c r="I194" s="8">
+        <v>171</v>
+      </c>
       <c r="J194" s="9">
         <v>57</v>
       </c>
+      <c r="K194" s="10">
+        <v>192</v>
+      </c>
       <c r="L194" s="11">
         <v>56</v>
       </c>
       <c r="M194" s="12">
         <f t="shared" si="3"/>
-        <v>56.5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8524,12 +8564,27 @@
       <c r="E195" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G195" s="6">
+        <v>199</v>
+      </c>
+      <c r="H195" s="7">
+        <v>200</v>
+      </c>
+      <c r="I195" s="8">
+        <v>175</v>
+      </c>
+      <c r="J195" s="9">
+        <v>177</v>
+      </c>
+      <c r="K195" s="10">
+        <v>195</v>
+      </c>
       <c r="L195" s="11">
         <v>54</v>
       </c>
       <c r="M195" s="12">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>166.66666666666666</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8569,9 +8624,18 @@
       <c r="E197" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G197" s="6">
+        <v>197</v>
+      </c>
       <c r="H197" s="7">
         <v>60</v>
       </c>
+      <c r="I197" s="8">
+        <v>172</v>
+      </c>
+      <c r="J197" s="9">
+        <v>174</v>
+      </c>
       <c r="K197" s="10">
         <v>68</v>
       </c>
@@ -8580,7 +8644,7 @@
       </c>
       <c r="M197" s="12">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8599,12 +8663,27 @@
       <c r="E198" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G198" s="6">
+        <v>200</v>
+      </c>
       <c r="H198" s="7">
         <v>57</v>
       </c>
+      <c r="I198" s="8">
+        <v>176</v>
+      </c>
+      <c r="J198" s="9">
+        <v>178</v>
+      </c>
+      <c r="K198" s="10">
+        <v>196</v>
+      </c>
+      <c r="L198" s="11">
+        <v>179</v>
+      </c>
       <c r="M198" s="12">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>164.33333333333334</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8623,12 +8702,27 @@
       <c r="E199" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G199" s="6">
+        <v>198</v>
+      </c>
       <c r="H199" s="7">
         <v>59</v>
       </c>
+      <c r="I199" s="8">
+        <v>173</v>
+      </c>
+      <c r="J199" s="9">
+        <v>175</v>
+      </c>
+      <c r="K199" s="10">
+        <v>193</v>
+      </c>
+      <c r="L199" s="11">
+        <v>177</v>
+      </c>
       <c r="M199" s="12">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8647,12 +8741,27 @@
       <c r="E200" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G200" s="6">
+        <v>201</v>
+      </c>
       <c r="H200" s="7">
         <v>58</v>
       </c>
+      <c r="I200" s="8">
+        <v>177</v>
+      </c>
+      <c r="J200" s="9">
+        <v>179</v>
+      </c>
+      <c r="K200" s="10">
+        <v>197</v>
+      </c>
+      <c r="L200" s="11">
+        <v>180</v>
+      </c>
       <c r="M200" s="12">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>165.33333333333334</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -11784,7 +11893,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M319" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M320" si="7">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12482,6 +12591,27 @@
       <c r="M319" s="12">
         <f t="shared" si="7"/>
         <v>194</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
+      <c r="A320" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C320" s="2">
+        <v>40</v>
+      </c>
+      <c r="D320" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M320" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -12531,10 +12661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E95" sqref="A95:E95"/>
+      <selection activeCell="E96" sqref="A96:E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14152,6 +14282,23 @@
         <v>500</v>
       </c>
       <c r="E95" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="B96" t="s">
+        <v>633</v>
+      </c>
+      <c r="C96" s="14">
+        <v>40</v>
+      </c>
+      <c r="D96" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E96" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14232,8 +14379,9 @@
     <hyperlink ref="A93" r:id="rId71" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex-sp" xr:uid="{6E8D1176-692D-4799-8060-C323E5253E8C}"/>
     <hyperlink ref="A94" r:id="rId72" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex" xr:uid="{71D30391-9BD8-4576-B83F-D5FD9BDFD2E8}"/>
     <hyperlink ref="A95" r:id="rId73" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-othima-cc" xr:uid="{96028831-7E09-4DE1-9D20-1933F974FFF6}"/>
+    <hyperlink ref="A96" r:id="rId74" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-aot-ex5" xr:uid="{EC25EB4C-2693-4254-B1C8-3E70056DC79D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BCEB34E-16CC-4F74-9310-058F38BBEEC6}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66F261D2-FBFB-4620-A837-3F6F7322CEA2}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="643">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1943,7 +1943,31 @@
     <t>紡ぐ彼方のメカニカル [EX5]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 09/08/2020</t>
+    <t>【地獄級】コンティニュー不可 【地獄級】紡ぐ彼方のメカニカル</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】繋ぐ明日へのメカニカル</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】繋ぐ明日へのメカニカル</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】繋ぐ明日へのメカニカル</t>
+  </si>
+  <si>
+    <t>紡ぐ彼方のメカニカル [地獄級]</t>
+  </si>
+  <si>
+    <t>繋ぐ明日へのメカニカル [地獄級]</t>
+  </si>
+  <si>
+    <t>繋ぐ明日へのメカニカル [EX極]</t>
+  </si>
+  <si>
+    <t>繋ぐ明日へのメカニカル [EX]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 15/08/2020</t>
   </si>
 </sst>
 </file>
@@ -2462,12 +2486,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M320"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G201" sqref="G201"/>
+      <selection pane="bottomLeft" activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2491,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2504,27 +2528,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 201</v>
+        <v>火 206</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 200</v>
+        <v>水 204</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 177</v>
+        <v>風 182</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 179</v>
+        <v>雷 184</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 197</v>
+        <v>光 202</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 180</v>
+        <v>暗 185</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -8501,12 +8525,27 @@
       <c r="E193" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G193" s="6">
+        <v>204</v>
+      </c>
       <c r="H193" s="7">
         <v>61</v>
       </c>
+      <c r="I193" s="8">
+        <v>180</v>
+      </c>
+      <c r="J193" s="9">
+        <v>182</v>
+      </c>
+      <c r="K193" s="10">
+        <v>200</v>
+      </c>
+      <c r="L193" s="11">
+        <v>183</v>
+      </c>
       <c r="M193" s="12">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>168.33333333333334</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8603,9 +8642,27 @@
       <c r="E196" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M196" s="12" t="e">
+      <c r="G196" s="6">
+        <v>206</v>
+      </c>
+      <c r="H196" s="7">
+        <v>204</v>
+      </c>
+      <c r="I196" s="8">
+        <v>182</v>
+      </c>
+      <c r="J196" s="9">
+        <v>184</v>
+      </c>
+      <c r="K196" s="10">
+        <v>202</v>
+      </c>
+      <c r="L196" s="11">
+        <v>185</v>
+      </c>
+      <c r="M196" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>193.83333333333334</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -11893,7 +11950,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M320" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M324" si="7">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12609,9 +12666,147 @@
       <c r="E320" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M320" s="12" t="e">
+      <c r="G320" s="6">
+        <v>205</v>
+      </c>
+      <c r="H320" s="7">
+        <v>203</v>
+      </c>
+      <c r="I320" s="8">
+        <v>181</v>
+      </c>
+      <c r="J320" s="9">
+        <v>183</v>
+      </c>
+      <c r="K320" s="10">
+        <v>201</v>
+      </c>
+      <c r="L320" s="11">
+        <v>184</v>
+      </c>
+      <c r="M320" s="12">
+        <f t="shared" si="7"/>
+        <v>192.83333333333334</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
+      <c r="A321" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C321" s="2">
+        <v>50</v>
+      </c>
+      <c r="D321" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M321" s="12" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
+      <c r="A322" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C322" s="2">
+        <v>50</v>
+      </c>
+      <c r="D322" s="2">
+        <v>500</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M322" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
+      <c r="A323" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C323" s="2">
+        <v>50</v>
+      </c>
+      <c r="D323" s="2">
+        <v>500</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G323" s="6">
+        <v>203</v>
+      </c>
+      <c r="H323" s="7">
+        <v>202</v>
+      </c>
+      <c r="I323" s="8">
+        <v>179</v>
+      </c>
+      <c r="J323" s="9">
+        <v>181</v>
+      </c>
+      <c r="K323" s="10">
+        <v>199</v>
+      </c>
+      <c r="L323" s="11">
+        <v>182</v>
+      </c>
+      <c r="M323" s="12">
+        <f t="shared" si="7"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
+      <c r="A324" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C324" s="2">
+        <v>40</v>
+      </c>
+      <c r="D324" s="2">
+        <v>400</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G324" s="6">
+        <v>202</v>
+      </c>
+      <c r="H324" s="7">
+        <v>201</v>
+      </c>
+      <c r="I324" s="8">
+        <v>178</v>
+      </c>
+      <c r="J324" s="9">
+        <v>180</v>
+      </c>
+      <c r="K324" s="10">
+        <v>198</v>
+      </c>
+      <c r="L324" s="11">
+        <v>181</v>
+      </c>
+      <c r="M324" s="12">
+        <f t="shared" si="7"/>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -12661,10 +12856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E96" sqref="A96:E96"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14299,6 +14494,74 @@
         <v>11000</v>
       </c>
       <c r="E96" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B97" t="s">
+        <v>638</v>
+      </c>
+      <c r="C97" s="14">
+        <v>50</v>
+      </c>
+      <c r="D97" s="14">
+        <v>14000</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="B98" t="s">
+        <v>639</v>
+      </c>
+      <c r="C98" s="14">
+        <v>50</v>
+      </c>
+      <c r="D98" s="14">
+        <v>500</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B99" t="s">
+        <v>640</v>
+      </c>
+      <c r="C99" s="14">
+        <v>50</v>
+      </c>
+      <c r="D99" s="14">
+        <v>500</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="B100" t="s">
+        <v>641</v>
+      </c>
+      <c r="C100" s="14">
+        <v>40</v>
+      </c>
+      <c r="D100" s="14">
+        <v>400</v>
+      </c>
+      <c r="E100" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14380,8 +14643,12 @@
     <hyperlink ref="A94" r:id="rId72" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-swim2020-ex" xr:uid="{71D30391-9BD8-4576-B83F-D5FD9BDFD2E8}"/>
     <hyperlink ref="A95" r:id="rId73" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-othima-cc" xr:uid="{96028831-7E09-4DE1-9D20-1933F974FFF6}"/>
     <hyperlink ref="A96" r:id="rId74" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-aot-ex5" xr:uid="{EC25EB4C-2693-4254-B1C8-3E70056DC79D}"/>
+    <hyperlink ref="A97" r:id="rId75" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-aot-ex-sp2" xr:uid="{33F6EFF1-BB00-4E8E-8501-CE7FBBE16C83}"/>
+    <hyperlink ref="A98" r:id="rId76" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex-sp2" xr:uid="{EE75FF70-9D9C-4B87-8415-A11D59741166}"/>
+    <hyperlink ref="A99" r:id="rId77" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex-sp" xr:uid="{9AE3A7E7-CEDC-4F2D-B2FE-6897EDF0171F}"/>
+    <hyperlink ref="A100" r:id="rId78" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex" xr:uid="{5628E367-93FF-4C74-871E-52D784A40FCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66F261D2-FBFB-4620-A837-3F6F7322CEA2}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72D20705-ADE1-497E-B874-B00CF7D3B154}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2491,7 +2491,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A325" sqref="A325"/>
+      <selection pane="bottomLeft" activeCell="K321" sqref="K321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 202</v>
+        <v>光 203</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
@@ -12726,9 +12726,12 @@
       <c r="E322" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M322" s="12" t="e">
+      <c r="K322" s="10">
+        <v>203</v>
+      </c>
+      <c r="M322" s="12">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>203</v>
       </c>
     </row>
     <row r="323" spans="1:13">

--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="14_{0D20F370-E462-4825-8ED6-16C262D8BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72D20705-ADE1-497E-B874-B00CF7D3B154}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="645">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1967,7 +1968,13 @@
     <t>繋ぐ明日へのメカニカル [EX]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 15/08/2020</t>
+    <t>【地獄級】 豪放の戦雷を纏う者</t>
+  </si>
+  <si>
+    <t>豪放の戦雷を纏う者 [地獄級]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 23/08/2020</t>
   </si>
 </sst>
 </file>
@@ -2486,12 +2493,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K321" sqref="K321"/>
+      <selection pane="bottomLeft" activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2515,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2528,27 +2535,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 206</v>
+        <v>火 208</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 204</v>
+        <v>水 205</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 182</v>
+        <v>風 183</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 184</v>
+        <v>雷 185</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 203</v>
+        <v>光 204</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 185</v>
+        <v>暗 186</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -11710,7 +11717,7 @@
         <v>164</v>
       </c>
       <c r="M291" s="12">
-        <f t="shared" ref="M291" si="5">AVERAGE(G291:L291)</f>
+        <f>AVERAGE(G291:L291)</f>
         <v>158.80000000000001</v>
       </c>
     </row>
@@ -11731,7 +11738,7 @@
         <v>4</v>
       </c>
       <c r="M292" s="12" t="e">
-        <f t="shared" ref="M292:M297" si="6">AVERAGE(G292:L292)</f>
+        <f t="shared" ref="M292:M297" si="5">AVERAGE(G292:L292)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11761,7 +11768,7 @@
         <v>168</v>
       </c>
       <c r="M293" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>170.33333333333334</v>
       </c>
     </row>
@@ -11797,7 +11804,7 @@
         <v>166</v>
       </c>
       <c r="M294" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>161</v>
       </c>
     </row>
@@ -11833,7 +11840,7 @@
         <v>165</v>
       </c>
       <c r="M295" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
     </row>
@@ -11872,7 +11879,7 @@
         <v>152</v>
       </c>
       <c r="M296" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>160.66666666666666</v>
       </c>
     </row>
@@ -11911,7 +11918,7 @@
         <v>153</v>
       </c>
       <c r="M297" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
     </row>
@@ -11950,7 +11957,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M324" si="7">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M325" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -11989,7 +11996,7 @@
         <v>155</v>
       </c>
       <c r="M299" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>163.33333333333334</v>
       </c>
     </row>
@@ -12007,7 +12014,7 @@
         <v>154</v>
       </c>
       <c r="M300" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
     </row>
@@ -12037,7 +12044,7 @@
         <v>159</v>
       </c>
       <c r="M301" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>170.66666666666666</v>
       </c>
     </row>
@@ -12076,7 +12083,7 @@
         <v>165</v>
       </c>
       <c r="M302" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>174.5</v>
       </c>
     </row>
@@ -12115,7 +12122,7 @@
         <v>164</v>
       </c>
       <c r="M303" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>173.5</v>
       </c>
     </row>
@@ -12154,7 +12161,7 @@
         <v>162</v>
       </c>
       <c r="M304" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
     </row>
@@ -12184,7 +12191,7 @@
         <v>167</v>
       </c>
       <c r="M305" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>178.33333333333334</v>
       </c>
     </row>
@@ -12217,7 +12224,7 @@
         <v>166</v>
       </c>
       <c r="M306" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>174.75</v>
       </c>
     </row>
@@ -12256,7 +12263,7 @@
         <v>163</v>
       </c>
       <c r="M307" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
     </row>
@@ -12280,7 +12287,7 @@
         <v>179</v>
       </c>
       <c r="M308" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
     </row>
@@ -12304,7 +12311,7 @@
         <v>168</v>
       </c>
       <c r="M309" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
     </row>
@@ -12343,7 +12350,7 @@
         <v>173</v>
       </c>
       <c r="M310" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>180.66666666666666</v>
       </c>
     </row>
@@ -12382,7 +12389,7 @@
         <v>172</v>
       </c>
       <c r="M311" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
     </row>
@@ -12421,7 +12428,7 @@
         <v>171</v>
       </c>
       <c r="M312" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>479</v>
       </c>
     </row>
@@ -12460,7 +12467,7 @@
         <v>170</v>
       </c>
       <c r="M313" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
     </row>
@@ -12499,7 +12506,7 @@
         <v>169</v>
       </c>
       <c r="M314" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
     </row>
@@ -12523,7 +12530,7 @@
         <v>192</v>
       </c>
       <c r="M315" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
     </row>
@@ -12544,7 +12551,7 @@
         <v>4</v>
       </c>
       <c r="M316" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12583,7 +12590,7 @@
         <v>174</v>
       </c>
       <c r="M317" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>182.66666666666666</v>
       </c>
     </row>
@@ -12622,7 +12629,7 @@
         <v>175</v>
       </c>
       <c r="M318" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
     </row>
@@ -12646,7 +12653,7 @@
         <v>194</v>
       </c>
       <c r="M319" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
     </row>
@@ -12685,7 +12692,7 @@
         <v>184</v>
       </c>
       <c r="M320" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>192.83333333333334</v>
       </c>
     </row>
@@ -12705,9 +12712,15 @@
       <c r="E321" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M321" s="12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="G321" s="6">
+        <v>207</v>
+      </c>
+      <c r="K321" s="10">
+        <v>204</v>
+      </c>
+      <c r="M321" s="12">
+        <f t="shared" si="6"/>
+        <v>205.5</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -12726,12 +12739,24 @@
       <c r="E322" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G322" s="6">
+        <v>208</v>
+      </c>
+      <c r="H322" s="7">
+        <v>205</v>
+      </c>
+      <c r="I322" s="8">
+        <v>183</v>
+      </c>
       <c r="K322" s="10">
         <v>203</v>
       </c>
+      <c r="L322" s="11">
+        <v>186</v>
+      </c>
       <c r="M322" s="12">
-        <f t="shared" si="7"/>
-        <v>203</v>
+        <f t="shared" si="6"/>
+        <v>197</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -12769,7 +12794,7 @@
         <v>182</v>
       </c>
       <c r="M323" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
     </row>
@@ -12808,8 +12833,32 @@
         <v>181</v>
       </c>
       <c r="M324" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>190</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
+      <c r="A325" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C325" s="2">
+        <v>50</v>
+      </c>
+      <c r="D325" s="2">
+        <v>500</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J325" s="9">
+        <v>185</v>
+      </c>
+      <c r="M325" s="12">
+        <f t="shared" si="6"/>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -12859,10 +12908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="E101" sqref="A101:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14565,6 +14614,23 @@
         <v>400</v>
       </c>
       <c r="E100" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="B101" t="s">
+        <v>643</v>
+      </c>
+      <c r="C101" s="14">
+        <v>50</v>
+      </c>
+      <c r="D101" s="14">
+        <v>500</v>
+      </c>
+      <c r="E101" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14650,8 +14716,9 @@
     <hyperlink ref="A98" r:id="rId76" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex-sp2" xr:uid="{EE75FF70-9D9C-4B87-8415-A11D59741166}"/>
     <hyperlink ref="A99" r:id="rId77" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex-sp" xr:uid="{9AE3A7E7-CEDC-4F2D-B2FE-6897EDF0171F}"/>
     <hyperlink ref="A100" r:id="rId78" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex" xr:uid="{5628E367-93FF-4C74-871E-52D784A40FCD}"/>
+    <hyperlink ref="A101" r:id="rId79" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-monzein-cc" xr:uid="{A4496B2B-7DD7-4C5F-9638-AF1DD7858071}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId79"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1E41175-1A5F-4D3B-B910-BE325B83D1E4}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="647">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1974,7 +1973,13 @@
     <t>豪放の戦雷を纏う者 [地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 23/08/2020</t>
+    <t>【超絶地獄級】 HEROES OF THE ALCHEMIST</t>
+  </si>
+  <si>
+    <t>HEROES OF THE ALCHEMIST [超絶地獄級]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 02/09/2020</t>
   </si>
 </sst>
 </file>
@@ -2493,28 +2498,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M325"/>
+  <dimension ref="A1:M326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B325" sqref="B325"/>
+      <selection pane="bottomLeft" activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.09765625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.69921875" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.8984375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="8.69921875" style="11"/>
-    <col min="13" max="13" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.8984375" style="2"/>
+    <col min="2" max="2" width="76.109375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11"/>
+    <col min="13" max="13" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2522,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -11957,7 +11962,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M325" si="6">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M326" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12859,6 +12864,27 @@
       <c r="M325" s="12">
         <f t="shared" si="6"/>
         <v>185</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
+      <c r="A326" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C326" s="2">
+        <v>40</v>
+      </c>
+      <c r="D326" s="2">
+        <v>400</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M326" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -12908,16 +12934,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E101" sqref="A101:E101"/>
+      <selection activeCell="E102" sqref="A102:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="69.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14631,6 +14657,23 @@
         <v>500</v>
       </c>
       <c r="E101" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B102" t="s">
+        <v>645</v>
+      </c>
+      <c r="C102" s="14">
+        <v>40</v>
+      </c>
+      <c r="D102" s="14">
+        <v>400</v>
+      </c>
+      <c r="E102" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14717,8 +14760,9 @@
     <hyperlink ref="A99" r:id="rId77" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex-sp" xr:uid="{9AE3A7E7-CEDC-4F2D-B2FE-6897EDF0171F}"/>
     <hyperlink ref="A100" r:id="rId78" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex" xr:uid="{5628E367-93FF-4C74-871E-52D784A40FCD}"/>
     <hyperlink ref="A101" r:id="rId79" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-monzein-cc" xr:uid="{A4496B2B-7DD7-4C5F-9638-AF1DD7858071}"/>
+    <hyperlink ref="A102" r:id="rId80" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-heroes-of-the-alchemist01" xr:uid="{EAB2B190-25AC-4179-9CED-D43BBF760483}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1E41175-1A5F-4D3B-B910-BE325B83D1E4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E755893-28E3-4D36-B414-444984250441}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2503,7 +2503,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A327" sqref="A327"/>
+      <selection pane="bottomLeft" activeCell="L326" sqref="L326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 204</v>
+        <v>光 205</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
@@ -12882,9 +12882,12 @@
       <c r="E326" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M326" s="12" t="e">
+      <c r="K326" s="10">
+        <v>205</v>
+      </c>
+      <c r="M326" s="12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E755893-28E3-4D36-B414-444984250441}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC2CB43A-9B13-438C-8890-003B0539E8F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="656">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1964,9 +1964,6 @@
     <t>繋ぐ明日へのメカニカル [EX極]</t>
   </si>
   <si>
-    <t>繋ぐ明日へのメカニカル [EX]</t>
-  </si>
-  <si>
     <t>【地獄級】 豪放の戦雷を纏う者</t>
   </si>
   <si>
@@ -1979,7 +1976,37 @@
     <t>HEROES OF THE ALCHEMIST [超絶地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 02/09/2020</t>
+    <t>【超絶地獄級】コンティニュー不可 【超絶地獄級】ズバリおのれの十紋葬</t>
+  </si>
+  <si>
+    <t>ズバリおのれの十紋葬 [超絶地獄級]</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】託された緋炎、約束の先へ</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】託された緋炎、約束の先へ</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】託された緋炎、約束の先へ</t>
+  </si>
+  <si>
+    <t>託された緋炎、約束の先へ [地獄級]</t>
+  </si>
+  <si>
+    <t>託された緋炎、約束の先へ [EX極]</t>
+  </si>
+  <si>
+    <t>託された緋炎、約束の先へ</t>
+  </si>
+  <si>
+    <t>繋ぐ明日へのメカニカル</t>
+  </si>
+  <si>
+    <t>渚のトラブルシューティング</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 18/09/2020</t>
   </si>
 </sst>
 </file>
@@ -2498,12 +2525,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M326"/>
+  <dimension ref="A1:M330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L326" sqref="L326"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2527,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2540,27 +2567,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 208</v>
+        <v>火 212</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 205</v>
+        <v>水 209</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 183</v>
+        <v>風 186</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 185</v>
+        <v>雷 188</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 205</v>
+        <v>光 207</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 186</v>
+        <v>暗 189</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -11962,7 +11989,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M326" si="6">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M330" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12604,7 +12631,7 @@
         <v>626</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="C318" s="2">
         <v>40</v>
@@ -12808,7 +12835,7 @@
         <v>637</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="C324" s="2">
         <v>40</v>
@@ -12844,10 +12871,10 @@
     </row>
     <row r="325" spans="1:13">
       <c r="A325" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="C325" s="2">
         <v>50</v>
@@ -12868,10 +12895,10 @@
     </row>
     <row r="326" spans="1:13">
       <c r="A326" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="C326" s="2">
         <v>40</v>
@@ -12882,12 +12909,153 @@
       <c r="E326" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G326" s="6">
+        <v>209</v>
+      </c>
+      <c r="H326" s="7">
+        <v>207</v>
+      </c>
+      <c r="I326" s="8">
+        <v>184</v>
+      </c>
+      <c r="J326" s="9">
+        <v>186</v>
+      </c>
       <c r="K326" s="10">
         <v>205</v>
       </c>
+      <c r="L326" s="11">
+        <v>187</v>
+      </c>
       <c r="M326" s="12">
         <f t="shared" si="6"/>
-        <v>205</v>
+        <v>196.33333333333334</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
+      <c r="A327" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C327" s="2">
+        <v>40</v>
+      </c>
+      <c r="D327" s="2">
+        <v>400</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H327" s="7">
+        <v>206</v>
+      </c>
+      <c r="M327" s="12">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
+      <c r="A328" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C328" s="2">
+        <v>50</v>
+      </c>
+      <c r="D328" s="2">
+        <v>500</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G328" s="6">
+        <v>210</v>
+      </c>
+      <c r="M328" s="12">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
+      <c r="A329" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C329" s="2">
+        <v>50</v>
+      </c>
+      <c r="D329" s="2">
+        <v>500</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G329" s="6">
+        <v>212</v>
+      </c>
+      <c r="H329" s="7">
+        <v>209</v>
+      </c>
+      <c r="I329" s="8">
+        <v>186</v>
+      </c>
+      <c r="J329" s="9">
+        <v>188</v>
+      </c>
+      <c r="K329" s="10">
+        <v>207</v>
+      </c>
+      <c r="L329" s="11">
+        <v>189</v>
+      </c>
+      <c r="M329" s="12">
+        <f t="shared" si="6"/>
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
+      <c r="A330" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C330" s="2">
+        <v>40</v>
+      </c>
+      <c r="D330" s="2">
+        <v>400</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G330" s="6">
+        <v>211</v>
+      </c>
+      <c r="H330" s="7">
+        <v>208</v>
+      </c>
+      <c r="I330" s="8">
+        <v>185</v>
+      </c>
+      <c r="J330" s="9">
+        <v>187</v>
+      </c>
+      <c r="K330" s="10">
+        <v>206</v>
+      </c>
+      <c r="L330" s="11">
+        <v>188</v>
+      </c>
+      <c r="M330" s="12">
+        <f t="shared" si="6"/>
+        <v>197.5</v>
       </c>
     </row>
   </sheetData>
@@ -12937,10 +13105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E102" sqref="A102:E102"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E106" sqref="A104:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14634,7 +14802,7 @@
         <v>637</v>
       </c>
       <c r="B100" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="C100" s="14">
         <v>40</v>
@@ -14648,10 +14816,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B101" t="s">
         <v>642</v>
-      </c>
-      <c r="B101" t="s">
-        <v>643</v>
       </c>
       <c r="C101" s="14">
         <v>50</v>
@@ -14665,10 +14833,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="B102" t="s">
         <v>644</v>
-      </c>
-      <c r="B102" t="s">
-        <v>645</v>
       </c>
       <c r="C102" s="14">
         <v>40</v>
@@ -14677,6 +14845,74 @@
         <v>400</v>
       </c>
       <c r="E102" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="B103" t="s">
+        <v>646</v>
+      </c>
+      <c r="C103" s="14">
+        <v>40</v>
+      </c>
+      <c r="D103" s="14">
+        <v>400</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="B104" t="s">
+        <v>650</v>
+      </c>
+      <c r="C104" s="14">
+        <v>50</v>
+      </c>
+      <c r="D104" s="14">
+        <v>500</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B105" t="s">
+        <v>651</v>
+      </c>
+      <c r="C105" s="14">
+        <v>50</v>
+      </c>
+      <c r="D105" s="14">
+        <v>500</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B106" t="s">
+        <v>652</v>
+      </c>
+      <c r="C106" s="14">
+        <v>40</v>
+      </c>
+      <c r="D106" s="14">
+        <v>400</v>
+      </c>
+      <c r="E106" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14764,8 +15000,12 @@
     <hyperlink ref="A100" r:id="rId78" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-yudit-ex" xr:uid="{5628E367-93FF-4C74-871E-52D784A40FCD}"/>
     <hyperlink ref="A101" r:id="rId79" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-monzein-cc" xr:uid="{A4496B2B-7DD7-4C5F-9638-AF1DD7858071}"/>
     <hyperlink ref="A102" r:id="rId80" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-heroes-of-the-alchemist01" xr:uid="{EAB2B190-25AC-4179-9CED-D43BBF760483}"/>
+    <hyperlink ref="A103" r:id="rId81" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-also-sprach-zen-impossible" xr:uid="{541C0F1D-C7D1-41E4-9350-7FD1989555EC}"/>
+    <hyperlink ref="A104" r:id="rId82" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-vettel-ex-sp2" xr:uid="{05158A58-8D38-4D6D-B035-2CC2F81DE6E3}"/>
+    <hyperlink ref="A105" r:id="rId83" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-vettel-ex-sp" xr:uid="{0FB977B9-F55A-42CE-B1AD-7E374D1E14C7}"/>
+    <hyperlink ref="A106" r:id="rId84" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-vettel-ex" xr:uid="{360A0A5A-934C-411E-B39E-3C4BA9F7EB35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC2CB43A-9B13-438C-8890-003B0539E8F3}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA5A9985-D948-4A60-8B5F-129716B34B07}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="660">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2006,7 +2006,19 @@
     <t>渚のトラブルシューティング</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 18/09/2020</t>
+    <t>Name (formatted) - list last updated 25/09/2020</t>
+  </si>
+  <si>
+    <t>【地獄級】 絶対正義を導く者</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ　EX2[エミリア武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ　EX1[ナツキ・スバル武具獲得]</t>
+  </si>
+  <si>
+    <t>絶対正義を導く者 [地獄級]</t>
   </si>
 </sst>
 </file>
@@ -2525,12 +2537,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:M333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
+      <selection pane="bottomLeft" activeCell="K332" sqref="K332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2567,27 +2579,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 212</v>
+        <v>火 213</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 209</v>
+        <v>水 211</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 186</v>
+        <v>風 188</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 188</v>
+        <v>雷 189</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 207</v>
+        <v>光 211</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 189</v>
+        <v>暗 192</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -11493,9 +11505,24 @@
       <c r="E283" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M283" s="12" t="e">
+      <c r="G283" s="6">
+        <v>213</v>
+      </c>
+      <c r="H283" s="7">
+        <v>211</v>
+      </c>
+      <c r="I283" s="8">
+        <v>188</v>
+      </c>
+      <c r="K283" s="10">
+        <v>209</v>
+      </c>
+      <c r="L283" s="11">
+        <v>192</v>
+      </c>
+      <c r="M283" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>202.6</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -11529,12 +11556,15 @@
       <c r="K284" s="10">
         <v>163</v>
       </c>
+      <c r="L284" s="11">
+        <v>190</v>
+      </c>
       <c r="M284" s="12">
         <f t="shared" si="4"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" hidden="1">
       <c r="A285" s="1" t="s">
         <v>564</v>
       </c>
@@ -11989,7 +12019,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M330" si="6">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M333" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -12975,9 +13005,24 @@
       <c r="G328" s="6">
         <v>210</v>
       </c>
+      <c r="H328" s="7">
+        <v>210</v>
+      </c>
+      <c r="I328" s="8">
+        <v>187</v>
+      </c>
+      <c r="J328" s="9">
+        <v>189</v>
+      </c>
+      <c r="K328" s="10">
+        <v>208</v>
+      </c>
+      <c r="L328" s="11">
+        <v>191</v>
+      </c>
       <c r="M328" s="12">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>199.16666666666666</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -12997,7 +13042,7 @@
         <v>4</v>
       </c>
       <c r="G329" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H329" s="7">
         <v>209</v>
@@ -13016,7 +13061,7 @@
       </c>
       <c r="M329" s="12">
         <f t="shared" si="6"/>
-        <v>198.5</v>
+        <v>198.33333333333334</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -13036,7 +13081,7 @@
         <v>4</v>
       </c>
       <c r="G330" s="6">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H330" s="7">
         <v>208</v>
@@ -13055,7 +13100,76 @@
       </c>
       <c r="M330" s="12">
         <f t="shared" si="6"/>
-        <v>197.5</v>
+        <v>197.66666666666666</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13">
+      <c r="A331" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C331" s="2">
+        <v>50</v>
+      </c>
+      <c r="D331" s="2">
+        <v>500</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K331" s="10">
+        <v>210</v>
+      </c>
+      <c r="M331" s="12">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
+      <c r="A332" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C332" s="2">
+        <v>40</v>
+      </c>
+      <c r="D332" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M332" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13">
+      <c r="A333" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C333" s="2">
+        <v>40</v>
+      </c>
+      <c r="D333" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K333" s="10">
+        <v>211</v>
+      </c>
+      <c r="M333" s="12">
+        <f t="shared" si="6"/>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -13105,10 +13219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E106" sqref="A104:E106"/>
+      <selection activeCell="E109" sqref="A108:E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14913,6 +15027,57 @@
         <v>400</v>
       </c>
       <c r="E106" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B107" t="s">
+        <v>659</v>
+      </c>
+      <c r="C107" s="14">
+        <v>50</v>
+      </c>
+      <c r="D107" s="14">
+        <v>500</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B108" t="s">
+        <v>657</v>
+      </c>
+      <c r="C108" s="14">
+        <v>40</v>
+      </c>
+      <c r="D108" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="B109" t="s">
+        <v>658</v>
+      </c>
+      <c r="C109" s="14">
+        <v>40</v>
+      </c>
+      <c r="D109" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E109" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15004,8 +15169,11 @@
     <hyperlink ref="A104" r:id="rId82" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-vettel-ex-sp2" xr:uid="{05158A58-8D38-4D6D-B035-2CC2F81DE6E3}"/>
     <hyperlink ref="A105" r:id="rId83" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-vettel-ex-sp" xr:uid="{0FB977B9-F55A-42CE-B1AD-7E374D1E14C7}"/>
     <hyperlink ref="A106" r:id="rId84" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-vettel-ex" xr:uid="{360A0A5A-934C-411E-B39E-3C4BA9F7EB35}"/>
+    <hyperlink ref="A107" r:id="rId85" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-zayin-cc" xr:uid="{7A59F15C-2F1C-45AC-9943-DBACA0D8E91F}"/>
+    <hyperlink ref="A108" r:id="rId86" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-02" xr:uid="{224FF768-9C55-4D28-8DF3-48829B6774B8}"/>
+    <hyperlink ref="A109" r:id="rId87" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-01" xr:uid="{9B99E367-BABF-45D8-941C-CED175A38FC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA5A9985-D948-4A60-8B5F-129716B34B07}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B85BB7F-52DB-4A4E-8D71-10E0845523AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="666">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2006,9 +2006,6 @@
     <t>渚のトラブルシューティング</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 25/09/2020</t>
-  </si>
-  <si>
     <t>【地獄級】 絶対正義を導く者</t>
   </si>
   <si>
@@ -2019,6 +2016,27 @@
   </si>
   <si>
     <t>絶対正義を導く者 [地獄級]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ　EX4[レム武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ　EX3[ラム武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ EX2[エミリア武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ EX1[ナツキ・スバル武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ EX4[レム武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト Re:ゼロコラボ EX3[ラム武具獲得]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 01/10/2020</t>
   </si>
 </sst>
 </file>
@@ -2537,12 +2555,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M333"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K332" sqref="K332"/>
+      <selection pane="bottomLeft" activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2566,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -13105,10 +13123,10 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C331" s="2">
         <v>50</v>
@@ -13129,10 +13147,10 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C332" s="2">
         <v>40</v>
@@ -13150,10 +13168,10 @@
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C333" s="2">
         <v>40</v>
@@ -13170,6 +13188,40 @@
       <c r="M333" s="12">
         <f t="shared" si="6"/>
         <v>211</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13">
+      <c r="A334" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C334" s="2">
+        <v>40</v>
+      </c>
+      <c r="D334" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13">
+      <c r="A335" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C335" s="2">
+        <v>40</v>
+      </c>
+      <c r="D335" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -13219,10 +13271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E109" sqref="A108:E109"/>
+      <selection activeCell="E110" sqref="A110:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15032,10 +15084,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B107" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C107" s="14">
         <v>50</v>
@@ -15049,10 +15101,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B108" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C108" s="14">
         <v>40</v>
@@ -15066,10 +15118,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B109" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C109" s="14">
         <v>40</v>
@@ -15078,6 +15130,40 @@
         <v>11000</v>
       </c>
       <c r="E109" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="B110" t="s">
+        <v>659</v>
+      </c>
+      <c r="C110" s="14">
+        <v>40</v>
+      </c>
+      <c r="D110" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="B111" t="s">
+        <v>660</v>
+      </c>
+      <c r="C111" s="14">
+        <v>40</v>
+      </c>
+      <c r="D111" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E111" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15172,8 +15258,10 @@
     <hyperlink ref="A107" r:id="rId85" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-zayin-cc" xr:uid="{7A59F15C-2F1C-45AC-9943-DBACA0D8E91F}"/>
     <hyperlink ref="A108" r:id="rId86" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-02" xr:uid="{224FF768-9C55-4D28-8DF3-48829B6774B8}"/>
     <hyperlink ref="A109" r:id="rId87" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-01" xr:uid="{9B99E367-BABF-45D8-941C-CED175A38FC5}"/>
+    <hyperlink ref="A110" r:id="rId88" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-04" xr:uid="{39EB356B-9458-4C9F-B28E-4913763BC4E5}"/>
+    <hyperlink ref="A111" r:id="rId89" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-03" xr:uid="{311383FD-9A24-452A-80FB-78A6E6D5C7EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B85BB7F-52DB-4A4E-8D71-10E0845523AC}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DEA3337-5727-46F0-905A-CC6851AB27BD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="674">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2036,7 +2036,31 @@
     <t>高難易度クエスト Re:ゼロコラボ EX3[ラム武具獲得]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 01/10/2020</t>
+    <t>【超絶地獄級】 【超絶地獄級】Re:ゼロから重なる異世界生活</t>
+  </si>
+  <si>
+    <t>Re:ゼロから重なる異世界生活 [超絶地獄級]</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】Sunshine・Halloween</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】Sunshine・Halloween</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】Sunshine・Halloween</t>
+  </si>
+  <si>
+    <t>Sunshine・Halloween [地獄級]</t>
+  </si>
+  <si>
+    <t>Sunshine・Halloween [EX極]</t>
+  </si>
+  <si>
+    <t>Sunshine・Halloween</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 16/10/2020</t>
   </si>
 </sst>
 </file>
@@ -2555,12 +2579,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:M339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A336" sqref="A336"/>
+      <selection pane="bottomLeft" activeCell="L339" sqref="L339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2584,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2597,27 +2621,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 213</v>
+        <v>火 219</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 211</v>
+        <v>水 215</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 188</v>
+        <v>風 192</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 189</v>
+        <v>雷 193</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 211</v>
+        <v>光 216</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 192</v>
+        <v>暗 196</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -12037,7 +12061,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M333" si="6">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M339" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -13161,9 +13185,27 @@
       <c r="E332" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M332" s="12" t="e">
+      <c r="G332" s="6">
+        <v>215</v>
+      </c>
+      <c r="H332" s="7">
+        <v>214</v>
+      </c>
+      <c r="I332" s="8">
+        <v>191</v>
+      </c>
+      <c r="J332" s="9">
+        <v>192</v>
+      </c>
+      <c r="K332" s="10">
+        <v>214</v>
+      </c>
+      <c r="L332" s="11">
+        <v>196</v>
+      </c>
+      <c r="M332" s="12">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>203.66666666666666</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -13182,12 +13224,27 @@
       <c r="E333" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G333" s="6">
+        <v>214</v>
+      </c>
+      <c r="H333" s="7">
+        <v>213</v>
+      </c>
+      <c r="I333" s="8">
+        <v>190</v>
+      </c>
+      <c r="J333" s="9">
+        <v>191</v>
+      </c>
       <c r="K333" s="10">
         <v>211</v>
       </c>
+      <c r="L333" s="11">
+        <v>195</v>
+      </c>
       <c r="M333" s="12">
         <f t="shared" si="6"/>
-        <v>211</v>
+        <v>202.33333333333334</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -13206,6 +13263,28 @@
       <c r="E334" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G334" s="6">
+        <v>217</v>
+      </c>
+      <c r="H334" s="7">
+        <v>212</v>
+      </c>
+      <c r="I334" s="8">
+        <v>189</v>
+      </c>
+      <c r="J334" s="9">
+        <v>190</v>
+      </c>
+      <c r="K334" s="10">
+        <v>213</v>
+      </c>
+      <c r="L334" s="11">
+        <v>193</v>
+      </c>
+      <c r="M334" s="12">
+        <f t="shared" si="6"/>
+        <v>202.33333333333334</v>
+      </c>
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="1" t="s">
@@ -13222,6 +13301,124 @@
       </c>
       <c r="E335" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="G335" s="6">
+        <v>216</v>
+      </c>
+      <c r="H335" s="7">
+        <v>215</v>
+      </c>
+      <c r="I335" s="8">
+        <v>192</v>
+      </c>
+      <c r="J335" s="9">
+        <v>193</v>
+      </c>
+      <c r="K335" s="10">
+        <v>212</v>
+      </c>
+      <c r="L335" s="11">
+        <v>194</v>
+      </c>
+      <c r="M335" s="12">
+        <f t="shared" si="6"/>
+        <v>203.66666666666666</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13">
+      <c r="A336" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C336" s="2">
+        <v>50</v>
+      </c>
+      <c r="D336" s="2">
+        <v>500</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K336" s="10">
+        <v>215</v>
+      </c>
+      <c r="M336" s="12">
+        <f t="shared" si="6"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13">
+      <c r="A337" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C337" s="2">
+        <v>50</v>
+      </c>
+      <c r="D337" s="2">
+        <v>500</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K337" s="10">
+        <v>216</v>
+      </c>
+      <c r="M337" s="12">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13">
+      <c r="A338" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C338" s="2">
+        <v>50</v>
+      </c>
+      <c r="D338" s="2">
+        <v>500</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G338" s="6">
+        <v>219</v>
+      </c>
+      <c r="M338" s="12">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13">
+      <c r="A339" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C339" s="2">
+        <v>40</v>
+      </c>
+      <c r="D339" s="2">
+        <v>400</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G339" s="6">
+        <v>218</v>
+      </c>
+      <c r="M339" s="12">
+        <f t="shared" si="6"/>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -13271,10 +13468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E110" sqref="A110:E111"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E115" sqref="A113:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15164,6 +15361,74 @@
         <v>11000</v>
       </c>
       <c r="E111" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="B112" t="s">
+        <v>666</v>
+      </c>
+      <c r="C112" s="14">
+        <v>50</v>
+      </c>
+      <c r="D112" s="14">
+        <v>500</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="B113" t="s">
+        <v>670</v>
+      </c>
+      <c r="C113" s="14">
+        <v>50</v>
+      </c>
+      <c r="D113" s="14">
+        <v>500</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B114" t="s">
+        <v>671</v>
+      </c>
+      <c r="C114" s="14">
+        <v>50</v>
+      </c>
+      <c r="D114" s="14">
+        <v>500</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B115" t="s">
+        <v>672</v>
+      </c>
+      <c r="C115" s="14">
+        <v>40</v>
+      </c>
+      <c r="D115" s="14">
+        <v>400</v>
+      </c>
+      <c r="E115" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15260,8 +15525,12 @@
     <hyperlink ref="A109" r:id="rId87" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-01" xr:uid="{9B99E367-BABF-45D8-941C-CED175A38FC5}"/>
     <hyperlink ref="A110" r:id="rId88" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-04" xr:uid="{39EB356B-9458-4C9F-B28E-4913763BC4E5}"/>
     <hyperlink ref="A111" r:id="rId89" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-re0-ex-03" xr:uid="{311383FD-9A24-452A-80FB-78A6E6D5C7EE}"/>
+    <hyperlink ref="A112" r:id="rId90" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-clear-impossible-re0-1" xr:uid="{8DEE1AE7-05E7-4D5B-BF25-A421B033D063}"/>
+    <hyperlink ref="A113" r:id="rId91" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-halloween-2020-ex-sp2" xr:uid="{4AB5F513-5EEC-4D3E-8539-A6142E960531}"/>
+    <hyperlink ref="A114" r:id="rId92" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-halloween-2020-ex-sp" xr:uid="{6FA5306F-3835-4837-84A9-8414251D9D6D}"/>
+    <hyperlink ref="A115" r:id="rId93" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-halloween-2020-ex" xr:uid="{49F2020F-144F-4792-8DD1-DC097942959A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3DEA3337-5727-46F0-905A-CC6851AB27BD}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6F293E9-AD55-40A7-85B8-01D9B782F726}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="676">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2060,7 +2060,13 @@
     <t>Sunshine・Halloween</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 16/10/2020</t>
+    <t>【地獄級】 灼熱の鳳を繰りし者</t>
+  </si>
+  <si>
+    <t>【零奏槍『神伐』登場】 ファントム オブ アルケミスト12[EX]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 24/10/2020</t>
   </si>
 </sst>
 </file>
@@ -2579,12 +2585,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M339"/>
+  <dimension ref="A1:M341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L339" sqref="L339"/>
+      <selection pane="bottomLeft" activeCell="L342" sqref="L342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2608,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2621,27 +2627,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 219</v>
+        <v>火 221</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 215</v>
+        <v>水 219</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 192</v>
+        <v>風 195</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 193</v>
+        <v>雷 197</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 216</v>
+        <v>光 219</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 196</v>
+        <v>暗 199</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -12061,7 +12067,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M339" si="6">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M341" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -13365,12 +13371,21 @@
       <c r="E337" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G337" s="6">
+        <v>220</v>
+      </c>
+      <c r="H337" s="7">
+        <v>218</v>
+      </c>
+      <c r="J337" s="9">
+        <v>196</v>
+      </c>
       <c r="K337" s="10">
         <v>216</v>
       </c>
       <c r="M337" s="12">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -13392,9 +13407,24 @@
       <c r="G338" s="6">
         <v>219</v>
       </c>
+      <c r="H338" s="7">
+        <v>217</v>
+      </c>
+      <c r="I338" s="8">
+        <v>194</v>
+      </c>
+      <c r="J338" s="9">
+        <v>195</v>
+      </c>
+      <c r="K338" s="10">
+        <v>218</v>
+      </c>
+      <c r="L338" s="11">
+        <v>198</v>
+      </c>
       <c r="M338" s="12">
         <f t="shared" si="6"/>
-        <v>219</v>
+        <v>206.83333333333334</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -13416,9 +13446,84 @@
       <c r="G339" s="6">
         <v>218</v>
       </c>
+      <c r="H339" s="7">
+        <v>216</v>
+      </c>
+      <c r="I339" s="8">
+        <v>193</v>
+      </c>
+      <c r="J339" s="9">
+        <v>194</v>
+      </c>
+      <c r="K339" s="10">
+        <v>217</v>
+      </c>
+      <c r="L339" s="11">
+        <v>197</v>
+      </c>
       <c r="M339" s="12">
         <f t="shared" si="6"/>
-        <v>218</v>
+        <v>205.83333333333334</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13">
+      <c r="A340" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C340" s="2">
+        <v>50</v>
+      </c>
+      <c r="D340" s="2">
+        <v>500</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M340" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13">
+      <c r="A341" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C341" s="2">
+        <v>40</v>
+      </c>
+      <c r="D341" s="2">
+        <v>400</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G341" s="6">
+        <v>221</v>
+      </c>
+      <c r="H341" s="7">
+        <v>219</v>
+      </c>
+      <c r="I341" s="8">
+        <v>195</v>
+      </c>
+      <c r="J341" s="9">
+        <v>197</v>
+      </c>
+      <c r="K341" s="10">
+        <v>219</v>
+      </c>
+      <c r="L341" s="11">
+        <v>199</v>
+      </c>
+      <c r="M341" s="12">
+        <f t="shared" si="6"/>
+        <v>208.33333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -13468,10 +13573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E115" sqref="A113:E115"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E117" sqref="A116:E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15429,6 +15534,40 @@
         <v>400</v>
       </c>
       <c r="E115" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="B116" t="s">
+        <v>673</v>
+      </c>
+      <c r="C116" s="14">
+        <v>50</v>
+      </c>
+      <c r="D116" s="14">
+        <v>500</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s">
+        <v>674</v>
+      </c>
+      <c r="C117" s="14">
+        <v>40</v>
+      </c>
+      <c r="D117" s="14">
+        <v>400</v>
+      </c>
+      <c r="E117" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15529,8 +15668,10 @@
     <hyperlink ref="A113" r:id="rId91" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-halloween-2020-ex-sp2" xr:uid="{4AB5F513-5EEC-4D3E-8539-A6142E960531}"/>
     <hyperlink ref="A114" r:id="rId92" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-halloween-2020-ex-sp" xr:uid="{6FA5306F-3835-4837-84A9-8414251D9D6D}"/>
     <hyperlink ref="A115" r:id="rId93" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-halloween-2020-ex" xr:uid="{49F2020F-144F-4792-8DD1-DC097942959A}"/>
+    <hyperlink ref="A116" r:id="rId94" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-kagura-cc" xr:uid="{77FA7FB4-1E40-433B-8CD2-CCFA2C59B28C}"/>
+    <hyperlink ref="A117" r:id="rId95" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok14-ex" xr:uid="{C453BE99-50A4-4247-936C-82809A5E8814}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6F293E9-AD55-40A7-85B8-01D9B782F726}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5F44477-DACE-4E7C-A015-EBF8E17C1B73}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="682">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2066,7 +2066,25 @@
     <t>【零奏槍『神伐』登場】 ファントム オブ アルケミスト12[EX]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 24/10/2020</t>
+    <t>【地獄級】コンティニュー不可 6th Anniversary クエスト</t>
+  </si>
+  <si>
+    <t>【零奏斧『神圧』登場】 ファントム オブ アルケミスト13[EX]</t>
+  </si>
+  <si>
+    <t>灼熱の鳳を繰りし者 [地獄級]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト12 [EX]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト13 [EX]</t>
+  </si>
+  <si>
+    <t>6th Anniversary クエスト [地獄級]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 06/11/2020</t>
   </si>
 </sst>
 </file>
@@ -2585,12 +2603,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M341"/>
+  <dimension ref="A1:M343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L342" sqref="L342"/>
+      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2614,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2627,27 +2645,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1004)</f>
-        <v>火 221</v>
+        <v>火 224</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1004)</f>
-        <v>水 219</v>
+        <v>水 222</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1004)</f>
-        <v>風 195</v>
+        <v>風 198</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1004)</f>
-        <v>雷 197</v>
+        <v>雷 200</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1004)</f>
-        <v>光 219</v>
+        <v>光 222</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1004)</f>
-        <v>暗 199</v>
+        <v>暗 203</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>340</v>
@@ -8237,9 +8255,27 @@
       <c r="E181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M181" s="12" t="e">
+      <c r="G181" s="6">
+        <v>223</v>
+      </c>
+      <c r="H181" s="7">
+        <v>221</v>
+      </c>
+      <c r="I181" s="8">
+        <v>196</v>
+      </c>
+      <c r="J181" s="9">
+        <v>199</v>
+      </c>
+      <c r="K181" s="10">
+        <v>221</v>
+      </c>
+      <c r="L181" s="11">
+        <v>201</v>
+      </c>
+      <c r="M181" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>210.16666666666666</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8258,12 +8294,27 @@
       <c r="E182" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G182" s="6">
+        <v>222</v>
+      </c>
+      <c r="H182" s="7">
+        <v>220</v>
+      </c>
       <c r="I182" s="8">
         <v>61</v>
       </c>
+      <c r="J182" s="9">
+        <v>198</v>
+      </c>
+      <c r="K182" s="10">
+        <v>220</v>
+      </c>
+      <c r="L182" s="11">
+        <v>200</v>
+      </c>
       <c r="M182" s="12">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>186.83333333333334</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -12067,7 +12118,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M341" si="6">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M343" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -13377,15 +13428,21 @@
       <c r="H337" s="7">
         <v>218</v>
       </c>
+      <c r="I337" s="8">
+        <v>197</v>
+      </c>
       <c r="J337" s="9">
         <v>196</v>
       </c>
       <c r="K337" s="10">
         <v>216</v>
       </c>
+      <c r="L337" s="11">
+        <v>202</v>
+      </c>
       <c r="M337" s="12">
         <f t="shared" si="6"/>
-        <v>212.5</v>
+        <v>208.16666666666666</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -13471,7 +13528,7 @@
         <v>673</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C340" s="2">
         <v>50</v>
@@ -13492,7 +13549,7 @@
         <v>674</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C341" s="2">
         <v>40</v>
@@ -13524,6 +13581,66 @@
       <c r="M341" s="12">
         <f t="shared" si="6"/>
         <v>208.33333333333334</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13">
+      <c r="A342" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C342" s="2">
+        <v>50</v>
+      </c>
+      <c r="D342" s="2">
+        <v>500</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M342" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13">
+      <c r="A343" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C343" s="2">
+        <v>40</v>
+      </c>
+      <c r="D343" s="2">
+        <v>400</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G343" s="6">
+        <v>224</v>
+      </c>
+      <c r="H343" s="7">
+        <v>222</v>
+      </c>
+      <c r="I343" s="8">
+        <v>198</v>
+      </c>
+      <c r="J343" s="9">
+        <v>200</v>
+      </c>
+      <c r="K343" s="10">
+        <v>222</v>
+      </c>
+      <c r="L343" s="11">
+        <v>203</v>
+      </c>
+      <c r="M343" s="12">
+        <f t="shared" si="6"/>
+        <v>211.5</v>
       </c>
     </row>
   </sheetData>
@@ -13573,10 +13690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E117" sqref="A116:E117"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E118" sqref="A118:E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15568,6 +15685,40 @@
         <v>400</v>
       </c>
       <c r="E117" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B118" t="s">
+        <v>675</v>
+      </c>
+      <c r="C118" s="14">
+        <v>50</v>
+      </c>
+      <c r="D118" s="14">
+        <v>500</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="B119" t="s">
+        <v>676</v>
+      </c>
+      <c r="C119" s="14">
+        <v>40</v>
+      </c>
+      <c r="D119" s="14">
+        <v>400</v>
+      </c>
+      <c r="E119" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15670,8 +15821,10 @@
     <hyperlink ref="A115" r:id="rId93" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-halloween-2020-ex" xr:uid="{49F2020F-144F-4792-8DD1-DC097942959A}"/>
     <hyperlink ref="A116" r:id="rId94" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-kagura-cc" xr:uid="{77FA7FB4-1E40-433B-8CD2-CCFA2C59B28C}"/>
     <hyperlink ref="A117" r:id="rId95" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok14-ex" xr:uid="{C453BE99-50A4-4247-936C-82809A5E8814}"/>
+    <hyperlink ref="A118" r:id="rId96" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok-6th-anniv-01" xr:uid="{54B1FE1E-445B-4C2C-A6FC-DE807E1AB892}"/>
+    <hyperlink ref="A119" r:id="rId97" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok15-ex" xr:uid="{B2CAC034-FCF3-47D8-A350-1FE49DB70645}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
--- a/exQuest.xlsx
+++ b/exQuest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5F44477-DACE-4E7C-A015-EBF8E17C1B73}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{0C8BA47A-7596-4615-BA2C-AC5C85A73F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF369B5C-2377-4AA4-8133-691420F04884}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="691">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2084,7 +2084,34 @@
     <t>6th Anniversary クエスト [地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 06/11/2020</t>
+    <t>【地獄級】コンティニュー不可 【地獄級】永遠を紡ぐラブレター</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】永遠を紡ぐラブレター</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】永遠を紡ぐラブレター</t>
+  </si>
+  <si>
+    <t>【地獄級】 修羅の魔槍を振るう者</t>
+  </si>
+  <si>
+    <t>永遠を紡ぐラブレター [地獄級]</t>
+  </si>
+  <si>
+    <t>永遠を紡ぐラブレター [EX極]</t>
+  </si>
+  <si>
+    <t>永遠を紡ぐラブレター</t>
+  </si>
+  <si>
+    <t>修羅の魔槍を振るう者 [地獄級]</t>
+  </si>
+  <si>
+    <t>【超絶地獄級】 リターンズクエスト1</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 04/12/2020</t>
   </si>
 </sst>
 </file>
@@ -2603,12 +2630,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M343"/>
+  <dimension ref="A1:M348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
+      <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2632,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -12118,7 +12145,7 @@
         <v>156</v>
       </c>
       <c r="M298" s="12">
-        <f t="shared" ref="M298:M343" si="6">AVERAGE(G298:L298)</f>
+        <f t="shared" ref="M298:M348" si="6">AVERAGE(G298:L298)</f>
         <v>165</v>
       </c>
     </row>
@@ -13641,6 +13668,111 @@
       <c r="M343" s="12">
         <f t="shared" si="6"/>
         <v>211.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13">
+      <c r="A344" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B344" t="s">
+        <v>685</v>
+      </c>
+      <c r="C344" s="2">
+        <v>50</v>
+      </c>
+      <c r="D344" s="2">
+        <v>500</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M344" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13">
+      <c r="A345" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B345" t="s">
+        <v>686</v>
+      </c>
+      <c r="C345" s="2">
+        <v>50</v>
+      </c>
+      <c r="D345" s="2">
+        <v>500</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M345" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13">
+      <c r="A346" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B346" t="s">
+        <v>687</v>
+      </c>
+      <c r="C346" s="2">
+        <v>40</v>
+      </c>
+      <c r="D346" s="2">
+        <v>400</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M346" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13">
+      <c r="A347" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B347" t="s">
+        <v>688</v>
+      </c>
+      <c r="C347" s="2">
+        <v>50</v>
+      </c>
+      <c r="D347" s="2">
+        <v>500</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M347" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13">
+      <c r="A348" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C348" s="2">
+        <v>100</v>
+      </c>
+      <c r="D348" s="2">
+        <v>500</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M348" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -13690,10 +13822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E118" sqref="A118:E119"/>
+      <selection activeCell="E124" sqref="A124:E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15719,6 +15851,91 @@
         <v>400</v>
       </c>
       <c r="E119" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B120" t="s">
+        <v>685</v>
+      </c>
+      <c r="C120" s="14">
+        <v>50</v>
+      </c>
+      <c r="D120" s="14">
+        <v>500</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B121" t="s">
+        <v>686</v>
+      </c>
+      <c r="C121" s="14">
+        <v>50</v>
+      </c>
+      <c r="D121" s="14">
+        <v>500</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B122" t="s">
+        <v>687</v>
+      </c>
+      <c r="C122" s="14">
+        <v>40</v>
+      </c>
+      <c r="D122" s="14">
+        <v>400</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="B123" t="s">
+        <v>688</v>
+      </c>
+      <c r="C123" s="14">
+        <v>50</v>
+      </c>
+      <c r="D123" s="14">
+        <v>500</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="B124" t="s">
+        <v>689</v>
+      </c>
+      <c r="C124" s="14">
+        <v>100</v>
+      </c>
+      <c r="D124" s="14">
+        <v>500</v>
+      </c>
+      <c r="E124" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15823,8 +16040,13 @@
     <hyperlink ref="A117" r:id="rId95" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok14-ex" xr:uid="{C453BE99-50A4-4247-936C-82809A5E8814}"/>
     <hyperlink ref="A118" r:id="rId96" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok-6th-anniv-01" xr:uid="{54B1FE1E-445B-4C2C-A6FC-DE807E1AB892}"/>
     <hyperlink ref="A119" r:id="rId97" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-pok15-ex" xr:uid="{B2CAC034-FCF3-47D8-A350-1FE49DB70645}"/>
+    <hyperlink ref="A120" r:id="rId98" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-fraise-eve-cc-ex-sp2" xr:uid="{7A1E059B-580F-4D8A-9196-D388AE665D62}"/>
+    <hyperlink ref="A121" r:id="rId99" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-fraise-eve-cc-ex-sp" xr:uid="{12632DFE-38D1-48CE-8C4F-F3AA6D14A8F4}"/>
+    <hyperlink ref="A122" r:id="rId100" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-fraise-eve-cc-ex" xr:uid="{56A219A8-BC16-4C48-8D27-E899954EE830}"/>
+    <hyperlink ref="A123" r:id="rId101" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-kudhanstein-cc" xr:uid="{DD9137B0-4CF6-4691-8E1C-4A9945E008AA}"/>
+    <hyperlink ref="A124" r:id="rId102" display="https://www.alchemistcodedb.com/jp/quest/qe-ev-returns-01" xr:uid="{89901C8F-9356-41F0-8334-D48E19FBAD9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId103"/>
 </worksheet>
 </file>